--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
   <si>
     <t>電文/テーブル名</t>
     <rPh sb="0" eb="2">
@@ -555,10 +555,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>【外部インターフェース定義書_XXX】を参照する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>エラーコード</t>
     <phoneticPr fontId="11"/>
   </si>
@@ -570,6 +566,14 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. [取引ID]([取引名])</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【外部インタフェース定義書_XXX】を参照する。</t>
     <phoneticPr fontId="11"/>
   </si>
 </sst>
@@ -1311,189 +1315,189 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1572,196 +1576,196 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -5427,53 +5431,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="143" t="s">
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
+      <c r="S1" s="172"/>
+      <c r="T1" s="173"/>
+      <c r="U1" s="173"/>
+      <c r="V1" s="173"/>
+      <c r="W1" s="173"/>
+      <c r="X1" s="173"/>
+      <c r="Y1" s="173"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="143" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
+      <c r="AG1" s="182" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="183"/>
+      <c r="AI1" s="184"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5481,51 +5485,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="143" t="s">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="176"/>
+      <c r="U2" s="176"/>
+      <c r="V2" s="176"/>
+      <c r="W2" s="176"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
+      <c r="AA2" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="185" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="186"/>
+      <c r="AE2" s="186"/>
+      <c r="AF2" s="187"/>
+      <c r="AG2" s="182" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="183"/>
+      <c r="AI2" s="184"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5533,43 +5537,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
+      <c r="S3" s="178"/>
+      <c r="T3" s="179"/>
+      <c r="U3" s="179"/>
+      <c r="V3" s="179"/>
+      <c r="W3" s="179"/>
+      <c r="X3" s="179"/>
+      <c r="Y3" s="179"/>
+      <c r="Z3" s="180"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="143"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
+      <c r="AG3" s="182"/>
+      <c r="AH3" s="183"/>
+      <c r="AI3" s="184"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5708,52 +5712,52 @@
       <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="146" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="147"/>
+      <c r="D7" s="146" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="173" t="s">
+      <c r="E7" s="148"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="146" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="148"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="154" t="s">
         <v>65</v>
       </c>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="173" t="s">
+      <c r="K7" s="148"/>
+      <c r="L7" s="148"/>
+      <c r="M7" s="148"/>
+      <c r="N7" s="148"/>
+      <c r="O7" s="148"/>
+      <c r="P7" s="147"/>
+      <c r="Q7" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="173" t="s">
+      <c r="R7" s="148"/>
+      <c r="S7" s="148"/>
+      <c r="T7" s="148"/>
+      <c r="U7" s="148"/>
+      <c r="V7" s="148"/>
+      <c r="W7" s="148"/>
+      <c r="X7" s="148"/>
+      <c r="Y7" s="148"/>
+      <c r="Z7" s="148"/>
+      <c r="AA7" s="148"/>
+      <c r="AB7" s="148"/>
+      <c r="AC7" s="148"/>
+      <c r="AD7" s="148"/>
+      <c r="AE7" s="147"/>
+      <c r="AF7" s="146" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="174"/>
+      <c r="AG7" s="148"/>
+      <c r="AH7" s="148"/>
+      <c r="AI7" s="147"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="33"/>
@@ -5762,40 +5766,40 @@
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="125"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
-      <c r="AI8" s="182"/>
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="152"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="188"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="155"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="157"/>
+      <c r="Q8" s="158"/>
+      <c r="R8" s="159"/>
+      <c r="S8" s="159"/>
+      <c r="T8" s="159"/>
+      <c r="U8" s="159"/>
+      <c r="V8" s="159"/>
+      <c r="W8" s="159"/>
+      <c r="X8" s="159"/>
+      <c r="Y8" s="159"/>
+      <c r="Z8" s="159"/>
+      <c r="AA8" s="159"/>
+      <c r="AB8" s="159"/>
+      <c r="AC8" s="159"/>
+      <c r="AD8" s="159"/>
+      <c r="AE8" s="160"/>
+      <c r="AF8" s="155"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="157"/>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
@@ -5804,21 +5808,21 @@
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130"/>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="135"/>
+      <c r="L9" s="135"/>
+      <c r="M9" s="135"/>
+      <c r="N9" s="135"/>
+      <c r="O9" s="135"/>
+      <c r="P9" s="136"/>
       <c r="Q9" s="137"/>
       <c r="R9" s="138"/>
       <c r="S9" s="138"/>
@@ -5834,10 +5838,10 @@
       <c r="AC9" s="138"/>
       <c r="AD9" s="138"/>
       <c r="AE9" s="139"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
+      <c r="AF9" s="134"/>
+      <c r="AG9" s="135"/>
+      <c r="AH9" s="135"/>
+      <c r="AI9" s="136"/>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="33"/>
       <c r="AL9" s="33"/>
@@ -5846,21 +5850,21 @@
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="135"/>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="136"/>
       <c r="Q10" s="137"/>
       <c r="R10" s="138"/>
       <c r="S10" s="138"/>
@@ -5876,10 +5880,10 @@
       <c r="AC10" s="138"/>
       <c r="AD10" s="138"/>
       <c r="AE10" s="139"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="142"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="135"/>
+      <c r="AI10" s="136"/>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
@@ -5888,21 +5892,21 @@
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="134"/>
+      <c r="K11" s="135"/>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
+      <c r="P11" s="136"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="138"/>
       <c r="S11" s="138"/>
@@ -5918,10 +5922,10 @@
       <c r="AC11" s="138"/>
       <c r="AD11" s="138"/>
       <c r="AE11" s="139"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="142"/>
+      <c r="AF11" s="134"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="135"/>
+      <c r="AI11" s="136"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
@@ -5930,21 +5934,21 @@
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="134"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
+      <c r="P12" s="136"/>
       <c r="Q12" s="137"/>
       <c r="R12" s="138"/>
       <c r="S12" s="138"/>
@@ -5960,10 +5964,10 @@
       <c r="AC12" s="138"/>
       <c r="AD12" s="138"/>
       <c r="AE12" s="139"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="AF12" s="134"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="135"/>
+      <c r="AI12" s="136"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" s="33"/>
@@ -5972,21 +5976,21 @@
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="134"/>
+      <c r="K13" s="135"/>
+      <c r="L13" s="135"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
+      <c r="P13" s="136"/>
       <c r="Q13" s="137"/>
       <c r="R13" s="138"/>
       <c r="S13" s="138"/>
@@ -6002,10 +6006,10 @@
       <c r="AC13" s="138"/>
       <c r="AD13" s="138"/>
       <c r="AE13" s="139"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
+      <c r="AF13" s="134"/>
+      <c r="AG13" s="135"/>
+      <c r="AH13" s="135"/>
+      <c r="AI13" s="136"/>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
@@ -6014,21 +6018,21 @@
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="134"/>
+      <c r="K14" s="135"/>
+      <c r="L14" s="135"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
+      <c r="P14" s="136"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="138"/>
       <c r="S14" s="138"/>
@@ -6044,10 +6048,10 @@
       <c r="AC14" s="138"/>
       <c r="AD14" s="138"/>
       <c r="AE14" s="139"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
+      <c r="AF14" s="134"/>
+      <c r="AG14" s="135"/>
+      <c r="AH14" s="135"/>
+      <c r="AI14" s="136"/>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
@@ -6056,21 +6060,21 @@
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="134"/>
+      <c r="K15" s="135"/>
+      <c r="L15" s="135"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
+      <c r="P15" s="136"/>
       <c r="Q15" s="137"/>
       <c r="R15" s="138"/>
       <c r="S15" s="138"/>
@@ -6086,10 +6090,10 @@
       <c r="AC15" s="138"/>
       <c r="AD15" s="138"/>
       <c r="AE15" s="139"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
+      <c r="AF15" s="134"/>
+      <c r="AG15" s="135"/>
+      <c r="AH15" s="135"/>
+      <c r="AI15" s="136"/>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="33"/>
@@ -6098,21 +6102,21 @@
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="134"/>
+      <c r="K16" s="135"/>
+      <c r="L16" s="135"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
+      <c r="P16" s="136"/>
       <c r="Q16" s="137"/>
       <c r="R16" s="138"/>
       <c r="S16" s="138"/>
@@ -6128,10 +6132,10 @@
       <c r="AC16" s="138"/>
       <c r="AD16" s="138"/>
       <c r="AE16" s="139"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="142"/>
+      <c r="AF16" s="134"/>
+      <c r="AG16" s="135"/>
+      <c r="AH16" s="135"/>
+      <c r="AI16" s="136"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
@@ -6140,21 +6144,21 @@
     </row>
     <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="134"/>
+      <c r="K17" s="135"/>
+      <c r="L17" s="135"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
       <c r="Q17" s="137"/>
       <c r="R17" s="138"/>
       <c r="S17" s="138"/>
@@ -6170,10 +6174,10 @@
       <c r="AC17" s="138"/>
       <c r="AD17" s="138"/>
       <c r="AE17" s="139"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
+      <c r="AF17" s="134"/>
+      <c r="AG17" s="135"/>
+      <c r="AH17" s="135"/>
+      <c r="AI17" s="136"/>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
@@ -6182,21 +6186,21 @@
     </row>
     <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="135"/>
+      <c r="L18" s="135"/>
+      <c r="M18" s="135"/>
+      <c r="N18" s="135"/>
+      <c r="O18" s="135"/>
+      <c r="P18" s="136"/>
       <c r="Q18" s="137"/>
       <c r="R18" s="138"/>
       <c r="S18" s="138"/>
@@ -6212,10 +6216,10 @@
       <c r="AC18" s="138"/>
       <c r="AD18" s="138"/>
       <c r="AE18" s="139"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="142"/>
+      <c r="AF18" s="134"/>
+      <c r="AG18" s="135"/>
+      <c r="AH18" s="135"/>
+      <c r="AI18" s="136"/>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
@@ -6224,21 +6228,21 @@
     </row>
     <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="126"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="136"/>
       <c r="Q19" s="137"/>
       <c r="R19" s="138"/>
       <c r="S19" s="138"/>
@@ -6254,10 +6258,10 @@
       <c r="AC19" s="138"/>
       <c r="AD19" s="138"/>
       <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="142"/>
+      <c r="AF19" s="134"/>
+      <c r="AG19" s="135"/>
+      <c r="AH19" s="135"/>
+      <c r="AI19" s="136"/>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="33"/>
@@ -6266,21 +6270,21 @@
     </row>
     <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="126"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="134"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="136"/>
       <c r="Q20" s="137"/>
       <c r="R20" s="138"/>
       <c r="S20" s="138"/>
@@ -6296,10 +6300,10 @@
       <c r="AC20" s="138"/>
       <c r="AD20" s="138"/>
       <c r="AE20" s="139"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="142"/>
+      <c r="AF20" s="134"/>
+      <c r="AG20" s="135"/>
+      <c r="AH20" s="135"/>
+      <c r="AI20" s="136"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="33"/>
@@ -6308,21 +6312,21 @@
     </row>
     <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="126"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="134"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="136"/>
       <c r="Q21" s="137"/>
       <c r="R21" s="138"/>
       <c r="S21" s="138"/>
@@ -6338,10 +6342,10 @@
       <c r="AC21" s="138"/>
       <c r="AD21" s="138"/>
       <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="142"/>
+      <c r="AF21" s="134"/>
+      <c r="AG21" s="135"/>
+      <c r="AH21" s="135"/>
+      <c r="AI21" s="136"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -6350,21 +6354,21 @@
     </row>
     <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="126"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="134"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="136"/>
       <c r="Q22" s="137"/>
       <c r="R22" s="138"/>
       <c r="S22" s="138"/>
@@ -6380,10 +6384,10 @@
       <c r="AC22" s="138"/>
       <c r="AD22" s="138"/>
       <c r="AE22" s="139"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="142"/>
+      <c r="AF22" s="134"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
@@ -6392,21 +6396,21 @@
     </row>
     <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="126"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="134"/>
+      <c r="K23" s="135"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="135"/>
+      <c r="N23" s="135"/>
+      <c r="O23" s="135"/>
+      <c r="P23" s="136"/>
       <c r="Q23" s="137"/>
       <c r="R23" s="138"/>
       <c r="S23" s="138"/>
@@ -6422,10 +6426,10 @@
       <c r="AC23" s="138"/>
       <c r="AD23" s="138"/>
       <c r="AE23" s="139"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="142"/>
+      <c r="AF23" s="134"/>
+      <c r="AG23" s="135"/>
+      <c r="AH23" s="135"/>
+      <c r="AI23" s="136"/>
       <c r="AJ23" s="33"/>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
@@ -6434,21 +6438,21 @@
     </row>
     <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="126"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="134"/>
+      <c r="K24" s="135"/>
+      <c r="L24" s="135"/>
+      <c r="M24" s="135"/>
+      <c r="N24" s="135"/>
+      <c r="O24" s="135"/>
+      <c r="P24" s="136"/>
       <c r="Q24" s="137"/>
       <c r="R24" s="138"/>
       <c r="S24" s="138"/>
@@ -6464,10 +6468,10 @@
       <c r="AC24" s="138"/>
       <c r="AD24" s="138"/>
       <c r="AE24" s="139"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
+      <c r="AF24" s="134"/>
+      <c r="AG24" s="135"/>
+      <c r="AH24" s="135"/>
+      <c r="AI24" s="136"/>
       <c r="AJ24" s="33"/>
       <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
@@ -6476,21 +6480,21 @@
     </row>
     <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="126"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="134"/>
+      <c r="K25" s="135"/>
+      <c r="L25" s="135"/>
+      <c r="M25" s="135"/>
+      <c r="N25" s="135"/>
+      <c r="O25" s="135"/>
+      <c r="P25" s="136"/>
       <c r="Q25" s="137"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
@@ -6506,10 +6510,10 @@
       <c r="AC25" s="138"/>
       <c r="AD25" s="138"/>
       <c r="AE25" s="139"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
+      <c r="AF25" s="134"/>
+      <c r="AG25" s="135"/>
+      <c r="AH25" s="135"/>
+      <c r="AI25" s="136"/>
       <c r="AJ25" s="33"/>
       <c r="AK25" s="33"/>
       <c r="AL25" s="33"/>
@@ -6518,21 +6522,21 @@
     </row>
     <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="126"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="134"/>
+      <c r="K26" s="135"/>
+      <c r="L26" s="135"/>
+      <c r="M26" s="135"/>
+      <c r="N26" s="135"/>
+      <c r="O26" s="135"/>
+      <c r="P26" s="136"/>
       <c r="Q26" s="137"/>
       <c r="R26" s="138"/>
       <c r="S26" s="138"/>
@@ -6548,10 +6552,10 @@
       <c r="AC26" s="138"/>
       <c r="AD26" s="138"/>
       <c r="AE26" s="139"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
+      <c r="AF26" s="134"/>
+      <c r="AG26" s="135"/>
+      <c r="AH26" s="135"/>
+      <c r="AI26" s="136"/>
       <c r="AJ26" s="33"/>
       <c r="AK26" s="33"/>
       <c r="AL26" s="33"/>
@@ -6560,21 +6564,21 @@
     </row>
     <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="126"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="142"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="134"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
+      <c r="N27" s="135"/>
+      <c r="O27" s="135"/>
+      <c r="P27" s="136"/>
       <c r="Q27" s="137"/>
       <c r="R27" s="138"/>
       <c r="S27" s="138"/>
@@ -6590,10 +6594,10 @@
       <c r="AC27" s="138"/>
       <c r="AD27" s="138"/>
       <c r="AE27" s="139"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="AF27" s="134"/>
+      <c r="AG27" s="135"/>
+      <c r="AH27" s="135"/>
+      <c r="AI27" s="136"/>
       <c r="AJ27" s="33"/>
       <c r="AK27" s="33"/>
       <c r="AL27" s="33"/>
@@ -6602,21 +6606,21 @@
     </row>
     <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="126"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="142"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="134"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
+      <c r="N28" s="135"/>
+      <c r="O28" s="135"/>
+      <c r="P28" s="136"/>
       <c r="Q28" s="137"/>
       <c r="R28" s="138"/>
       <c r="S28" s="138"/>
@@ -6632,10 +6636,10 @@
       <c r="AC28" s="138"/>
       <c r="AD28" s="138"/>
       <c r="AE28" s="139"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="142"/>
+      <c r="AF28" s="134"/>
+      <c r="AG28" s="135"/>
+      <c r="AH28" s="135"/>
+      <c r="AI28" s="136"/>
       <c r="AJ28" s="33"/>
       <c r="AK28" s="33"/>
       <c r="AL28" s="33"/>
@@ -6644,21 +6648,21 @@
     </row>
     <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="126"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="134"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
+      <c r="N29" s="135"/>
+      <c r="O29" s="135"/>
+      <c r="P29" s="136"/>
       <c r="Q29" s="137"/>
       <c r="R29" s="138"/>
       <c r="S29" s="138"/>
@@ -6674,10 +6678,10 @@
       <c r="AC29" s="138"/>
       <c r="AD29" s="138"/>
       <c r="AE29" s="139"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="142"/>
+      <c r="AF29" s="134"/>
+      <c r="AG29" s="135"/>
+      <c r="AH29" s="135"/>
+      <c r="AI29" s="136"/>
       <c r="AJ29" s="33"/>
       <c r="AK29" s="33"/>
       <c r="AL29" s="33"/>
@@ -6686,21 +6690,21 @@
     </row>
     <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="126"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="134"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
+      <c r="N30" s="135"/>
+      <c r="O30" s="135"/>
+      <c r="P30" s="136"/>
       <c r="Q30" s="137"/>
       <c r="R30" s="138"/>
       <c r="S30" s="138"/>
@@ -6716,10 +6720,10 @@
       <c r="AC30" s="138"/>
       <c r="AD30" s="138"/>
       <c r="AE30" s="139"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="142"/>
+      <c r="AF30" s="134"/>
+      <c r="AG30" s="135"/>
+      <c r="AH30" s="135"/>
+      <c r="AI30" s="136"/>
       <c r="AJ30" s="33"/>
       <c r="AK30" s="33"/>
       <c r="AL30" s="33"/>
@@ -6728,21 +6732,21 @@
     </row>
     <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="126"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="134"/>
+      <c r="K31" s="135"/>
+      <c r="L31" s="135"/>
+      <c r="M31" s="135"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="135"/>
+      <c r="P31" s="136"/>
       <c r="Q31" s="137"/>
       <c r="R31" s="138"/>
       <c r="S31" s="138"/>
@@ -6758,10 +6762,10 @@
       <c r="AC31" s="138"/>
       <c r="AD31" s="138"/>
       <c r="AE31" s="139"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="142"/>
+      <c r="AF31" s="134"/>
+      <c r="AG31" s="135"/>
+      <c r="AH31" s="135"/>
+      <c r="AI31" s="136"/>
       <c r="AJ31" s="33"/>
       <c r="AK31" s="33"/>
       <c r="AL31" s="33"/>
@@ -6770,21 +6774,21 @@
     </row>
     <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="126"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="134"/>
+      <c r="K32" s="135"/>
+      <c r="L32" s="135"/>
+      <c r="M32" s="135"/>
+      <c r="N32" s="135"/>
+      <c r="O32" s="135"/>
+      <c r="P32" s="136"/>
       <c r="Q32" s="137"/>
       <c r="R32" s="138"/>
       <c r="S32" s="138"/>
@@ -6800,10 +6804,10 @@
       <c r="AC32" s="138"/>
       <c r="AD32" s="138"/>
       <c r="AE32" s="139"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="142"/>
+      <c r="AF32" s="134"/>
+      <c r="AG32" s="135"/>
+      <c r="AH32" s="135"/>
+      <c r="AI32" s="136"/>
       <c r="AJ32" s="33"/>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
@@ -6812,21 +6816,21 @@
     </row>
     <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="126"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="134"/>
+      <c r="K33" s="135"/>
+      <c r="L33" s="135"/>
+      <c r="M33" s="135"/>
+      <c r="N33" s="135"/>
+      <c r="O33" s="135"/>
+      <c r="P33" s="136"/>
       <c r="Q33" s="137"/>
       <c r="R33" s="138"/>
       <c r="S33" s="138"/>
@@ -6842,10 +6846,10 @@
       <c r="AC33" s="138"/>
       <c r="AD33" s="138"/>
       <c r="AE33" s="139"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="142"/>
+      <c r="AF33" s="134"/>
+      <c r="AG33" s="135"/>
+      <c r="AH33" s="135"/>
+      <c r="AI33" s="136"/>
       <c r="AJ33" s="33"/>
       <c r="AK33" s="33"/>
       <c r="AL33" s="33"/>
@@ -7148,6 +7152,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -7172,161 +7331,6 @@
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -7483,31 +7487,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -7519,17 +7523,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -7538,29 +7542,29 @@
       <c r="AI1" s="191"/>
     </row>
     <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -7569,17 +7573,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="AA2" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -7588,29 +7592,29 @@
       <c r="AI2" s="191"/>
     </row>
     <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -7619,15 +7623,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -7905,7 +7909,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="18"/>
@@ -9100,6 +9104,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9109,14 +9121,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -9143,31 +9147,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -9179,17 +9183,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -9198,29 +9202,29 @@
       <c r="AI1" s="191"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -9229,17 +9233,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="AA2" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -9248,29 +9252,29 @@
       <c r="AI2" s="191"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -9279,15 +9283,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -9480,7 +9484,7 @@
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
       <c r="D10" s="201" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" s="202"/>
       <c r="F10" s="202"/>
@@ -10435,18 +10439,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D30:G37"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -10458,6 +10450,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D30:G37"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10486,31 +10490,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -10522,17 +10526,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -10541,29 +10545,29 @@
       <c r="AI1" s="191"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -10572,17 +10576,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="AA2" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10591,29 +10595,29 @@
       <c r="AI2" s="191"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -10622,15 +10626,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10647,6 +10651,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10656,14 +10668,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10693,31 +10697,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="181"/>
+      <c r="C1" s="181"/>
+      <c r="D1" s="162"/>
+      <c r="E1" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="141"/>
+      <c r="K1" s="141"/>
+      <c r="L1" s="141"/>
+      <c r="M1" s="141"/>
+      <c r="N1" s="142"/>
+      <c r="O1" s="163" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
+      <c r="P1" s="164"/>
+      <c r="Q1" s="164"/>
+      <c r="R1" s="165"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -10729,17 +10733,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="AA1" s="161" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
+      <c r="AD1" s="144"/>
+      <c r="AE1" s="144"/>
+      <c r="AF1" s="145"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -10751,29 +10755,29 @@
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="161" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="181"/>
+      <c r="C2" s="181"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="167"/>
+      <c r="Q2" s="167"/>
+      <c r="R2" s="168"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -10782,17 +10786,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="AA2" s="161" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
+      <c r="AD2" s="144"/>
+      <c r="AE2" s="144"/>
+      <c r="AF2" s="145"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10804,29 +10808,29 @@
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="161" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="162"/>
+      <c r="E3" s="140" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="141"/>
+      <c r="H3" s="141"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="171"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -10835,15 +10839,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="143" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
+      <c r="AD3" s="144"/>
+      <c r="AE3" s="144"/>
+      <c r="AF3" s="145"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10967,65 +10971,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="228" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="261" t="s">
+      <c r="E8" s="230" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="245" t="s">
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="236" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="267" t="s">
+      <c r="L8" s="231"/>
+      <c r="M8" s="231"/>
+      <c r="N8" s="232"/>
+      <c r="O8" s="237" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="272" t="s">
+      <c r="P8" s="217" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="269" t="s">
+      <c r="Q8" s="218"/>
+      <c r="R8" s="218"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="219"/>
+      <c r="V8" s="239" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
+      <c r="W8" s="239"/>
+      <c r="X8" s="239"/>
+      <c r="Y8" s="239"/>
+      <c r="Z8" s="239"/>
+      <c r="AA8" s="239"/>
+      <c r="AB8" s="239"/>
+      <c r="AC8" s="239"/>
+      <c r="AD8" s="239"/>
+      <c r="AE8" s="239"/>
+      <c r="AF8" s="239"/>
+      <c r="AG8" s="239"/>
+      <c r="AH8" s="239"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="268"/>
+      <c r="D9" s="229"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="233"/>
+      <c r="L9" s="234"/>
+      <c r="M9" s="234"/>
+      <c r="N9" s="235"/>
+      <c r="O9" s="238"/>
       <c r="P9" s="88" t="s">
         <v>49</v>
       </c>
@@ -11038,23 +11042,23 @@
       <c r="S9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="270" t="s">
+      <c r="T9" s="240" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="271"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
+      <c r="U9" s="241"/>
+      <c r="V9" s="239"/>
+      <c r="W9" s="239"/>
+      <c r="X9" s="239"/>
+      <c r="Y9" s="239"/>
+      <c r="Z9" s="239"/>
+      <c r="AA9" s="239"/>
+      <c r="AB9" s="239"/>
+      <c r="AC9" s="239"/>
+      <c r="AD9" s="239"/>
+      <c r="AE9" s="239"/>
+      <c r="AF9" s="239"/>
+      <c r="AG9" s="239"/>
+      <c r="AH9" s="239"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
@@ -11077,8 +11081,8 @@
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="258"/>
+      <c r="T10" s="215"/>
+      <c r="U10" s="216"/>
       <c r="V10" s="137"/>
       <c r="W10" s="138"/>
       <c r="X10" s="138"/>
@@ -11114,8 +11118,8 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="258"/>
+      <c r="T11" s="215"/>
+      <c r="U11" s="216"/>
       <c r="V11" s="137"/>
       <c r="W11" s="138"/>
       <c r="X11" s="138"/>
@@ -11151,8 +11155,8 @@
       <c r="Q12" s="91"/>
       <c r="R12" s="91"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="258"/>
+      <c r="T12" s="215"/>
+      <c r="U12" s="216"/>
       <c r="V12" s="137"/>
       <c r="W12" s="138"/>
       <c r="X12" s="138"/>
@@ -11312,82 +11316,82 @@
     <row r="17" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="237" t="s">
+      <c r="D17" s="242" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="239" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="245" t="s">
+      <c r="E17" s="244" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="245"/>
+      <c r="G17" s="246"/>
+      <c r="H17" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="246"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="247"/>
-      <c r="W17" s="251" t="s">
+      <c r="I17" s="250"/>
+      <c r="J17" s="250"/>
+      <c r="K17" s="250"/>
+      <c r="L17" s="250"/>
+      <c r="M17" s="250"/>
+      <c r="N17" s="250"/>
+      <c r="O17" s="250"/>
+      <c r="P17" s="250"/>
+      <c r="Q17" s="250"/>
+      <c r="R17" s="250"/>
+      <c r="S17" s="250"/>
+      <c r="T17" s="250"/>
+      <c r="U17" s="250"/>
+      <c r="V17" s="251"/>
+      <c r="W17" s="255" t="s">
         <v>67</v>
       </c>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="252"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="217" t="s">
+      <c r="X17" s="256"/>
+      <c r="Y17" s="256"/>
+      <c r="Z17" s="257"/>
+      <c r="AA17" s="278" t="s">
         <v>57</v>
       </c>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="217"/>
-      <c r="AF17" s="217"/>
-      <c r="AG17" s="217"/>
-      <c r="AH17" s="217"/>
+      <c r="AB17" s="278"/>
+      <c r="AC17" s="278"/>
+      <c r="AD17" s="278"/>
+      <c r="AE17" s="278"/>
+      <c r="AF17" s="278"/>
+      <c r="AG17" s="278"/>
+      <c r="AH17" s="278"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="249"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="249"/>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="250"/>
-      <c r="W18" s="254"/>
-      <c r="X18" s="255"/>
-      <c r="Y18" s="255"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="217"/>
-      <c r="AF18" s="217"/>
-      <c r="AG18" s="217"/>
-      <c r="AH18" s="217"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="247"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="249"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="253"/>
+      <c r="J18" s="253"/>
+      <c r="K18" s="253"/>
+      <c r="L18" s="253"/>
+      <c r="M18" s="253"/>
+      <c r="N18" s="253"/>
+      <c r="O18" s="253"/>
+      <c r="P18" s="253"/>
+      <c r="Q18" s="253"/>
+      <c r="R18" s="253"/>
+      <c r="S18" s="253"/>
+      <c r="T18" s="253"/>
+      <c r="U18" s="253"/>
+      <c r="V18" s="254"/>
+      <c r="W18" s="258"/>
+      <c r="X18" s="259"/>
+      <c r="Y18" s="259"/>
+      <c r="Z18" s="260"/>
+      <c r="AA18" s="278"/>
+      <c r="AB18" s="278"/>
+      <c r="AC18" s="278"/>
+      <c r="AD18" s="278"/>
+      <c r="AE18" s="278"/>
+      <c r="AF18" s="278"/>
+      <c r="AG18" s="278"/>
+      <c r="AH18" s="278"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
@@ -11414,18 +11418,18 @@
       <c r="T19" s="138"/>
       <c r="U19" s="138"/>
       <c r="V19" s="139"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="232"/>
-      <c r="AA19" s="215"/>
-      <c r="AB19" s="215"/>
-      <c r="AC19" s="215"/>
-      <c r="AD19" s="215"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="215"/>
-      <c r="AG19" s="215"/>
-      <c r="AH19" s="215"/>
+      <c r="W19" s="221"/>
+      <c r="X19" s="222"/>
+      <c r="Y19" s="222"/>
+      <c r="Z19" s="223"/>
+      <c r="AA19" s="277"/>
+      <c r="AB19" s="277"/>
+      <c r="AC19" s="277"/>
+      <c r="AD19" s="277"/>
+      <c r="AE19" s="277"/>
+      <c r="AF19" s="277"/>
+      <c r="AG19" s="277"/>
+      <c r="AH19" s="277"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
@@ -11452,18 +11456,18 @@
       <c r="T20" s="138"/>
       <c r="U20" s="138"/>
       <c r="V20" s="139"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="232"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="216"/>
+      <c r="W20" s="221"/>
+      <c r="X20" s="222"/>
+      <c r="Y20" s="222"/>
+      <c r="Z20" s="223"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="220"/>
+      <c r="AF20" s="220"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="220"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
@@ -11490,18 +11494,18 @@
       <c r="T21" s="138"/>
       <c r="U21" s="138"/>
       <c r="V21" s="139"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="232"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216"/>
-      <c r="AH21" s="216"/>
+      <c r="W21" s="221"/>
+      <c r="X21" s="222"/>
+      <c r="Y21" s="222"/>
+      <c r="Z21" s="223"/>
+      <c r="AA21" s="220"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="220"/>
+      <c r="AF21" s="220"/>
+      <c r="AG21" s="220"/>
+      <c r="AH21" s="220"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
@@ -11527,18 +11531,18 @@
       <c r="T22" s="138"/>
       <c r="U22" s="138"/>
       <c r="V22" s="139"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="232"/>
-      <c r="AA22" s="215"/>
-      <c r="AB22" s="215"/>
-      <c r="AC22" s="215"/>
-      <c r="AD22" s="215"/>
-      <c r="AE22" s="215"/>
-      <c r="AF22" s="215"/>
-      <c r="AG22" s="215"/>
-      <c r="AH22" s="215"/>
+      <c r="W22" s="221"/>
+      <c r="X22" s="222"/>
+      <c r="Y22" s="222"/>
+      <c r="Z22" s="223"/>
+      <c r="AA22" s="277"/>
+      <c r="AB22" s="277"/>
+      <c r="AC22" s="277"/>
+      <c r="AD22" s="277"/>
+      <c r="AE22" s="277"/>
+      <c r="AF22" s="277"/>
+      <c r="AG22" s="277"/>
+      <c r="AH22" s="277"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C23" s="36"/>
@@ -11563,18 +11567,18 @@
       <c r="T23" s="138"/>
       <c r="U23" s="138"/>
       <c r="V23" s="139"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="232"/>
-      <c r="AA23" s="216"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="216"/>
-      <c r="AD23" s="216"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
-      <c r="AH23" s="216"/>
+      <c r="W23" s="221"/>
+      <c r="X23" s="222"/>
+      <c r="Y23" s="222"/>
+      <c r="Z23" s="223"/>
+      <c r="AA23" s="220"/>
+      <c r="AB23" s="220"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="220"/>
+      <c r="AE23" s="220"/>
+      <c r="AF23" s="220"/>
+      <c r="AG23" s="220"/>
+      <c r="AH23" s="220"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C24" s="36"/>
@@ -11599,18 +11603,18 @@
       <c r="T24" s="138"/>
       <c r="U24" s="138"/>
       <c r="V24" s="139"/>
-      <c r="W24" s="230"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="216"/>
-      <c r="AB24" s="216"/>
-      <c r="AC24" s="216"/>
-      <c r="AD24" s="216"/>
-      <c r="AE24" s="216"/>
-      <c r="AF24" s="216"/>
-      <c r="AG24" s="216"/>
-      <c r="AH24" s="216"/>
+      <c r="W24" s="221"/>
+      <c r="X24" s="222"/>
+      <c r="Y24" s="222"/>
+      <c r="Z24" s="223"/>
+      <c r="AA24" s="220"/>
+      <c r="AB24" s="220"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="220"/>
+      <c r="AE24" s="220"/>
+      <c r="AF24" s="220"/>
+      <c r="AG24" s="220"/>
+      <c r="AH24" s="220"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C25" s="36"/>
@@ -11755,7 +11759,7 @@
     <row r="30" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="36"/>
       <c r="E30" s="37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -11824,40 +11828,40 @@
     <row r="32" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="36"/>
       <c r="D32" s="86"/>
-      <c r="E32" s="275" t="s">
+      <c r="E32" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="275"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="276"/>
-      <c r="I32" s="276"/>
-      <c r="J32" s="276"/>
-      <c r="K32" s="276"/>
-      <c r="L32" s="276"/>
-      <c r="M32" s="275" t="s">
+      <c r="F32" s="226"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="227"/>
+      <c r="L32" s="227"/>
+      <c r="M32" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="275"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
-      <c r="W32" s="219"/>
-      <c r="X32" s="219"/>
-      <c r="Y32" s="219"/>
-      <c r="Z32" s="219"/>
-      <c r="AA32" s="219"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="219"/>
-      <c r="AD32" s="219"/>
-      <c r="AE32" s="219"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="220"/>
+      <c r="N32" s="226"/>
+      <c r="O32" s="261"/>
+      <c r="P32" s="262"/>
+      <c r="Q32" s="262"/>
+      <c r="R32" s="262"/>
+      <c r="S32" s="262"/>
+      <c r="T32" s="262"/>
+      <c r="U32" s="262"/>
+      <c r="V32" s="262"/>
+      <c r="W32" s="262"/>
+      <c r="X32" s="262"/>
+      <c r="Y32" s="262"/>
+      <c r="Z32" s="262"/>
+      <c r="AA32" s="262"/>
+      <c r="AB32" s="262"/>
+      <c r="AC32" s="262"/>
+      <c r="AD32" s="262"/>
+      <c r="AE32" s="262"/>
+      <c r="AF32" s="262"/>
+      <c r="AG32" s="262"/>
+      <c r="AH32" s="263"/>
     </row>
     <row r="33" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
@@ -13706,7 +13710,7 @@
     <row r="87" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C87" s="35"/>
       <c r="E87" s="37" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -13771,40 +13775,40 @@
     <row r="89" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="275" t="s">
+      <c r="E89" s="226" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="275"/>
-      <c r="G89" s="276"/>
-      <c r="H89" s="276"/>
-      <c r="I89" s="276"/>
-      <c r="J89" s="276"/>
-      <c r="K89" s="276"/>
-      <c r="L89" s="276"/>
-      <c r="M89" s="275" t="s">
+      <c r="F89" s="226"/>
+      <c r="G89" s="227"/>
+      <c r="H89" s="227"/>
+      <c r="I89" s="227"/>
+      <c r="J89" s="227"/>
+      <c r="K89" s="227"/>
+      <c r="L89" s="227"/>
+      <c r="M89" s="226" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="275"/>
-      <c r="O89" s="218"/>
-      <c r="P89" s="219"/>
-      <c r="Q89" s="219"/>
-      <c r="R89" s="219"/>
-      <c r="S89" s="219"/>
-      <c r="T89" s="219"/>
-      <c r="U89" s="219"/>
-      <c r="V89" s="219"/>
-      <c r="W89" s="219"/>
-      <c r="X89" s="219"/>
-      <c r="Y89" s="219"/>
-      <c r="Z89" s="219"/>
-      <c r="AA89" s="219"/>
-      <c r="AB89" s="219"/>
-      <c r="AC89" s="219"/>
-      <c r="AD89" s="219"/>
-      <c r="AE89" s="219"/>
-      <c r="AF89" s="219"/>
-      <c r="AG89" s="219"/>
-      <c r="AH89" s="220"/>
+      <c r="N89" s="226"/>
+      <c r="O89" s="261"/>
+      <c r="P89" s="262"/>
+      <c r="Q89" s="262"/>
+      <c r="R89" s="262"/>
+      <c r="S89" s="262"/>
+      <c r="T89" s="262"/>
+      <c r="U89" s="262"/>
+      <c r="V89" s="262"/>
+      <c r="W89" s="262"/>
+      <c r="X89" s="262"/>
+      <c r="Y89" s="262"/>
+      <c r="Z89" s="262"/>
+      <c r="AA89" s="262"/>
+      <c r="AB89" s="262"/>
+      <c r="AC89" s="262"/>
+      <c r="AD89" s="262"/>
+      <c r="AE89" s="262"/>
+      <c r="AF89" s="262"/>
+      <c r="AG89" s="262"/>
+      <c r="AH89" s="263"/>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C91" s="35"/>
@@ -13907,86 +13911,86 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
-      <c r="E94" s="277" t="s">
+      <c r="E94" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="221" t="s">
+      <c r="F94" s="267" t="s">
         <v>30</v>
       </c>
-      <c r="G94" s="222"/>
-      <c r="H94" s="222"/>
-      <c r="I94" s="223"/>
-      <c r="J94" s="221" t="s">
+      <c r="G94" s="268"/>
+      <c r="H94" s="268"/>
+      <c r="I94" s="269"/>
+      <c r="J94" s="267" t="s">
         <v>15</v>
       </c>
-      <c r="K94" s="222"/>
-      <c r="L94" s="222"/>
-      <c r="M94" s="223"/>
-      <c r="N94" s="235" t="s">
+      <c r="K94" s="268"/>
+      <c r="L94" s="268"/>
+      <c r="M94" s="269"/>
+      <c r="N94" s="266" t="s">
         <v>13</v>
       </c>
-      <c r="O94" s="235"/>
-      <c r="P94" s="235"/>
-      <c r="Q94" s="235"/>
-      <c r="R94" s="235"/>
-      <c r="S94" s="235"/>
-      <c r="T94" s="235"/>
-      <c r="U94" s="235"/>
-      <c r="V94" s="235"/>
-      <c r="W94" s="221" t="s">
+      <c r="O94" s="266"/>
+      <c r="P94" s="266"/>
+      <c r="Q94" s="266"/>
+      <c r="R94" s="266"/>
+      <c r="S94" s="266"/>
+      <c r="T94" s="266"/>
+      <c r="U94" s="266"/>
+      <c r="V94" s="266"/>
+      <c r="W94" s="267" t="s">
         <v>40</v>
       </c>
-      <c r="X94" s="222"/>
-      <c r="Y94" s="222"/>
-      <c r="Z94" s="222"/>
-      <c r="AA94" s="222"/>
-      <c r="AB94" s="222"/>
-      <c r="AC94" s="223"/>
-      <c r="AD94" s="221" t="s">
+      <c r="X94" s="268"/>
+      <c r="Y94" s="268"/>
+      <c r="Z94" s="268"/>
+      <c r="AA94" s="268"/>
+      <c r="AB94" s="268"/>
+      <c r="AC94" s="269"/>
+      <c r="AD94" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="AE94" s="222"/>
-      <c r="AF94" s="222"/>
-      <c r="AG94" s="222"/>
-      <c r="AH94" s="223"/>
+      <c r="AE94" s="268"/>
+      <c r="AF94" s="268"/>
+      <c r="AG94" s="268"/>
+      <c r="AH94" s="269"/>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="35"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="278"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="225"/>
-      <c r="I95" s="226"/>
-      <c r="J95" s="224"/>
-      <c r="K95" s="225"/>
-      <c r="L95" s="225"/>
-      <c r="M95" s="226"/>
-      <c r="N95" s="235" t="s">
+      <c r="E95" s="265"/>
+      <c r="F95" s="270"/>
+      <c r="G95" s="271"/>
+      <c r="H95" s="271"/>
+      <c r="I95" s="272"/>
+      <c r="J95" s="270"/>
+      <c r="K95" s="271"/>
+      <c r="L95" s="271"/>
+      <c r="M95" s="272"/>
+      <c r="N95" s="266" t="s">
         <v>0</v>
       </c>
-      <c r="O95" s="235"/>
-      <c r="P95" s="235"/>
-      <c r="Q95" s="235"/>
-      <c r="R95" s="235"/>
-      <c r="S95" s="236" t="s">
+      <c r="O95" s="266"/>
+      <c r="P95" s="266"/>
+      <c r="Q95" s="266"/>
+      <c r="R95" s="266"/>
+      <c r="S95" s="273" t="s">
         <v>12</v>
       </c>
-      <c r="T95" s="236"/>
-      <c r="U95" s="236"/>
-      <c r="V95" s="236"/>
-      <c r="W95" s="224"/>
-      <c r="X95" s="225"/>
-      <c r="Y95" s="225"/>
-      <c r="Z95" s="225"/>
-      <c r="AA95" s="225"/>
-      <c r="AB95" s="225"/>
-      <c r="AC95" s="226"/>
-      <c r="AD95" s="224"/>
-      <c r="AE95" s="225"/>
-      <c r="AF95" s="225"/>
-      <c r="AG95" s="225"/>
-      <c r="AH95" s="226"/>
+      <c r="T95" s="273"/>
+      <c r="U95" s="273"/>
+      <c r="V95" s="273"/>
+      <c r="W95" s="270"/>
+      <c r="X95" s="271"/>
+      <c r="Y95" s="271"/>
+      <c r="Z95" s="271"/>
+      <c r="AA95" s="271"/>
+      <c r="AB95" s="271"/>
+      <c r="AC95" s="272"/>
+      <c r="AD95" s="270"/>
+      <c r="AE95" s="271"/>
+      <c r="AF95" s="271"/>
+      <c r="AG95" s="271"/>
+      <c r="AH95" s="272"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="35"/>
@@ -13994,35 +13998,35 @@
       <c r="E96" s="39">
         <v>1</v>
       </c>
-      <c r="F96" s="227"/>
-      <c r="G96" s="228"/>
-      <c r="H96" s="228"/>
-      <c r="I96" s="229"/>
-      <c r="J96" s="227"/>
-      <c r="K96" s="228"/>
-      <c r="L96" s="228"/>
-      <c r="M96" s="229"/>
-      <c r="N96" s="233"/>
-      <c r="O96" s="234"/>
-      <c r="P96" s="234"/>
-      <c r="Q96" s="234"/>
-      <c r="R96" s="234"/>
-      <c r="S96" s="216"/>
-      <c r="T96" s="216"/>
-      <c r="U96" s="216"/>
-      <c r="V96" s="216"/>
-      <c r="W96" s="230"/>
-      <c r="X96" s="231"/>
-      <c r="Y96" s="231"/>
-      <c r="Z96" s="231"/>
-      <c r="AA96" s="231"/>
-      <c r="AB96" s="231"/>
-      <c r="AC96" s="232"/>
-      <c r="AD96" s="230"/>
-      <c r="AE96" s="231"/>
-      <c r="AF96" s="231"/>
-      <c r="AG96" s="231"/>
-      <c r="AH96" s="232"/>
+      <c r="F96" s="274"/>
+      <c r="G96" s="275"/>
+      <c r="H96" s="275"/>
+      <c r="I96" s="276"/>
+      <c r="J96" s="274"/>
+      <c r="K96" s="275"/>
+      <c r="L96" s="275"/>
+      <c r="M96" s="276"/>
+      <c r="N96" s="224"/>
+      <c r="O96" s="225"/>
+      <c r="P96" s="225"/>
+      <c r="Q96" s="225"/>
+      <c r="R96" s="225"/>
+      <c r="S96" s="220"/>
+      <c r="T96" s="220"/>
+      <c r="U96" s="220"/>
+      <c r="V96" s="220"/>
+      <c r="W96" s="221"/>
+      <c r="X96" s="222"/>
+      <c r="Y96" s="222"/>
+      <c r="Z96" s="222"/>
+      <c r="AA96" s="222"/>
+      <c r="AB96" s="222"/>
+      <c r="AC96" s="223"/>
+      <c r="AD96" s="221"/>
+      <c r="AE96" s="222"/>
+      <c r="AF96" s="222"/>
+      <c r="AG96" s="222"/>
+      <c r="AH96" s="223"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="35"/>
@@ -14030,35 +14034,35 @@
       <c r="E97" s="39">
         <v>2</v>
       </c>
-      <c r="F97" s="227"/>
-      <c r="G97" s="228"/>
-      <c r="H97" s="228"/>
-      <c r="I97" s="229"/>
-      <c r="J97" s="227"/>
-      <c r="K97" s="228"/>
-      <c r="L97" s="228"/>
-      <c r="M97" s="229"/>
-      <c r="N97" s="233"/>
-      <c r="O97" s="234"/>
-      <c r="P97" s="234"/>
-      <c r="Q97" s="234"/>
-      <c r="R97" s="234"/>
-      <c r="S97" s="216"/>
-      <c r="T97" s="216"/>
-      <c r="U97" s="216"/>
-      <c r="V97" s="216"/>
-      <c r="W97" s="230"/>
-      <c r="X97" s="231"/>
-      <c r="Y97" s="231"/>
-      <c r="Z97" s="231"/>
-      <c r="AA97" s="231"/>
-      <c r="AB97" s="231"/>
-      <c r="AC97" s="232"/>
-      <c r="AD97" s="230"/>
-      <c r="AE97" s="231"/>
-      <c r="AF97" s="231"/>
-      <c r="AG97" s="231"/>
-      <c r="AH97" s="232"/>
+      <c r="F97" s="274"/>
+      <c r="G97" s="275"/>
+      <c r="H97" s="275"/>
+      <c r="I97" s="276"/>
+      <c r="J97" s="274"/>
+      <c r="K97" s="275"/>
+      <c r="L97" s="275"/>
+      <c r="M97" s="276"/>
+      <c r="N97" s="224"/>
+      <c r="O97" s="225"/>
+      <c r="P97" s="225"/>
+      <c r="Q97" s="225"/>
+      <c r="R97" s="225"/>
+      <c r="S97" s="220"/>
+      <c r="T97" s="220"/>
+      <c r="U97" s="220"/>
+      <c r="V97" s="220"/>
+      <c r="W97" s="221"/>
+      <c r="X97" s="222"/>
+      <c r="Y97" s="222"/>
+      <c r="Z97" s="222"/>
+      <c r="AA97" s="222"/>
+      <c r="AB97" s="222"/>
+      <c r="AC97" s="223"/>
+      <c r="AD97" s="221"/>
+      <c r="AE97" s="222"/>
+      <c r="AF97" s="222"/>
+      <c r="AG97" s="222"/>
+      <c r="AH97" s="223"/>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="35"/>
@@ -14066,35 +14070,35 @@
       <c r="E98" s="39">
         <v>3</v>
       </c>
-      <c r="F98" s="227"/>
-      <c r="G98" s="228"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="229"/>
-      <c r="J98" s="227"/>
-      <c r="K98" s="228"/>
-      <c r="L98" s="228"/>
-      <c r="M98" s="229"/>
-      <c r="N98" s="233"/>
-      <c r="O98" s="234"/>
-      <c r="P98" s="234"/>
-      <c r="Q98" s="234"/>
-      <c r="R98" s="234"/>
-      <c r="S98" s="216"/>
-      <c r="T98" s="216"/>
-      <c r="U98" s="216"/>
-      <c r="V98" s="216"/>
-      <c r="W98" s="230"/>
-      <c r="X98" s="231"/>
-      <c r="Y98" s="231"/>
-      <c r="Z98" s="231"/>
-      <c r="AA98" s="231"/>
-      <c r="AB98" s="231"/>
-      <c r="AC98" s="232"/>
-      <c r="AD98" s="230"/>
-      <c r="AE98" s="231"/>
-      <c r="AF98" s="231"/>
-      <c r="AG98" s="231"/>
-      <c r="AH98" s="232"/>
+      <c r="F98" s="274"/>
+      <c r="G98" s="275"/>
+      <c r="H98" s="275"/>
+      <c r="I98" s="276"/>
+      <c r="J98" s="274"/>
+      <c r="K98" s="275"/>
+      <c r="L98" s="275"/>
+      <c r="M98" s="276"/>
+      <c r="N98" s="224"/>
+      <c r="O98" s="225"/>
+      <c r="P98" s="225"/>
+      <c r="Q98" s="225"/>
+      <c r="R98" s="225"/>
+      <c r="S98" s="220"/>
+      <c r="T98" s="220"/>
+      <c r="U98" s="220"/>
+      <c r="V98" s="220"/>
+      <c r="W98" s="221"/>
+      <c r="X98" s="222"/>
+      <c r="Y98" s="222"/>
+      <c r="Z98" s="222"/>
+      <c r="AA98" s="222"/>
+      <c r="AB98" s="222"/>
+      <c r="AC98" s="223"/>
+      <c r="AD98" s="221"/>
+      <c r="AE98" s="222"/>
+      <c r="AF98" s="222"/>
+      <c r="AG98" s="222"/>
+      <c r="AH98" s="223"/>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="35"/>
@@ -14102,35 +14106,35 @@
       <c r="E99" s="39">
         <v>4</v>
       </c>
-      <c r="F99" s="227"/>
-      <c r="G99" s="228"/>
-      <c r="H99" s="228"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="227"/>
-      <c r="K99" s="228"/>
-      <c r="L99" s="228"/>
-      <c r="M99" s="229"/>
-      <c r="N99" s="233"/>
-      <c r="O99" s="234"/>
-      <c r="P99" s="234"/>
-      <c r="Q99" s="234"/>
-      <c r="R99" s="234"/>
-      <c r="S99" s="216"/>
-      <c r="T99" s="216"/>
-      <c r="U99" s="216"/>
-      <c r="V99" s="216"/>
-      <c r="W99" s="230"/>
-      <c r="X99" s="231"/>
-      <c r="Y99" s="231"/>
-      <c r="Z99" s="231"/>
-      <c r="AA99" s="231"/>
-      <c r="AB99" s="231"/>
-      <c r="AC99" s="232"/>
-      <c r="AD99" s="230"/>
-      <c r="AE99" s="231"/>
-      <c r="AF99" s="231"/>
-      <c r="AG99" s="231"/>
-      <c r="AH99" s="232"/>
+      <c r="F99" s="274"/>
+      <c r="G99" s="275"/>
+      <c r="H99" s="275"/>
+      <c r="I99" s="276"/>
+      <c r="J99" s="274"/>
+      <c r="K99" s="275"/>
+      <c r="L99" s="275"/>
+      <c r="M99" s="276"/>
+      <c r="N99" s="224"/>
+      <c r="O99" s="225"/>
+      <c r="P99" s="225"/>
+      <c r="Q99" s="225"/>
+      <c r="R99" s="225"/>
+      <c r="S99" s="220"/>
+      <c r="T99" s="220"/>
+      <c r="U99" s="220"/>
+      <c r="V99" s="220"/>
+      <c r="W99" s="221"/>
+      <c r="X99" s="222"/>
+      <c r="Y99" s="222"/>
+      <c r="Z99" s="222"/>
+      <c r="AA99" s="222"/>
+      <c r="AB99" s="222"/>
+      <c r="AC99" s="223"/>
+      <c r="AD99" s="221"/>
+      <c r="AE99" s="222"/>
+      <c r="AF99" s="222"/>
+      <c r="AG99" s="222"/>
+      <c r="AH99" s="223"/>
     </row>
     <row r="100" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C100" s="35"/>
@@ -14138,38 +14142,125 @@
       <c r="E100" s="39">
         <v>5</v>
       </c>
-      <c r="F100" s="227"/>
-      <c r="G100" s="228"/>
-      <c r="H100" s="228"/>
-      <c r="I100" s="229"/>
-      <c r="J100" s="227"/>
-      <c r="K100" s="228"/>
-      <c r="L100" s="228"/>
-      <c r="M100" s="229"/>
-      <c r="N100" s="233"/>
-      <c r="O100" s="234"/>
-      <c r="P100" s="234"/>
-      <c r="Q100" s="234"/>
-      <c r="R100" s="234"/>
-      <c r="S100" s="216"/>
-      <c r="T100" s="216"/>
-      <c r="U100" s="216"/>
-      <c r="V100" s="216"/>
-      <c r="W100" s="230"/>
-      <c r="X100" s="231"/>
-      <c r="Y100" s="231"/>
-      <c r="Z100" s="231"/>
-      <c r="AA100" s="231"/>
-      <c r="AB100" s="231"/>
-      <c r="AC100" s="232"/>
-      <c r="AD100" s="230"/>
-      <c r="AE100" s="231"/>
-      <c r="AF100" s="231"/>
-      <c r="AG100" s="231"/>
-      <c r="AH100" s="232"/>
+      <c r="F100" s="274"/>
+      <c r="G100" s="275"/>
+      <c r="H100" s="275"/>
+      <c r="I100" s="276"/>
+      <c r="J100" s="274"/>
+      <c r="K100" s="275"/>
+      <c r="L100" s="275"/>
+      <c r="M100" s="276"/>
+      <c r="N100" s="224"/>
+      <c r="O100" s="225"/>
+      <c r="P100" s="225"/>
+      <c r="Q100" s="225"/>
+      <c r="R100" s="225"/>
+      <c r="S100" s="220"/>
+      <c r="T100" s="220"/>
+      <c r="U100" s="220"/>
+      <c r="V100" s="220"/>
+      <c r="W100" s="221"/>
+      <c r="X100" s="222"/>
+      <c r="Y100" s="222"/>
+      <c r="Z100" s="222"/>
+      <c r="AA100" s="222"/>
+      <c r="AB100" s="222"/>
+      <c r="AC100" s="223"/>
+      <c r="AD100" s="221"/>
+      <c r="AE100" s="222"/>
+      <c r="AF100" s="222"/>
+      <c r="AG100" s="222"/>
+      <c r="AH100" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="AA19:AH19"/>
+    <mergeCell ref="AA20:AH20"/>
+    <mergeCell ref="AA21:AH21"/>
+    <mergeCell ref="AA22:AH22"/>
+    <mergeCell ref="AA23:AH23"/>
+    <mergeCell ref="AA24:AH24"/>
+    <mergeCell ref="AA17:AH18"/>
+    <mergeCell ref="O89:AH89"/>
+    <mergeCell ref="F94:I95"/>
+    <mergeCell ref="J94:M95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="AD94:AH95"/>
+    <mergeCell ref="N98:R98"/>
+    <mergeCell ref="S98:V98"/>
+    <mergeCell ref="W98:AC98"/>
+    <mergeCell ref="AD98:AH98"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="AD97:AH97"/>
+    <mergeCell ref="W94:AC95"/>
+    <mergeCell ref="N95:R95"/>
+    <mergeCell ref="S95:V95"/>
+    <mergeCell ref="N100:R100"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:V24"/>
+    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:G18"/>
+    <mergeCell ref="H17:V18"/>
+    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:V19"/>
+    <mergeCell ref="W19:Z19"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H20:V20"/>
+    <mergeCell ref="W20:Z20"/>
+    <mergeCell ref="H21:V21"/>
+    <mergeCell ref="W21:Z21"/>
+    <mergeCell ref="H22:V22"/>
+    <mergeCell ref="W22:Z22"/>
+    <mergeCell ref="H23:V23"/>
+    <mergeCell ref="W23:Z23"/>
+    <mergeCell ref="O32:AH32"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="N94:V94"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="T12:U12"/>
@@ -14194,93 +14285,6 @@
     <mergeCell ref="N96:R96"/>
     <mergeCell ref="S96:V96"/>
     <mergeCell ref="W96:AC96"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="N100:R100"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:V18"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="H23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
-    <mergeCell ref="AD96:AH96"/>
-    <mergeCell ref="AD94:AH95"/>
-    <mergeCell ref="N98:R98"/>
-    <mergeCell ref="S98:V98"/>
-    <mergeCell ref="W98:AC98"/>
-    <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="W94:AC95"/>
-    <mergeCell ref="N95:R95"/>
-    <mergeCell ref="S95:V95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA17:AH18"/>
-    <mergeCell ref="O89:AH89"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="J94:M95"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>電文/テーブル名</t>
     <rPh sb="0" eb="2">
@@ -480,19 +480,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>埋め込み文字列</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 種別一覧</t>
     <rPh sb="1" eb="3">
       <t>シュベツ</t>
@@ -543,19 +530,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>メッセージID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>2. [取引ID]([取引名])</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>エラーコード</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -576,6 +551,27 @@
     <t>【外部インタフェース定義書_XXX】を参照する。</t>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>処理結果</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>終了コード</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
 </sst>
 </file>
 
@@ -585,7 +581,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1008,7 +1004,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1315,6 +1311,15 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1334,6 +1339,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,13 +1356,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1360,144 +1494,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1576,12 +1572,159 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1591,181 +1734,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -4731,43 +4703,43 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="A1" s="29"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4778,7 +4750,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4787,7 +4759,7 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -4799,7 +4771,7 @@
       <c r="K25" s="127"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4808,7 +4780,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4817,7 +4789,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4826,7 +4798,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="25"/>
@@ -4834,7 +4806,7 @@
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4843,7 +4815,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4852,7 +4824,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4863,7 +4835,7 @@
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="25"/>
@@ -4875,7 +4847,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="25"/>
@@ -4892,515 +4864,515 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
       <c r="O36" s="100"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="100"/>
       <c r="R36" s="32"/>
       <c r="S36" s="98"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
       <c r="O37" s="101"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="9"/>
       <c r="S37" s="101"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -5425,162 +5397,162 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="140"/>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="163" t="s">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="172"/>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="161" t="s">
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
+      <c r="S1" s="154"/>
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="170" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
-      <c r="AG1" s="182" t="str">
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
+      <c r="AG1" s="164" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="183"/>
-      <c r="AI1" s="184"/>
+      <c r="AH1" s="165"/>
+      <c r="AI1" s="166"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="161" t="s">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="143" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="185" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="186"/>
-      <c r="AE2" s="186"/>
-      <c r="AF2" s="187"/>
-      <c r="AG2" s="182" t="str">
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="164" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="183"/>
-      <c r="AI2" s="184"/>
+      <c r="AH2" s="165"/>
+      <c r="AI2" s="166"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="140"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="143"/>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
-      <c r="AG3" s="182"/>
-      <c r="AH3" s="183"/>
-      <c r="AI3" s="184"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="164"/>
+      <c r="AH3" s="165"/>
+      <c r="AI3" s="166"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:40">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5622,7 +5594,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -5666,7 +5638,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5708,121 +5680,121 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="173" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="147"/>
-      <c r="D7" s="146" t="s">
+      <c r="C7" s="174"/>
+      <c r="D7" s="173" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="148"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="146" t="s">
+      <c r="E7" s="175"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="173" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="148"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="154" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="148"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="148"/>
-      <c r="N7" s="148"/>
-      <c r="O7" s="148"/>
-      <c r="P7" s="147"/>
-      <c r="Q7" s="146" t="s">
+      <c r="H7" s="175"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="179" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="175"/>
+      <c r="L7" s="175"/>
+      <c r="M7" s="175"/>
+      <c r="N7" s="175"/>
+      <c r="O7" s="175"/>
+      <c r="P7" s="174"/>
+      <c r="Q7" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="148"/>
-      <c r="S7" s="148"/>
-      <c r="T7" s="148"/>
-      <c r="U7" s="148"/>
-      <c r="V7" s="148"/>
-      <c r="W7" s="148"/>
-      <c r="X7" s="148"/>
-      <c r="Y7" s="148"/>
-      <c r="Z7" s="148"/>
-      <c r="AA7" s="148"/>
-      <c r="AB7" s="148"/>
-      <c r="AC7" s="148"/>
-      <c r="AD7" s="148"/>
-      <c r="AE7" s="147"/>
-      <c r="AF7" s="146" t="s">
+      <c r="R7" s="175"/>
+      <c r="S7" s="175"/>
+      <c r="T7" s="175"/>
+      <c r="U7" s="175"/>
+      <c r="V7" s="175"/>
+      <c r="W7" s="175"/>
+      <c r="X7" s="175"/>
+      <c r="Y7" s="175"/>
+      <c r="Z7" s="175"/>
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="175"/>
+      <c r="AC7" s="175"/>
+      <c r="AD7" s="175"/>
+      <c r="AE7" s="174"/>
+      <c r="AF7" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="148"/>
-      <c r="AH7" s="148"/>
-      <c r="AI7" s="147"/>
+      <c r="AG7" s="175"/>
+      <c r="AH7" s="175"/>
+      <c r="AI7" s="174"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="33"/>
       <c r="AM7" s="33"/>
       <c r="AN7" s="33"/>
     </row>
-    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="125"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="149"/>
-      <c r="H8" s="188"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="155"/>
-      <c r="K8" s="156"/>
-      <c r="L8" s="156"/>
-      <c r="M8" s="156"/>
-      <c r="N8" s="156"/>
-      <c r="O8" s="156"/>
-      <c r="P8" s="157"/>
-      <c r="Q8" s="158"/>
-      <c r="R8" s="159"/>
-      <c r="S8" s="159"/>
-      <c r="T8" s="159"/>
-      <c r="U8" s="159"/>
-      <c r="V8" s="159"/>
-      <c r="W8" s="159"/>
-      <c r="X8" s="159"/>
-      <c r="Y8" s="159"/>
-      <c r="Z8" s="159"/>
-      <c r="AA8" s="159"/>
-      <c r="AB8" s="159"/>
-      <c r="AC8" s="159"/>
-      <c r="AD8" s="159"/>
-      <c r="AE8" s="160"/>
-      <c r="AF8" s="155"/>
-      <c r="AG8" s="156"/>
-      <c r="AH8" s="156"/>
-      <c r="AI8" s="157"/>
+      <c r="B8" s="128"/>
+      <c r="C8" s="130"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="177"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="180"/>
+      <c r="K8" s="181"/>
+      <c r="L8" s="181"/>
+      <c r="M8" s="181"/>
+      <c r="N8" s="181"/>
+      <c r="O8" s="181"/>
+      <c r="P8" s="182"/>
+      <c r="Q8" s="183"/>
+      <c r="R8" s="184"/>
+      <c r="S8" s="184"/>
+      <c r="T8" s="184"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="184"/>
+      <c r="X8" s="184"/>
+      <c r="Y8" s="184"/>
+      <c r="Z8" s="184"/>
+      <c r="AA8" s="184"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
+      <c r="AD8" s="184"/>
+      <c r="AE8" s="185"/>
+      <c r="AF8" s="180"/>
+      <c r="AG8" s="181"/>
+      <c r="AH8" s="181"/>
+      <c r="AI8" s="182"/>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
       <c r="AM8" s="33"/>
       <c r="AN8" s="33"/>
     </row>
-    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="126"/>
-      <c r="B9" s="128"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="130"/>
-      <c r="E9" s="131"/>
-      <c r="F9" s="132"/>
-      <c r="G9" s="128"/>
-      <c r="H9" s="133"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="135"/>
-      <c r="L9" s="135"/>
-      <c r="M9" s="135"/>
-      <c r="N9" s="135"/>
-      <c r="O9" s="135"/>
-      <c r="P9" s="136"/>
+      <c r="B9" s="131"/>
+      <c r="C9" s="132"/>
+      <c r="D9" s="133"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="136"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="141"/>
+      <c r="L9" s="141"/>
+      <c r="M9" s="141"/>
+      <c r="N9" s="141"/>
+      <c r="O9" s="141"/>
+      <c r="P9" s="142"/>
       <c r="Q9" s="137"/>
       <c r="R9" s="138"/>
       <c r="S9" s="138"/>
@@ -5838,33 +5810,33 @@
       <c r="AC9" s="138"/>
       <c r="AD9" s="138"/>
       <c r="AE9" s="139"/>
-      <c r="AF9" s="134"/>
-      <c r="AG9" s="135"/>
-      <c r="AH9" s="135"/>
-      <c r="AI9" s="136"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="141"/>
+      <c r="AH9" s="141"/>
+      <c r="AI9" s="142"/>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="33"/>
       <c r="AL9" s="33"/>
       <c r="AM9" s="33"/>
       <c r="AN9" s="33"/>
     </row>
-    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="126"/>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="132"/>
-      <c r="G10" s="128"/>
-      <c r="H10" s="133"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="134"/>
-      <c r="K10" s="135"/>
-      <c r="L10" s="135"/>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
-      <c r="P10" s="136"/>
+      <c r="B10" s="131"/>
+      <c r="C10" s="132"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="136"/>
+      <c r="I10" s="132"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="141"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="141"/>
+      <c r="N10" s="141"/>
+      <c r="O10" s="141"/>
+      <c r="P10" s="142"/>
       <c r="Q10" s="137"/>
       <c r="R10" s="138"/>
       <c r="S10" s="138"/>
@@ -5880,33 +5852,33 @@
       <c r="AC10" s="138"/>
       <c r="AD10" s="138"/>
       <c r="AE10" s="139"/>
-      <c r="AF10" s="134"/>
-      <c r="AG10" s="135"/>
-      <c r="AH10" s="135"/>
-      <c r="AI10" s="136"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="141"/>
+      <c r="AH10" s="141"/>
+      <c r="AI10" s="142"/>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
       <c r="AN10" s="33"/>
     </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="126"/>
-      <c r="B11" s="128"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="130"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="133"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="134"/>
-      <c r="K11" s="135"/>
-      <c r="L11" s="135"/>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
-      <c r="P11" s="136"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="132"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="141"/>
+      <c r="N11" s="141"/>
+      <c r="O11" s="141"/>
+      <c r="P11" s="142"/>
       <c r="Q11" s="137"/>
       <c r="R11" s="138"/>
       <c r="S11" s="138"/>
@@ -5922,33 +5894,33 @@
       <c r="AC11" s="138"/>
       <c r="AD11" s="138"/>
       <c r="AE11" s="139"/>
-      <c r="AF11" s="134"/>
-      <c r="AG11" s="135"/>
-      <c r="AH11" s="135"/>
-      <c r="AI11" s="136"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="141"/>
+      <c r="AH11" s="141"/>
+      <c r="AI11" s="142"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
       <c r="AM11" s="33"/>
       <c r="AN11" s="33"/>
     </row>
-    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="126"/>
-      <c r="B12" s="128"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="130"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="133"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="134"/>
-      <c r="K12" s="135"/>
-      <c r="L12" s="135"/>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
-      <c r="P12" s="136"/>
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="136"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="141"/>
+      <c r="N12" s="141"/>
+      <c r="O12" s="141"/>
+      <c r="P12" s="142"/>
       <c r="Q12" s="137"/>
       <c r="R12" s="138"/>
       <c r="S12" s="138"/>
@@ -5964,33 +5936,33 @@
       <c r="AC12" s="138"/>
       <c r="AD12" s="138"/>
       <c r="AE12" s="139"/>
-      <c r="AF12" s="134"/>
-      <c r="AG12" s="135"/>
-      <c r="AH12" s="135"/>
-      <c r="AI12" s="136"/>
+      <c r="AF12" s="140"/>
+      <c r="AG12" s="141"/>
+      <c r="AH12" s="141"/>
+      <c r="AI12" s="142"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" s="33"/>
       <c r="AM12" s="33"/>
       <c r="AN12" s="33"/>
     </row>
-    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="126"/>
-      <c r="B13" s="128"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="130"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="133"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="135"/>
-      <c r="L13" s="135"/>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
-      <c r="P13" s="136"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="136"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="141"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="141"/>
+      <c r="N13" s="141"/>
+      <c r="O13" s="141"/>
+      <c r="P13" s="142"/>
       <c r="Q13" s="137"/>
       <c r="R13" s="138"/>
       <c r="S13" s="138"/>
@@ -6006,33 +5978,33 @@
       <c r="AC13" s="138"/>
       <c r="AD13" s="138"/>
       <c r="AE13" s="139"/>
-      <c r="AF13" s="134"/>
-      <c r="AG13" s="135"/>
-      <c r="AH13" s="135"/>
-      <c r="AI13" s="136"/>
+      <c r="AF13" s="140"/>
+      <c r="AG13" s="141"/>
+      <c r="AH13" s="141"/>
+      <c r="AI13" s="142"/>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
     </row>
-    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="126"/>
-      <c r="B14" s="128"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="132"/>
-      <c r="G14" s="128"/>
-      <c r="H14" s="133"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="134"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="135"/>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
-      <c r="P14" s="136"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="134"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="131"/>
+      <c r="H14" s="136"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="140"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="141"/>
+      <c r="N14" s="141"/>
+      <c r="O14" s="141"/>
+      <c r="P14" s="142"/>
       <c r="Q14" s="137"/>
       <c r="R14" s="138"/>
       <c r="S14" s="138"/>
@@ -6048,33 +6020,33 @@
       <c r="AC14" s="138"/>
       <c r="AD14" s="138"/>
       <c r="AE14" s="139"/>
-      <c r="AF14" s="134"/>
-      <c r="AG14" s="135"/>
-      <c r="AH14" s="135"/>
-      <c r="AI14" s="136"/>
+      <c r="AF14" s="140"/>
+      <c r="AG14" s="141"/>
+      <c r="AH14" s="141"/>
+      <c r="AI14" s="142"/>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="33"/>
       <c r="AN14" s="33"/>
     </row>
-    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="126"/>
-      <c r="B15" s="128"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="130"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="132"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="133"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="134"/>
-      <c r="K15" s="135"/>
-      <c r="L15" s="135"/>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
-      <c r="P15" s="136"/>
+      <c r="B15" s="131"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="136"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="140"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="141"/>
+      <c r="N15" s="141"/>
+      <c r="O15" s="141"/>
+      <c r="P15" s="142"/>
       <c r="Q15" s="137"/>
       <c r="R15" s="138"/>
       <c r="S15" s="138"/>
@@ -6090,33 +6062,33 @@
       <c r="AC15" s="138"/>
       <c r="AD15" s="138"/>
       <c r="AE15" s="139"/>
-      <c r="AF15" s="134"/>
-      <c r="AG15" s="135"/>
-      <c r="AH15" s="135"/>
-      <c r="AI15" s="136"/>
+      <c r="AF15" s="140"/>
+      <c r="AG15" s="141"/>
+      <c r="AH15" s="141"/>
+      <c r="AI15" s="142"/>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="33"/>
       <c r="AM15" s="33"/>
       <c r="AN15" s="33"/>
     </row>
-    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="126"/>
-      <c r="B16" s="128"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="132"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="133"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="134"/>
-      <c r="K16" s="135"/>
-      <c r="L16" s="135"/>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
-      <c r="P16" s="136"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="134"/>
+      <c r="F16" s="135"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="140"/>
+      <c r="K16" s="141"/>
+      <c r="L16" s="141"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="141"/>
+      <c r="O16" s="141"/>
+      <c r="P16" s="142"/>
       <c r="Q16" s="137"/>
       <c r="R16" s="138"/>
       <c r="S16" s="138"/>
@@ -6132,33 +6104,33 @@
       <c r="AC16" s="138"/>
       <c r="AD16" s="138"/>
       <c r="AE16" s="139"/>
-      <c r="AF16" s="134"/>
-      <c r="AG16" s="135"/>
-      <c r="AH16" s="135"/>
-      <c r="AI16" s="136"/>
+      <c r="AF16" s="140"/>
+      <c r="AG16" s="141"/>
+      <c r="AH16" s="141"/>
+      <c r="AI16" s="142"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
       <c r="AM16" s="33"/>
       <c r="AN16" s="33"/>
     </row>
-    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="126"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="132"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="133"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="134"/>
-      <c r="K17" s="135"/>
-      <c r="L17" s="135"/>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="136"/>
+      <c r="B17" s="131"/>
+      <c r="C17" s="132"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="134"/>
+      <c r="F17" s="135"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="136"/>
+      <c r="I17" s="132"/>
+      <c r="J17" s="140"/>
+      <c r="K17" s="141"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="141"/>
+      <c r="N17" s="141"/>
+      <c r="O17" s="141"/>
+      <c r="P17" s="142"/>
       <c r="Q17" s="137"/>
       <c r="R17" s="138"/>
       <c r="S17" s="138"/>
@@ -6174,33 +6146,33 @@
       <c r="AC17" s="138"/>
       <c r="AD17" s="138"/>
       <c r="AE17" s="139"/>
-      <c r="AF17" s="134"/>
-      <c r="AG17" s="135"/>
-      <c r="AH17" s="135"/>
-      <c r="AI17" s="136"/>
+      <c r="AF17" s="140"/>
+      <c r="AG17" s="141"/>
+      <c r="AH17" s="141"/>
+      <c r="AI17" s="142"/>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
     </row>
-    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="126"/>
-      <c r="B18" s="128"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="133"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="134"/>
-      <c r="K18" s="135"/>
-      <c r="L18" s="135"/>
-      <c r="M18" s="135"/>
-      <c r="N18" s="135"/>
-      <c r="O18" s="135"/>
-      <c r="P18" s="136"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="136"/>
+      <c r="I18" s="132"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="141"/>
+      <c r="N18" s="141"/>
+      <c r="O18" s="141"/>
+      <c r="P18" s="142"/>
       <c r="Q18" s="137"/>
       <c r="R18" s="138"/>
       <c r="S18" s="138"/>
@@ -6216,33 +6188,33 @@
       <c r="AC18" s="138"/>
       <c r="AD18" s="138"/>
       <c r="AE18" s="139"/>
-      <c r="AF18" s="134"/>
-      <c r="AG18" s="135"/>
-      <c r="AH18" s="135"/>
-      <c r="AI18" s="136"/>
+      <c r="AF18" s="140"/>
+      <c r="AG18" s="141"/>
+      <c r="AH18" s="141"/>
+      <c r="AI18" s="142"/>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="33"/>
       <c r="AN18" s="33"/>
     </row>
-    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="126"/>
-      <c r="B19" s="128"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="132"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="133"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="136"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="135"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="141"/>
+      <c r="L19" s="141"/>
+      <c r="M19" s="141"/>
+      <c r="N19" s="141"/>
+      <c r="O19" s="141"/>
+      <c r="P19" s="142"/>
       <c r="Q19" s="137"/>
       <c r="R19" s="138"/>
       <c r="S19" s="138"/>
@@ -6258,33 +6230,33 @@
       <c r="AC19" s="138"/>
       <c r="AD19" s="138"/>
       <c r="AE19" s="139"/>
-      <c r="AF19" s="134"/>
-      <c r="AG19" s="135"/>
-      <c r="AH19" s="135"/>
-      <c r="AI19" s="136"/>
+      <c r="AF19" s="140"/>
+      <c r="AG19" s="141"/>
+      <c r="AH19" s="141"/>
+      <c r="AI19" s="142"/>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
       <c r="AN19" s="33"/>
     </row>
-    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="126"/>
-      <c r="B20" s="128"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="133"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="134"/>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="136"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="134"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="136"/>
+      <c r="I20" s="132"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="141"/>
+      <c r="N20" s="141"/>
+      <c r="O20" s="141"/>
+      <c r="P20" s="142"/>
       <c r="Q20" s="137"/>
       <c r="R20" s="138"/>
       <c r="S20" s="138"/>
@@ -6300,33 +6272,33 @@
       <c r="AC20" s="138"/>
       <c r="AD20" s="138"/>
       <c r="AE20" s="139"/>
-      <c r="AF20" s="134"/>
-      <c r="AG20" s="135"/>
-      <c r="AH20" s="135"/>
-      <c r="AI20" s="136"/>
+      <c r="AF20" s="140"/>
+      <c r="AG20" s="141"/>
+      <c r="AH20" s="141"/>
+      <c r="AI20" s="142"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="33"/>
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
     </row>
-    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="126"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="133"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="134"/>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="136"/>
+      <c r="B21" s="131"/>
+      <c r="C21" s="132"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="134"/>
+      <c r="F21" s="135"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="136"/>
+      <c r="I21" s="132"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="141"/>
+      <c r="L21" s="141"/>
+      <c r="M21" s="141"/>
+      <c r="N21" s="141"/>
+      <c r="O21" s="141"/>
+      <c r="P21" s="142"/>
       <c r="Q21" s="137"/>
       <c r="R21" s="138"/>
       <c r="S21" s="138"/>
@@ -6342,33 +6314,33 @@
       <c r="AC21" s="138"/>
       <c r="AD21" s="138"/>
       <c r="AE21" s="139"/>
-      <c r="AF21" s="134"/>
-      <c r="AG21" s="135"/>
-      <c r="AH21" s="135"/>
-      <c r="AI21" s="136"/>
+      <c r="AF21" s="140"/>
+      <c r="AG21" s="141"/>
+      <c r="AH21" s="141"/>
+      <c r="AI21" s="142"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
     </row>
-    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="126"/>
-      <c r="B22" s="128"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="132"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="133"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="134"/>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="136"/>
+      <c r="B22" s="131"/>
+      <c r="C22" s="132"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="134"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="136"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="140"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="141"/>
+      <c r="N22" s="141"/>
+      <c r="O22" s="141"/>
+      <c r="P22" s="142"/>
       <c r="Q22" s="137"/>
       <c r="R22" s="138"/>
       <c r="S22" s="138"/>
@@ -6384,33 +6356,33 @@
       <c r="AC22" s="138"/>
       <c r="AD22" s="138"/>
       <c r="AE22" s="139"/>
-      <c r="AF22" s="134"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="136"/>
+      <c r="AF22" s="140"/>
+      <c r="AG22" s="141"/>
+      <c r="AH22" s="141"/>
+      <c r="AI22" s="142"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
       <c r="AM22" s="33"/>
       <c r="AN22" s="33"/>
     </row>
-    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="126"/>
-      <c r="B23" s="128"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="132"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="133"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="134"/>
-      <c r="K23" s="135"/>
-      <c r="L23" s="135"/>
-      <c r="M23" s="135"/>
-      <c r="N23" s="135"/>
-      <c r="O23" s="135"/>
-      <c r="P23" s="136"/>
+      <c r="B23" s="131"/>
+      <c r="C23" s="132"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="135"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="136"/>
+      <c r="I23" s="132"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="141"/>
+      <c r="N23" s="141"/>
+      <c r="O23" s="141"/>
+      <c r="P23" s="142"/>
       <c r="Q23" s="137"/>
       <c r="R23" s="138"/>
       <c r="S23" s="138"/>
@@ -6426,33 +6398,33 @@
       <c r="AC23" s="138"/>
       <c r="AD23" s="138"/>
       <c r="AE23" s="139"/>
-      <c r="AF23" s="134"/>
-      <c r="AG23" s="135"/>
-      <c r="AH23" s="135"/>
-      <c r="AI23" s="136"/>
+      <c r="AF23" s="140"/>
+      <c r="AG23" s="141"/>
+      <c r="AH23" s="141"/>
+      <c r="AI23" s="142"/>
       <c r="AJ23" s="33"/>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="33"/>
       <c r="AN23" s="33"/>
     </row>
-    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="126"/>
-      <c r="B24" s="128"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="133"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="134"/>
-      <c r="K24" s="135"/>
-      <c r="L24" s="135"/>
-      <c r="M24" s="135"/>
-      <c r="N24" s="135"/>
-      <c r="O24" s="135"/>
-      <c r="P24" s="136"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="132"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="134"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="132"/>
+      <c r="J24" s="140"/>
+      <c r="K24" s="141"/>
+      <c r="L24" s="141"/>
+      <c r="M24" s="141"/>
+      <c r="N24" s="141"/>
+      <c r="O24" s="141"/>
+      <c r="P24" s="142"/>
       <c r="Q24" s="137"/>
       <c r="R24" s="138"/>
       <c r="S24" s="138"/>
@@ -6468,33 +6440,33 @@
       <c r="AC24" s="138"/>
       <c r="AD24" s="138"/>
       <c r="AE24" s="139"/>
-      <c r="AF24" s="134"/>
-      <c r="AG24" s="135"/>
-      <c r="AH24" s="135"/>
-      <c r="AI24" s="136"/>
+      <c r="AF24" s="140"/>
+      <c r="AG24" s="141"/>
+      <c r="AH24" s="141"/>
+      <c r="AI24" s="142"/>
       <c r="AJ24" s="33"/>
       <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
     </row>
-    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="126"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="132"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="133"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="134"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="O25" s="135"/>
-      <c r="P25" s="136"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="132"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="135"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="136"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="140"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="O25" s="141"/>
+      <c r="P25" s="142"/>
       <c r="Q25" s="137"/>
       <c r="R25" s="138"/>
       <c r="S25" s="138"/>
@@ -6510,33 +6482,33 @@
       <c r="AC25" s="138"/>
       <c r="AD25" s="138"/>
       <c r="AE25" s="139"/>
-      <c r="AF25" s="134"/>
-      <c r="AG25" s="135"/>
-      <c r="AH25" s="135"/>
-      <c r="AI25" s="136"/>
+      <c r="AF25" s="140"/>
+      <c r="AG25" s="141"/>
+      <c r="AH25" s="141"/>
+      <c r="AI25" s="142"/>
       <c r="AJ25" s="33"/>
       <c r="AK25" s="33"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="33"/>
       <c r="AN25" s="33"/>
     </row>
-    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="126"/>
-      <c r="B26" s="128"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="131"/>
-      <c r="F26" s="132"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="134"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
-      <c r="O26" s="135"/>
-      <c r="P26" s="136"/>
+      <c r="B26" s="131"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="134"/>
+      <c r="F26" s="135"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="136"/>
+      <c r="I26" s="132"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="141"/>
+      <c r="N26" s="141"/>
+      <c r="O26" s="141"/>
+      <c r="P26" s="142"/>
       <c r="Q26" s="137"/>
       <c r="R26" s="138"/>
       <c r="S26" s="138"/>
@@ -6552,33 +6524,33 @@
       <c r="AC26" s="138"/>
       <c r="AD26" s="138"/>
       <c r="AE26" s="139"/>
-      <c r="AF26" s="134"/>
-      <c r="AG26" s="135"/>
-      <c r="AH26" s="135"/>
-      <c r="AI26" s="136"/>
+      <c r="AF26" s="140"/>
+      <c r="AG26" s="141"/>
+      <c r="AH26" s="141"/>
+      <c r="AI26" s="142"/>
       <c r="AJ26" s="33"/>
       <c r="AK26" s="33"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="33"/>
       <c r="AN26" s="33"/>
     </row>
-    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="126"/>
-      <c r="B27" s="128"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="130"/>
-      <c r="E27" s="131"/>
-      <c r="F27" s="132"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="133"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="134"/>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
-      <c r="N27" s="135"/>
-      <c r="O27" s="135"/>
-      <c r="P27" s="136"/>
+      <c r="B27" s="131"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="134"/>
+      <c r="F27" s="135"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="136"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="140"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="141"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141"/>
+      <c r="O27" s="141"/>
+      <c r="P27" s="142"/>
       <c r="Q27" s="137"/>
       <c r="R27" s="138"/>
       <c r="S27" s="138"/>
@@ -6594,33 +6566,33 @@
       <c r="AC27" s="138"/>
       <c r="AD27" s="138"/>
       <c r="AE27" s="139"/>
-      <c r="AF27" s="134"/>
-      <c r="AG27" s="135"/>
-      <c r="AH27" s="135"/>
-      <c r="AI27" s="136"/>
+      <c r="AF27" s="140"/>
+      <c r="AG27" s="141"/>
+      <c r="AH27" s="141"/>
+      <c r="AI27" s="142"/>
       <c r="AJ27" s="33"/>
       <c r="AK27" s="33"/>
       <c r="AL27" s="33"/>
       <c r="AM27" s="33"/>
       <c r="AN27" s="33"/>
     </row>
-    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="126"/>
-      <c r="B28" s="128"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="130"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="133"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="134"/>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
-      <c r="N28" s="135"/>
-      <c r="O28" s="135"/>
-      <c r="P28" s="136"/>
+      <c r="B28" s="131"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="134"/>
+      <c r="F28" s="135"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="136"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="140"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="141"/>
+      <c r="N28" s="141"/>
+      <c r="O28" s="141"/>
+      <c r="P28" s="142"/>
       <c r="Q28" s="137"/>
       <c r="R28" s="138"/>
       <c r="S28" s="138"/>
@@ -6636,33 +6608,33 @@
       <c r="AC28" s="138"/>
       <c r="AD28" s="138"/>
       <c r="AE28" s="139"/>
-      <c r="AF28" s="134"/>
-      <c r="AG28" s="135"/>
-      <c r="AH28" s="135"/>
-      <c r="AI28" s="136"/>
+      <c r="AF28" s="140"/>
+      <c r="AG28" s="141"/>
+      <c r="AH28" s="141"/>
+      <c r="AI28" s="142"/>
       <c r="AJ28" s="33"/>
       <c r="AK28" s="33"/>
       <c r="AL28" s="33"/>
       <c r="AM28" s="33"/>
       <c r="AN28" s="33"/>
     </row>
-    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="126"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="130"/>
-      <c r="E29" s="131"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="133"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="134"/>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
-      <c r="N29" s="135"/>
-      <c r="O29" s="135"/>
-      <c r="P29" s="136"/>
+      <c r="B29" s="131"/>
+      <c r="C29" s="132"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="134"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="136"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="140"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="141"/>
+      <c r="P29" s="142"/>
       <c r="Q29" s="137"/>
       <c r="R29" s="138"/>
       <c r="S29" s="138"/>
@@ -6678,33 +6650,33 @@
       <c r="AC29" s="138"/>
       <c r="AD29" s="138"/>
       <c r="AE29" s="139"/>
-      <c r="AF29" s="134"/>
-      <c r="AG29" s="135"/>
-      <c r="AH29" s="135"/>
-      <c r="AI29" s="136"/>
+      <c r="AF29" s="140"/>
+      <c r="AG29" s="141"/>
+      <c r="AH29" s="141"/>
+      <c r="AI29" s="142"/>
       <c r="AJ29" s="33"/>
       <c r="AK29" s="33"/>
       <c r="AL29" s="33"/>
       <c r="AM29" s="33"/>
       <c r="AN29" s="33"/>
     </row>
-    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="126"/>
-      <c r="B30" s="128"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="131"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="133"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="134"/>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
-      <c r="N30" s="135"/>
-      <c r="O30" s="135"/>
-      <c r="P30" s="136"/>
+      <c r="B30" s="131"/>
+      <c r="C30" s="132"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="134"/>
+      <c r="F30" s="135"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="140"/>
+      <c r="K30" s="141"/>
+      <c r="L30" s="141"/>
+      <c r="M30" s="141"/>
+      <c r="N30" s="141"/>
+      <c r="O30" s="141"/>
+      <c r="P30" s="142"/>
       <c r="Q30" s="137"/>
       <c r="R30" s="138"/>
       <c r="S30" s="138"/>
@@ -6720,33 +6692,33 @@
       <c r="AC30" s="138"/>
       <c r="AD30" s="138"/>
       <c r="AE30" s="139"/>
-      <c r="AF30" s="134"/>
-      <c r="AG30" s="135"/>
-      <c r="AH30" s="135"/>
-      <c r="AI30" s="136"/>
+      <c r="AF30" s="140"/>
+      <c r="AG30" s="141"/>
+      <c r="AH30" s="141"/>
+      <c r="AI30" s="142"/>
       <c r="AJ30" s="33"/>
       <c r="AK30" s="33"/>
       <c r="AL30" s="33"/>
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
     </row>
-    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="126"/>
-      <c r="B31" s="128"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="131"/>
-      <c r="F31" s="132"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="133"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="134"/>
-      <c r="K31" s="135"/>
-      <c r="L31" s="135"/>
-      <c r="M31" s="135"/>
-      <c r="N31" s="135"/>
-      <c r="O31" s="135"/>
-      <c r="P31" s="136"/>
+      <c r="B31" s="131"/>
+      <c r="C31" s="132"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="134"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="140"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="141"/>
+      <c r="N31" s="141"/>
+      <c r="O31" s="141"/>
+      <c r="P31" s="142"/>
       <c r="Q31" s="137"/>
       <c r="R31" s="138"/>
       <c r="S31" s="138"/>
@@ -6762,33 +6734,33 @@
       <c r="AC31" s="138"/>
       <c r="AD31" s="138"/>
       <c r="AE31" s="139"/>
-      <c r="AF31" s="134"/>
-      <c r="AG31" s="135"/>
-      <c r="AH31" s="135"/>
-      <c r="AI31" s="136"/>
+      <c r="AF31" s="140"/>
+      <c r="AG31" s="141"/>
+      <c r="AH31" s="141"/>
+      <c r="AI31" s="142"/>
       <c r="AJ31" s="33"/>
       <c r="AK31" s="33"/>
       <c r="AL31" s="33"/>
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
     </row>
-    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="126"/>
-      <c r="B32" s="128"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="132"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="133"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="134"/>
-      <c r="K32" s="135"/>
-      <c r="L32" s="135"/>
-      <c r="M32" s="135"/>
-      <c r="N32" s="135"/>
-      <c r="O32" s="135"/>
-      <c r="P32" s="136"/>
+      <c r="B32" s="131"/>
+      <c r="C32" s="132"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="134"/>
+      <c r="F32" s="135"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="141"/>
+      <c r="L32" s="141"/>
+      <c r="M32" s="141"/>
+      <c r="N32" s="141"/>
+      <c r="O32" s="141"/>
+      <c r="P32" s="142"/>
       <c r="Q32" s="137"/>
       <c r="R32" s="138"/>
       <c r="S32" s="138"/>
@@ -6804,33 +6776,33 @@
       <c r="AC32" s="138"/>
       <c r="AD32" s="138"/>
       <c r="AE32" s="139"/>
-      <c r="AF32" s="134"/>
-      <c r="AG32" s="135"/>
-      <c r="AH32" s="135"/>
-      <c r="AI32" s="136"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="141"/>
+      <c r="AH32" s="141"/>
+      <c r="AI32" s="142"/>
       <c r="AJ32" s="33"/>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
     </row>
-    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="126"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="131"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="134"/>
-      <c r="K33" s="135"/>
-      <c r="L33" s="135"/>
-      <c r="M33" s="135"/>
-      <c r="N33" s="135"/>
-      <c r="O33" s="135"/>
-      <c r="P33" s="136"/>
+      <c r="B33" s="131"/>
+      <c r="C33" s="132"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="134"/>
+      <c r="F33" s="135"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="140"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="142"/>
       <c r="Q33" s="137"/>
       <c r="R33" s="138"/>
       <c r="S33" s="138"/>
@@ -6846,17 +6818,17 @@
       <c r="AC33" s="138"/>
       <c r="AD33" s="138"/>
       <c r="AE33" s="139"/>
-      <c r="AF33" s="134"/>
-      <c r="AG33" s="135"/>
-      <c r="AH33" s="135"/>
-      <c r="AI33" s="136"/>
+      <c r="AF33" s="140"/>
+      <c r="AG33" s="141"/>
+      <c r="AH33" s="141"/>
+      <c r="AI33" s="142"/>
       <c r="AJ33" s="33"/>
       <c r="AK33" s="33"/>
       <c r="AL33" s="33"/>
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
     </row>
-    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -6898,7 +6870,7 @@
       <c r="AM34" s="33"/>
       <c r="AN34" s="33"/>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:40">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -6940,7 +6912,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:40">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -6982,7 +6954,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:40">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -7024,7 +6996,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:40">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7066,7 +7038,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:40">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7108,7 +7080,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:40">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7152,40 +7124,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -7210,127 +7269,40 @@
     <mergeCell ref="Q10:AE10"/>
     <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="J11:P11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -7351,7 +7323,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="44" customWidth="1"/>
@@ -7486,32 +7458,32 @@
     <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="140" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -7523,17 +7495,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="161" t="s">
+      <c r="AA1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -7541,30 +7513,30 @@
       <c r="AH1" s="190"/>
       <c r="AI1" s="191"/>
     </row>
-    <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="140" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -7573,17 +7545,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="161" t="s">
+      <c r="AA2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -7591,30 +7563,30 @@
       <c r="AH2" s="190"/>
       <c r="AI2" s="191"/>
     </row>
-    <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="140" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -7623,15 +7595,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -7639,7 +7611,7 @@
       <c r="AH3" s="190"/>
       <c r="AI3" s="191"/>
     </row>
-    <row r="4" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="71"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -7676,7 +7648,7 @@
       <c r="AH4" s="71"/>
       <c r="AI4" s="71"/>
     </row>
-    <row r="5" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -7715,7 +7687,7 @@
       <c r="AH5" s="71"/>
       <c r="AI5" s="71"/>
     </row>
-    <row r="6" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -7752,7 +7724,7 @@
       <c r="AH6" s="71"/>
       <c r="AI6" s="71"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="18"/>
       <c r="B7" s="41" t="s">
         <v>25</v>
@@ -7791,7 +7763,7 @@
       <c r="AH7" s="74"/>
       <c r="AI7" s="73"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="18"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -7830,7 +7802,7 @@
       <c r="AH8" s="80"/>
       <c r="AI8" s="73"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="18"/>
       <c r="B9" s="69"/>
       <c r="C9" s="41" t="s">
@@ -7869,7 +7841,7 @@
       <c r="AH9" s="79"/>
       <c r="AI9" s="18"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="18"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -7906,10 +7878,10 @@
       <c r="AH10" s="74"/>
       <c r="AI10" s="73"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="18"/>
@@ -7945,7 +7917,7 @@
       <c r="AH11" s="74"/>
       <c r="AI11" s="73"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="18"/>
       <c r="B12" s="69"/>
       <c r="C12" s="37" t="s">
@@ -7984,7 +7956,7 @@
       <c r="AH12" s="74"/>
       <c r="AI12" s="73"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="18"/>
       <c r="B13" s="69"/>
       <c r="C13" s="78" t="s">
@@ -8018,7 +7990,7 @@
       <c r="AH13" s="74"/>
       <c r="AI13" s="73"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="18"/>
       <c r="B14" s="73"/>
       <c r="C14" s="37" t="s">
@@ -8057,7 +8029,7 @@
       <c r="AH14" s="74"/>
       <c r="AI14" s="73"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="18"/>
       <c r="B15" s="37"/>
       <c r="C15" s="78" t="s">
@@ -8096,7 +8068,7 @@
       <c r="AH15" s="74"/>
       <c r="AI15" s="73"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="18"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37" t="s">
@@ -8131,7 +8103,7 @@
       <c r="AH16" s="74"/>
       <c r="AI16" s="73"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="18"/>
       <c r="B17" s="71"/>
       <c r="C17" s="37"/>
@@ -8168,7 +8140,7 @@
       <c r="AH17" s="74"/>
       <c r="AI17" s="73"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="18"/>
       <c r="B18" s="71"/>
       <c r="C18" s="18"/>
@@ -8205,7 +8177,7 @@
       <c r="AH18" s="74"/>
       <c r="AI18" s="73"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="18"/>
       <c r="B19" s="71"/>
       <c r="C19" s="18"/>
@@ -8242,7 +8214,7 @@
       <c r="AH19" s="74"/>
       <c r="AI19" s="73"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="18"/>
       <c r="B20" s="71"/>
       <c r="C20" s="18"/>
@@ -8279,7 +8251,7 @@
       <c r="AH20" s="74"/>
       <c r="AI20" s="73"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="18"/>
       <c r="B21" s="71"/>
       <c r="C21" s="18"/>
@@ -8316,7 +8288,7 @@
       <c r="AH21" s="74"/>
       <c r="AI21" s="73"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="18"/>
       <c r="B22" s="71"/>
       <c r="C22" s="18"/>
@@ -8353,7 +8325,7 @@
       <c r="AH22" s="74"/>
       <c r="AI22" s="73"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="18"/>
       <c r="B23" s="77"/>
       <c r="C23" s="69"/>
@@ -8390,7 +8362,7 @@
       <c r="AH23" s="74"/>
       <c r="AI23" s="73"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="71"/>
       <c r="C24" s="18"/>
@@ -8427,7 +8399,7 @@
       <c r="AH24" s="74"/>
       <c r="AI24" s="73"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="71"/>
       <c r="C25" s="18"/>
@@ -8464,7 +8436,7 @@
       <c r="AH25" s="74"/>
       <c r="AI25" s="73"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="71"/>
       <c r="C26" s="18"/>
@@ -8501,7 +8473,7 @@
       <c r="AH26" s="74"/>
       <c r="AI26" s="73"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="18"/>
       <c r="B27" s="71"/>
       <c r="C27" s="18"/>
@@ -8538,7 +8510,7 @@
       <c r="AH27" s="74"/>
       <c r="AI27" s="73"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="18"/>
       <c r="B28" s="71"/>
       <c r="C28" s="18"/>
@@ -8575,7 +8547,7 @@
       <c r="AH28" s="74"/>
       <c r="AI28" s="73"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="18"/>
       <c r="B29" s="71"/>
       <c r="C29" s="18"/>
@@ -8612,7 +8584,7 @@
       <c r="AH29" s="74"/>
       <c r="AI29" s="73"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="57"/>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -8649,7 +8621,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="57"/>
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
@@ -8686,7 +8658,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="57"/>
       <c r="B32" s="61"/>
       <c r="C32" s="18"/>
@@ -8723,7 +8695,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="57"/>
       <c r="B33" s="61"/>
       <c r="C33" s="18"/>
@@ -8760,7 +8732,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="57"/>
       <c r="B34" s="61"/>
       <c r="C34" s="18"/>
@@ -8797,7 +8769,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="57"/>
       <c r="B35" s="61"/>
       <c r="C35" s="18"/>
@@ -8834,7 +8806,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="57"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -8871,7 +8843,7 @@
       <c r="AH36" s="58"/>
       <c r="AI36" s="57"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
@@ -8903,7 +8875,7 @@
       <c r="AH37" s="53"/>
       <c r="AI37" s="48"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
       <c r="U38" s="52"/>
@@ -8922,7 +8894,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="48"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="46"/>
       <c r="S39" s="48"/>
       <c r="T39" s="52"/>
@@ -8942,7 +8914,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="48"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
@@ -8961,7 +8933,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="48"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
@@ -8975,37 +8947,37 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="48"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="48"/>
       <c r="AF42" s="50"/>
       <c r="AG42" s="51"/>
       <c r="AH42" s="49"/>
       <c r="AI42" s="48"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="48"/>
       <c r="AF43" s="50"/>
       <c r="AG43" s="50"/>
       <c r="AH43" s="49"/>
       <c r="AI43" s="48"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="45"/>
       <c r="AF44" s="47"/>
       <c r="AG44" s="47"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="45"/>
       <c r="AG45" s="47"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="47"/>
       <c r="AG46" s="47"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="47"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="45"/>
       <c r="T48" s="45"/>
       <c r="V48" s="45"/>
@@ -9018,7 +8990,7 @@
       <c r="AC48" s="45"/>
       <c r="AD48" s="45"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
       <c r="T49" s="45"/>
@@ -9033,10 +9005,10 @@
       <c r="AD49" s="45"/>
       <c r="AG49" s="47"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="45"/>
     </row>
-    <row r="51" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -9069,7 +9041,7 @@
       <c r="AD51" s="43"/>
       <c r="AH51" s="46"/>
     </row>
-    <row r="52" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -9104,14 +9076,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9121,6 +9085,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -9141,37 +9113,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="140" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -9183,17 +9155,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="161" t="s">
+      <c r="AA1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -9201,30 +9173,30 @@
       <c r="AH1" s="190"/>
       <c r="AI1" s="191"/>
     </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="140" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -9233,17 +9205,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="161" t="s">
+      <c r="AA2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -9251,30 +9223,30 @@
       <c r="AH2" s="190"/>
       <c r="AI2" s="191"/>
     </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="140" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -9283,15 +9255,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -9299,8 +9271,8 @@
       <c r="AH3" s="190"/>
       <c r="AI3" s="191"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
@@ -9337,7 +9309,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:35" ht="12" customHeight="1">
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
         <v>26</v>
@@ -9374,7 +9346,7 @@
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="12" customHeight="1">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -9409,7 +9381,7 @@
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
     </row>
-    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1">
       <c r="B8" s="35"/>
       <c r="D8" s="212" t="s">
         <v>16</v>
@@ -9445,7 +9417,7 @@
       <c r="AG8" s="210"/>
       <c r="AH8" s="210"/>
     </row>
-    <row r="9" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" s="20" customFormat="1">
       <c r="B9" s="35"/>
       <c r="D9" s="212" t="s">
         <v>27</v>
@@ -9481,10 +9453,10 @@
       <c r="AG9" s="211"/>
       <c r="AH9" s="211"/>
     </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="11.25" customHeight="1">
       <c r="B10" s="35"/>
       <c r="D10" s="201" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E10" s="202"/>
       <c r="F10" s="202"/>
@@ -9517,7 +9489,7 @@
       <c r="AG10" s="103"/>
       <c r="AH10" s="104"/>
     </row>
-    <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" s="19" customFormat="1">
       <c r="B11" s="35"/>
       <c r="D11" s="204"/>
       <c r="E11" s="205"/>
@@ -9551,7 +9523,7 @@
       <c r="AG11" s="36"/>
       <c r="AH11" s="106"/>
     </row>
-    <row r="12" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" s="19" customFormat="1">
       <c r="B12" s="35"/>
       <c r="D12" s="204"/>
       <c r="E12" s="205"/>
@@ -9585,7 +9557,7 @@
       <c r="AG12" s="36"/>
       <c r="AH12" s="106"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35">
       <c r="B13" s="35"/>
       <c r="D13" s="204"/>
       <c r="E13" s="205"/>
@@ -9619,7 +9591,7 @@
       <c r="AG13" s="36"/>
       <c r="AH13" s="106"/>
     </row>
-    <row r="14" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" s="19" customFormat="1">
       <c r="B14" s="35"/>
       <c r="D14" s="204"/>
       <c r="E14" s="205"/>
@@ -9653,7 +9625,7 @@
       <c r="AG14" s="36"/>
       <c r="AH14" s="106"/>
     </row>
-    <row r="15" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" s="19" customFormat="1">
       <c r="B15" s="35"/>
       <c r="D15" s="204"/>
       <c r="E15" s="205"/>
@@ -9687,7 +9659,7 @@
       <c r="AG15" s="36"/>
       <c r="AH15" s="106"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35">
       <c r="B16" s="35"/>
       <c r="D16" s="204"/>
       <c r="E16" s="205"/>
@@ -9721,7 +9693,7 @@
       <c r="AG16" s="36"/>
       <c r="AH16" s="106"/>
     </row>
-    <row r="17" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:34" s="19" customFormat="1">
       <c r="B17" s="35"/>
       <c r="D17" s="204"/>
       <c r="E17" s="205"/>
@@ -9755,7 +9727,7 @@
       <c r="AG17" s="36"/>
       <c r="AH17" s="106"/>
     </row>
-    <row r="18" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:34" s="19" customFormat="1">
       <c r="B18" s="35"/>
       <c r="D18" s="204"/>
       <c r="E18" s="205"/>
@@ -9789,7 +9761,7 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="106"/>
     </row>
-    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:34">
       <c r="B19" s="35"/>
       <c r="D19" s="204"/>
       <c r="E19" s="205"/>
@@ -9823,7 +9795,7 @@
       <c r="AG19" s="36"/>
       <c r="AH19" s="106"/>
     </row>
-    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:34">
       <c r="B20" s="35"/>
       <c r="D20" s="204"/>
       <c r="E20" s="205"/>
@@ -9857,7 +9829,7 @@
       <c r="AG20" s="36"/>
       <c r="AH20" s="106"/>
     </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:34">
       <c r="B21" s="35"/>
       <c r="D21" s="204"/>
       <c r="E21" s="205"/>
@@ -9891,7 +9863,7 @@
       <c r="AG21" s="36"/>
       <c r="AH21" s="106"/>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:34">
       <c r="B22" s="35"/>
       <c r="D22" s="204"/>
       <c r="E22" s="205"/>
@@ -9925,7 +9897,7 @@
       <c r="AG22" s="36"/>
       <c r="AH22" s="106"/>
     </row>
-    <row r="23" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:34" s="19" customFormat="1">
       <c r="B23" s="35"/>
       <c r="D23" s="204"/>
       <c r="E23" s="205"/>
@@ -9959,7 +9931,7 @@
       <c r="AG23" s="36"/>
       <c r="AH23" s="106"/>
     </row>
-    <row r="24" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:34" s="19" customFormat="1">
       <c r="B24" s="35"/>
       <c r="D24" s="204"/>
       <c r="E24" s="205"/>
@@ -9993,7 +9965,7 @@
       <c r="AG24" s="36"/>
       <c r="AH24" s="106"/>
     </row>
-    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:34">
       <c r="B25" s="35"/>
       <c r="D25" s="204"/>
       <c r="E25" s="205"/>
@@ -10027,7 +9999,7 @@
       <c r="AG25" s="36"/>
       <c r="AH25" s="106"/>
     </row>
-    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:34">
       <c r="B26" s="35"/>
       <c r="D26" s="204"/>
       <c r="E26" s="205"/>
@@ -10061,7 +10033,7 @@
       <c r="AG26" s="36"/>
       <c r="AH26" s="106"/>
     </row>
-    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:34">
       <c r="B27" s="35"/>
       <c r="D27" s="204"/>
       <c r="E27" s="205"/>
@@ -10095,7 +10067,7 @@
       <c r="AG27" s="36"/>
       <c r="AH27" s="106"/>
     </row>
-    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:34">
       <c r="B28" s="35"/>
       <c r="D28" s="204"/>
       <c r="E28" s="205"/>
@@ -10129,7 +10101,7 @@
       <c r="AG28" s="36"/>
       <c r="AH28" s="106"/>
     </row>
-    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:34">
       <c r="B29" s="35"/>
       <c r="D29" s="207"/>
       <c r="E29" s="208"/>
@@ -10163,7 +10135,7 @@
       <c r="AG29" s="108"/>
       <c r="AH29" s="109"/>
     </row>
-    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:34">
       <c r="B30" s="35"/>
       <c r="D30" s="201" t="s">
         <v>14</v>
@@ -10199,7 +10171,7 @@
       <c r="AG30" s="111"/>
       <c r="AH30" s="112"/>
     </row>
-    <row r="31" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:34">
       <c r="B31" s="35"/>
       <c r="D31" s="204"/>
       <c r="E31" s="205"/>
@@ -10233,7 +10205,7 @@
       <c r="AG31" s="114"/>
       <c r="AH31" s="115"/>
     </row>
-    <row r="32" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:34">
       <c r="B32" s="35"/>
       <c r="D32" s="204"/>
       <c r="E32" s="205"/>
@@ -10267,7 +10239,7 @@
       <c r="AG32" s="114"/>
       <c r="AH32" s="115"/>
     </row>
-    <row r="33" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:34">
       <c r="B33" s="35"/>
       <c r="D33" s="204"/>
       <c r="E33" s="205"/>
@@ -10301,7 +10273,7 @@
       <c r="AG33" s="114"/>
       <c r="AH33" s="115"/>
     </row>
-    <row r="34" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:34">
       <c r="B34" s="35"/>
       <c r="D34" s="204"/>
       <c r="E34" s="205"/>
@@ -10335,7 +10307,7 @@
       <c r="AG34" s="114"/>
       <c r="AH34" s="115"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:34">
       <c r="B35" s="35"/>
       <c r="D35" s="204"/>
       <c r="E35" s="205"/>
@@ -10369,7 +10341,7 @@
       <c r="AG35" s="114"/>
       <c r="AH35" s="115"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:34">
       <c r="B36" s="35"/>
       <c r="D36" s="204"/>
       <c r="E36" s="205"/>
@@ -10403,7 +10375,7 @@
       <c r="AG36" s="114"/>
       <c r="AH36" s="115"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:34">
       <c r="B37" s="35"/>
       <c r="D37" s="207"/>
       <c r="E37" s="208"/>
@@ -10439,6 +10411,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D30:G37"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G29"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -10450,18 +10434,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D30:G37"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10484,37 +10456,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="140" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -10526,17 +10498,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="161" t="s">
+      <c r="AA1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -10544,30 +10516,30 @@
       <c r="AH1" s="190"/>
       <c r="AI1" s="191"/>
     </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="140" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -10576,17 +10548,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="161" t="s">
+      <c r="AA2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10594,30 +10566,30 @@
       <c r="AH2" s="190"/>
       <c r="AI2" s="191"/>
     </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="140" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -10626,15 +10598,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10642,23 +10614,15 @@
       <c r="AH3" s="190"/>
       <c r="AI3" s="191"/>
     </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:35" ht="12" customHeight="1"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="B5" s="84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10668,6 +10632,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10691,37 +10663,37 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="161" t="s">
+    <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="143" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="181"/>
-      <c r="C1" s="181"/>
-      <c r="D1" s="162"/>
-      <c r="E1" s="140" t="str">
+      <c r="B1" s="163"/>
+      <c r="C1" s="163"/>
+      <c r="D1" s="144"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="141"/>
-      <c r="G1" s="141"/>
-      <c r="H1" s="141"/>
-      <c r="I1" s="141"/>
-      <c r="J1" s="141"/>
-      <c r="K1" s="141"/>
-      <c r="L1" s="141"/>
-      <c r="M1" s="141"/>
-      <c r="N1" s="142"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="187"/>
+      <c r="G1" s="187"/>
+      <c r="H1" s="187"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
+      <c r="K1" s="187"/>
+      <c r="L1" s="187"/>
+      <c r="M1" s="187"/>
+      <c r="N1" s="188"/>
+      <c r="O1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
+      <c r="P1" s="146"/>
+      <c r="Q1" s="146"/>
+      <c r="R1" s="147"/>
       <c r="S1" s="192" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -10733,17 +10705,17 @@
       <c r="X1" s="193"/>
       <c r="Y1" s="193"/>
       <c r="Z1" s="194"/>
-      <c r="AA1" s="161" t="s">
+      <c r="AA1" s="143" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="143" t="str">
+      <c r="AB1" s="144"/>
+      <c r="AC1" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="144"/>
-      <c r="AE1" s="144"/>
-      <c r="AF1" s="145"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="172"/>
       <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
@@ -10754,30 +10726,30 @@
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
-    <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="161" t="s">
+    <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="143" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="140" t="str">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="141"/>
-      <c r="G2" s="141"/>
-      <c r="H2" s="141"/>
-      <c r="I2" s="141"/>
-      <c r="J2" s="141"/>
-      <c r="K2" s="141"/>
-      <c r="L2" s="141"/>
-      <c r="M2" s="141"/>
-      <c r="N2" s="142"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="187"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="187"/>
+      <c r="L2" s="187"/>
+      <c r="M2" s="187"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="148"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="150"/>
       <c r="S2" s="195"/>
       <c r="T2" s="196"/>
       <c r="U2" s="196"/>
@@ -10786,17 +10758,17 @@
       <c r="X2" s="196"/>
       <c r="Y2" s="196"/>
       <c r="Z2" s="197"/>
-      <c r="AA2" s="161" t="s">
+      <c r="AA2" s="143" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="143" t="str">
+      <c r="AB2" s="144"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="144"/>
-      <c r="AE2" s="144"/>
-      <c r="AF2" s="145"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
       <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
@@ -10807,30 +10779,30 @@
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="161" t="s">
+    <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="143" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="140" t="str">
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="142"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="187"/>
+      <c r="J3" s="187"/>
+      <c r="K3" s="187"/>
+      <c r="L3" s="187"/>
+      <c r="M3" s="187"/>
+      <c r="N3" s="188"/>
+      <c r="O3" s="151"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="153"/>
       <c r="S3" s="198"/>
       <c r="T3" s="199"/>
       <c r="U3" s="199"/>
@@ -10839,15 +10811,15 @@
       <c r="X3" s="199"/>
       <c r="Y3" s="199"/>
       <c r="Z3" s="200"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="143" t="str">
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="144"/>
+      <c r="AC3" s="170" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="144"/>
-      <c r="AE3" s="144"/>
-      <c r="AF3" s="145"/>
+      <c r="AD3" s="171"/>
+      <c r="AE3" s="171"/>
+      <c r="AF3" s="172"/>
       <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
@@ -10858,10 +10830,10 @@
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:38" ht="12" customHeight="1"/>
+    <row r="5" spans="1:38" s="21" customFormat="1">
       <c r="B5" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10896,7 +10868,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:38" s="21" customFormat="1">
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
         <v>42</v>
@@ -10933,7 +10905,7 @@
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
     </row>
-    <row r="7" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:38" s="21" customFormat="1">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="87"/>
@@ -10968,68 +10940,68 @@
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:38">
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="228" t="s">
+      <c r="D8" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="230" t="s">
+      <c r="E8" s="255" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="236" t="s">
+      <c r="F8" s="256"/>
+      <c r="G8" s="256"/>
+      <c r="H8" s="256"/>
+      <c r="I8" s="256"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="243" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="231"/>
-      <c r="M8" s="231"/>
-      <c r="N8" s="232"/>
-      <c r="O8" s="237" t="s">
+      <c r="L8" s="256"/>
+      <c r="M8" s="256"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="261" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="217" t="s">
+      <c r="P8" s="266" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="219"/>
-      <c r="V8" s="239" t="s">
+      <c r="Q8" s="267"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="267"/>
+      <c r="U8" s="268"/>
+      <c r="V8" s="263" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="239"/>
-      <c r="X8" s="239"/>
-      <c r="Y8" s="239"/>
-      <c r="Z8" s="239"/>
-      <c r="AA8" s="239"/>
-      <c r="AB8" s="239"/>
-      <c r="AC8" s="239"/>
-      <c r="AD8" s="239"/>
-      <c r="AE8" s="239"/>
-      <c r="AF8" s="239"/>
-      <c r="AG8" s="239"/>
-      <c r="AH8" s="239"/>
-    </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="W8" s="263"/>
+      <c r="X8" s="263"/>
+      <c r="Y8" s="263"/>
+      <c r="Z8" s="263"/>
+      <c r="AA8" s="263"/>
+      <c r="AB8" s="263"/>
+      <c r="AC8" s="263"/>
+      <c r="AD8" s="263"/>
+      <c r="AE8" s="263"/>
+      <c r="AF8" s="263"/>
+      <c r="AG8" s="263"/>
+      <c r="AH8" s="263"/>
+    </row>
+    <row r="9" spans="1:38">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="229"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="233"/>
-      <c r="L9" s="234"/>
-      <c r="M9" s="234"/>
-      <c r="N9" s="235"/>
-      <c r="O9" s="238"/>
+      <c r="D9" s="254"/>
+      <c r="E9" s="258"/>
+      <c r="F9" s="259"/>
+      <c r="G9" s="259"/>
+      <c r="H9" s="259"/>
+      <c r="I9" s="259"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="258"/>
+      <c r="L9" s="259"/>
+      <c r="M9" s="259"/>
+      <c r="N9" s="260"/>
+      <c r="O9" s="262"/>
       <c r="P9" s="88" t="s">
         <v>49</v>
       </c>
@@ -11042,25 +11014,25 @@
       <c r="S9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="240" t="s">
+      <c r="T9" s="264" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="241"/>
-      <c r="V9" s="239"/>
-      <c r="W9" s="239"/>
-      <c r="X9" s="239"/>
-      <c r="Y9" s="239"/>
-      <c r="Z9" s="239"/>
-      <c r="AA9" s="239"/>
-      <c r="AB9" s="239"/>
-      <c r="AC9" s="239"/>
-      <c r="AD9" s="239"/>
-      <c r="AE9" s="239"/>
-      <c r="AF9" s="239"/>
-      <c r="AG9" s="239"/>
-      <c r="AH9" s="239"/>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
+      <c r="U9" s="265"/>
+      <c r="V9" s="263"/>
+      <c r="W9" s="263"/>
+      <c r="X9" s="263"/>
+      <c r="Y9" s="263"/>
+      <c r="Z9" s="263"/>
+      <c r="AA9" s="263"/>
+      <c r="AB9" s="263"/>
+      <c r="AC9" s="263"/>
+      <c r="AD9" s="263"/>
+      <c r="AE9" s="263"/>
+      <c r="AF9" s="263"/>
+      <c r="AG9" s="263"/>
+      <c r="AH9" s="263"/>
+    </row>
+    <row r="10" spans="1:38">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="89">
@@ -11081,8 +11053,8 @@
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="215"/>
-      <c r="U10" s="216"/>
+      <c r="T10" s="251"/>
+      <c r="U10" s="252"/>
       <c r="V10" s="137"/>
       <c r="W10" s="138"/>
       <c r="X10" s="138"/>
@@ -11097,7 +11069,7 @@
       <c r="AG10" s="138"/>
       <c r="AH10" s="139"/>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:38">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="89">
@@ -11118,8 +11090,8 @@
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="215"/>
-      <c r="U11" s="216"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="252"/>
       <c r="V11" s="137"/>
       <c r="W11" s="138"/>
       <c r="X11" s="138"/>
@@ -11134,7 +11106,7 @@
       <c r="AG11" s="138"/>
       <c r="AH11" s="139"/>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="89">
@@ -11155,8 +11127,8 @@
       <c r="Q12" s="91"/>
       <c r="R12" s="91"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="215"/>
-      <c r="U12" s="216"/>
+      <c r="T12" s="251"/>
+      <c r="U12" s="252"/>
       <c r="V12" s="137"/>
       <c r="W12" s="138"/>
       <c r="X12" s="138"/>
@@ -11171,7 +11143,7 @@
       <c r="AG12" s="138"/>
       <c r="AH12" s="139"/>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:38">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="119"/>
@@ -11206,7 +11178,7 @@
       <c r="AG13" s="121"/>
       <c r="AH13" s="121"/>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:38">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="87"/>
@@ -11241,7 +11213,7 @@
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:38">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>55</v>
@@ -11278,7 +11250,7 @@
       <c r="AG15" s="86"/>
       <c r="AH15" s="86"/>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:38">
       <c r="B16" s="40"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -11313,87 +11285,85 @@
       <c r="AG16" s="86"/>
       <c r="AH16" s="86"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34">
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="242" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="244" t="s">
+      <c r="D17" s="235" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="245"/>
-      <c r="G17" s="246"/>
-      <c r="H17" s="236" t="s">
+      <c r="E17" s="237" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="238"/>
+      <c r="G17" s="239"/>
+      <c r="H17" s="243" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="250"/>
-      <c r="J17" s="250"/>
-      <c r="K17" s="250"/>
-      <c r="L17" s="250"/>
-      <c r="M17" s="250"/>
-      <c r="N17" s="250"/>
-      <c r="O17" s="250"/>
-      <c r="P17" s="250"/>
-      <c r="Q17" s="250"/>
-      <c r="R17" s="250"/>
-      <c r="S17" s="250"/>
-      <c r="T17" s="250"/>
-      <c r="U17" s="250"/>
-      <c r="V17" s="251"/>
-      <c r="W17" s="255" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" s="256"/>
-      <c r="Y17" s="256"/>
-      <c r="Z17" s="257"/>
-      <c r="AA17" s="278" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="278"/>
-      <c r="AC17" s="278"/>
-      <c r="AD17" s="278"/>
-      <c r="AE17" s="278"/>
-      <c r="AF17" s="278"/>
-      <c r="AG17" s="278"/>
-      <c r="AH17" s="278"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="I17" s="244"/>
+      <c r="J17" s="244"/>
+      <c r="K17" s="243" t="s">
+        <v>70</v>
+      </c>
+      <c r="L17" s="244"/>
+      <c r="M17" s="244"/>
+      <c r="N17" s="244"/>
+      <c r="O17" s="244"/>
+      <c r="P17" s="244"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
+      <c r="S17" s="244"/>
+      <c r="T17" s="244"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="244"/>
+      <c r="W17" s="244"/>
+      <c r="X17" s="244"/>
+      <c r="Y17" s="244"/>
+      <c r="Z17" s="244"/>
+      <c r="AA17" s="244"/>
+      <c r="AB17" s="244"/>
+      <c r="AC17" s="244"/>
+      <c r="AD17" s="244"/>
+      <c r="AE17" s="244"/>
+      <c r="AF17" s="244"/>
+      <c r="AG17" s="244"/>
+      <c r="AH17" s="245"/>
+    </row>
+    <row r="18" spans="1:34">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="247"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="249"/>
-      <c r="H18" s="252"/>
-      <c r="I18" s="253"/>
-      <c r="J18" s="253"/>
-      <c r="K18" s="253"/>
-      <c r="L18" s="253"/>
-      <c r="M18" s="253"/>
-      <c r="N18" s="253"/>
-      <c r="O18" s="253"/>
-      <c r="P18" s="253"/>
-      <c r="Q18" s="253"/>
-      <c r="R18" s="253"/>
-      <c r="S18" s="253"/>
-      <c r="T18" s="253"/>
-      <c r="U18" s="253"/>
-      <c r="V18" s="254"/>
-      <c r="W18" s="258"/>
-      <c r="X18" s="259"/>
-      <c r="Y18" s="259"/>
-      <c r="Z18" s="260"/>
-      <c r="AA18" s="278"/>
-      <c r="AB18" s="278"/>
-      <c r="AC18" s="278"/>
-      <c r="AD18" s="278"/>
-      <c r="AE18" s="278"/>
-      <c r="AF18" s="278"/>
-      <c r="AG18" s="278"/>
-      <c r="AH18" s="278"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="D18" s="236"/>
+      <c r="E18" s="240"/>
+      <c r="F18" s="241"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="246"/>
+      <c r="I18" s="247"/>
+      <c r="J18" s="247"/>
+      <c r="K18" s="246"/>
+      <c r="L18" s="247"/>
+      <c r="M18" s="247"/>
+      <c r="N18" s="247"/>
+      <c r="O18" s="247"/>
+      <c r="P18" s="247"/>
+      <c r="Q18" s="247"/>
+      <c r="R18" s="247"/>
+      <c r="S18" s="247"/>
+      <c r="T18" s="247"/>
+      <c r="U18" s="247"/>
+      <c r="V18" s="247"/>
+      <c r="W18" s="247"/>
+      <c r="X18" s="247"/>
+      <c r="Y18" s="247"/>
+      <c r="Z18" s="247"/>
+      <c r="AA18" s="247"/>
+      <c r="AB18" s="247"/>
+      <c r="AC18" s="247"/>
+      <c r="AD18" s="247"/>
+      <c r="AE18" s="247"/>
+      <c r="AF18" s="247"/>
+      <c r="AG18" s="247"/>
+      <c r="AH18" s="248"/>
+    </row>
+    <row r="19" spans="1:34">
       <c r="A19" s="18"/>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
@@ -11406,7 +11376,7 @@
       <c r="H19" s="137"/>
       <c r="I19" s="138"/>
       <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
+      <c r="K19" s="137"/>
       <c r="L19" s="138"/>
       <c r="M19" s="138"/>
       <c r="N19" s="138"/>
@@ -11417,21 +11387,21 @@
       <c r="S19" s="138"/>
       <c r="T19" s="138"/>
       <c r="U19" s="138"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="221"/>
-      <c r="X19" s="222"/>
-      <c r="Y19" s="222"/>
-      <c r="Z19" s="223"/>
-      <c r="AA19" s="277"/>
-      <c r="AB19" s="277"/>
-      <c r="AC19" s="277"/>
-      <c r="AD19" s="277"/>
-      <c r="AE19" s="277"/>
-      <c r="AF19" s="277"/>
-      <c r="AG19" s="277"/>
-      <c r="AH19" s="277"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V19" s="138"/>
+      <c r="W19" s="138"/>
+      <c r="X19" s="138"/>
+      <c r="Y19" s="138"/>
+      <c r="Z19" s="138"/>
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="138"/>
+      <c r="AE19" s="138"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="139"/>
+    </row>
+    <row r="20" spans="1:34">
       <c r="A20" s="18"/>
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
@@ -11444,7 +11414,7 @@
       <c r="H20" s="137"/>
       <c r="I20" s="138"/>
       <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
+      <c r="K20" s="137"/>
       <c r="L20" s="138"/>
       <c r="M20" s="138"/>
       <c r="N20" s="138"/>
@@ -11455,21 +11425,21 @@
       <c r="S20" s="138"/>
       <c r="T20" s="138"/>
       <c r="U20" s="138"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="221"/>
-      <c r="X20" s="222"/>
-      <c r="Y20" s="222"/>
-      <c r="Z20" s="223"/>
-      <c r="AA20" s="220"/>
-      <c r="AB20" s="220"/>
-      <c r="AC20" s="220"/>
-      <c r="AD20" s="220"/>
-      <c r="AE20" s="220"/>
-      <c r="AF20" s="220"/>
-      <c r="AG20" s="220"/>
-      <c r="AH20" s="220"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V20" s="138"/>
+      <c r="W20" s="138"/>
+      <c r="X20" s="138"/>
+      <c r="Y20" s="138"/>
+      <c r="Z20" s="138"/>
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="138"/>
+      <c r="AE20" s="138"/>
+      <c r="AF20" s="138"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="139"/>
+    </row>
+    <row r="21" spans="1:34">
       <c r="A21" s="18"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36"/>
@@ -11482,7 +11452,7 @@
       <c r="H21" s="137"/>
       <c r="I21" s="138"/>
       <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
+      <c r="K21" s="137"/>
       <c r="L21" s="138"/>
       <c r="M21" s="138"/>
       <c r="N21" s="138"/>
@@ -11493,21 +11463,21 @@
       <c r="S21" s="138"/>
       <c r="T21" s="138"/>
       <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="221"/>
-      <c r="X21" s="222"/>
-      <c r="Y21" s="222"/>
-      <c r="Z21" s="223"/>
-      <c r="AA21" s="220"/>
-      <c r="AB21" s="220"/>
-      <c r="AC21" s="220"/>
-      <c r="AD21" s="220"/>
-      <c r="AE21" s="220"/>
-      <c r="AF21" s="220"/>
-      <c r="AG21" s="220"/>
-      <c r="AH21" s="220"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V21" s="138"/>
+      <c r="W21" s="138"/>
+      <c r="X21" s="138"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="138"/>
+      <c r="AA21" s="138"/>
+      <c r="AB21" s="138"/>
+      <c r="AC21" s="138"/>
+      <c r="AD21" s="138"/>
+      <c r="AE21" s="138"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="139"/>
+    </row>
+    <row r="22" spans="1:34">
       <c r="A22" s="18"/>
       <c r="C22" s="36"/>
       <c r="D22" s="89">
@@ -11519,7 +11489,7 @@
       <c r="H22" s="137"/>
       <c r="I22" s="138"/>
       <c r="J22" s="138"/>
-      <c r="K22" s="138"/>
+      <c r="K22" s="137"/>
       <c r="L22" s="138"/>
       <c r="M22" s="138"/>
       <c r="N22" s="138"/>
@@ -11530,21 +11500,21 @@
       <c r="S22" s="138"/>
       <c r="T22" s="138"/>
       <c r="U22" s="138"/>
-      <c r="V22" s="139"/>
-      <c r="W22" s="221"/>
-      <c r="X22" s="222"/>
-      <c r="Y22" s="222"/>
-      <c r="Z22" s="223"/>
-      <c r="AA22" s="277"/>
-      <c r="AB22" s="277"/>
-      <c r="AC22" s="277"/>
-      <c r="AD22" s="277"/>
-      <c r="AE22" s="277"/>
-      <c r="AF22" s="277"/>
-      <c r="AG22" s="277"/>
-      <c r="AH22" s="277"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V22" s="138"/>
+      <c r="W22" s="138"/>
+      <c r="X22" s="138"/>
+      <c r="Y22" s="138"/>
+      <c r="Z22" s="138"/>
+      <c r="AA22" s="138"/>
+      <c r="AB22" s="138"/>
+      <c r="AC22" s="138"/>
+      <c r="AD22" s="138"/>
+      <c r="AE22" s="138"/>
+      <c r="AF22" s="138"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="139"/>
+    </row>
+    <row r="23" spans="1:34">
       <c r="C23" s="36"/>
       <c r="D23" s="89">
         <v>5</v>
@@ -11555,7 +11525,7 @@
       <c r="H23" s="137"/>
       <c r="I23" s="138"/>
       <c r="J23" s="138"/>
-      <c r="K23" s="138"/>
+      <c r="K23" s="137"/>
       <c r="L23" s="138"/>
       <c r="M23" s="138"/>
       <c r="N23" s="138"/>
@@ -11566,21 +11536,21 @@
       <c r="S23" s="138"/>
       <c r="T23" s="138"/>
       <c r="U23" s="138"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="221"/>
-      <c r="X23" s="222"/>
-      <c r="Y23" s="222"/>
-      <c r="Z23" s="223"/>
-      <c r="AA23" s="220"/>
-      <c r="AB23" s="220"/>
-      <c r="AC23" s="220"/>
-      <c r="AD23" s="220"/>
-      <c r="AE23" s="220"/>
-      <c r="AF23" s="220"/>
-      <c r="AG23" s="220"/>
-      <c r="AH23" s="220"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V23" s="138"/>
+      <c r="W23" s="138"/>
+      <c r="X23" s="138"/>
+      <c r="Y23" s="138"/>
+      <c r="Z23" s="138"/>
+      <c r="AA23" s="138"/>
+      <c r="AB23" s="138"/>
+      <c r="AC23" s="138"/>
+      <c r="AD23" s="138"/>
+      <c r="AE23" s="138"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="139"/>
+    </row>
+    <row r="24" spans="1:34">
       <c r="C24" s="36"/>
       <c r="D24" s="89">
         <v>6</v>
@@ -11591,7 +11561,7 @@
       <c r="H24" s="137"/>
       <c r="I24" s="138"/>
       <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
+      <c r="K24" s="137"/>
       <c r="L24" s="138"/>
       <c r="M24" s="138"/>
       <c r="N24" s="138"/>
@@ -11602,21 +11572,21 @@
       <c r="S24" s="138"/>
       <c r="T24" s="138"/>
       <c r="U24" s="138"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="221"/>
-      <c r="X24" s="222"/>
-      <c r="Y24" s="222"/>
-      <c r="Z24" s="223"/>
-      <c r="AA24" s="220"/>
-      <c r="AB24" s="220"/>
-      <c r="AC24" s="220"/>
-      <c r="AD24" s="220"/>
-      <c r="AE24" s="220"/>
-      <c r="AF24" s="220"/>
-      <c r="AG24" s="220"/>
-      <c r="AH24" s="220"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
+      <c r="V24" s="138"/>
+      <c r="W24" s="138"/>
+      <c r="X24" s="138"/>
+      <c r="Y24" s="138"/>
+      <c r="Z24" s="138"/>
+      <c r="AA24" s="138"/>
+      <c r="AB24" s="138"/>
+      <c r="AC24" s="138"/>
+      <c r="AD24" s="138"/>
+      <c r="AE24" s="138"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="139"/>
+    </row>
+    <row r="25" spans="1:34">
       <c r="C25" s="36"/>
       <c r="D25" s="119"/>
       <c r="E25" s="121"/>
@@ -11650,7 +11620,7 @@
       <c r="AG25" s="123"/>
       <c r="AH25" s="123"/>
     </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:34" ht="11.25" customHeight="1">
       <c r="C27" s="36" t="s">
         <v>34</v>
       </c>
@@ -11686,7 +11656,7 @@
       <c r="AG27" s="86"/>
       <c r="AH27" s="86"/>
     </row>
-    <row r="28" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:34" s="20" customFormat="1">
       <c r="C28" s="36"/>
       <c r="D28" s="86" t="s">
         <v>36</v>
@@ -11722,7 +11692,7 @@
       <c r="AG28" s="86"/>
       <c r="AH28" s="86"/>
     </row>
-    <row r="29" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:34" s="20" customFormat="1">
       <c r="C29" s="36"/>
       <c r="D29" s="86"/>
       <c r="E29" s="86"/>
@@ -11756,10 +11726,10 @@
       <c r="AG29" s="86"/>
       <c r="AH29" s="86"/>
     </row>
-    <row r="30" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:34" s="20" customFormat="1">
       <c r="C30" s="36"/>
       <c r="E30" s="37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -11791,7 +11761,7 @@
       <c r="AG30" s="86"/>
       <c r="AH30" s="38"/>
     </row>
-    <row r="31" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:34" s="20" customFormat="1">
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
@@ -11825,46 +11795,46 @@
       <c r="AG31" s="86"/>
       <c r="AH31" s="38"/>
     </row>
-    <row r="32" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:34" s="20" customFormat="1">
       <c r="C32" s="36"/>
       <c r="D32" s="86"/>
-      <c r="E32" s="226" t="s">
+      <c r="E32" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="226"/>
-      <c r="G32" s="227"/>
-      <c r="H32" s="227"/>
-      <c r="I32" s="227"/>
-      <c r="J32" s="227"/>
-      <c r="K32" s="227"/>
-      <c r="L32" s="227"/>
-      <c r="M32" s="226" t="s">
+      <c r="F32" s="269"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="270"/>
+      <c r="I32" s="270"/>
+      <c r="J32" s="270"/>
+      <c r="K32" s="270"/>
+      <c r="L32" s="270"/>
+      <c r="M32" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="226"/>
-      <c r="O32" s="261"/>
-      <c r="P32" s="262"/>
-      <c r="Q32" s="262"/>
-      <c r="R32" s="262"/>
-      <c r="S32" s="262"/>
-      <c r="T32" s="262"/>
-      <c r="U32" s="262"/>
-      <c r="V32" s="262"/>
-      <c r="W32" s="262"/>
-      <c r="X32" s="262"/>
-      <c r="Y32" s="262"/>
-      <c r="Z32" s="262"/>
-      <c r="AA32" s="262"/>
-      <c r="AB32" s="262"/>
-      <c r="AC32" s="262"/>
-      <c r="AD32" s="262"/>
-      <c r="AE32" s="262"/>
-      <c r="AF32" s="262"/>
-      <c r="AG32" s="262"/>
-      <c r="AH32" s="263"/>
-    </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="N32" s="269"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="217"/>
+      <c r="Q32" s="217"/>
+      <c r="R32" s="217"/>
+      <c r="S32" s="217"/>
+      <c r="T32" s="217"/>
+      <c r="U32" s="217"/>
+      <c r="V32" s="217"/>
+      <c r="W32" s="217"/>
+      <c r="X32" s="217"/>
+      <c r="Y32" s="217"/>
+      <c r="Z32" s="217"/>
+      <c r="AA32" s="217"/>
+      <c r="AB32" s="217"/>
+      <c r="AC32" s="217"/>
+      <c r="AD32" s="217"/>
+      <c r="AE32" s="217"/>
+      <c r="AF32" s="217"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="218"/>
+    </row>
+    <row r="33" spans="1:35" s="20" customFormat="1"/>
+    <row r="35" spans="1:35">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -11901,7 +11871,7 @@
       <c r="AH35" s="18"/>
       <c r="AI35" s="18"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="78" t="s">
@@ -11940,7 +11910,7 @@
       <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="78"/>
@@ -11979,7 +11949,7 @@
       <c r="AH37" s="18"/>
       <c r="AI37" s="18"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -12016,7 +11986,7 @@
       <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
@@ -12053,7 +12023,7 @@
       <c r="AH39" s="18"/>
       <c r="AI39" s="18"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
       <c r="C40" s="41"/>
@@ -12090,7 +12060,7 @@
       <c r="AH40" s="18"/>
       <c r="AI40" s="18"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="93"/>
@@ -12127,7 +12097,7 @@
       <c r="AH41" s="18"/>
       <c r="AI41" s="18"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
       <c r="C42" s="93"/>
@@ -12164,7 +12134,7 @@
       <c r="AH42" s="18"/>
       <c r="AI42" s="18"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
       <c r="C43" s="41"/>
@@ -12201,7 +12171,7 @@
       <c r="AH43" s="18"/>
       <c r="AI43" s="18"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="93"/>
@@ -12238,7 +12208,7 @@
       <c r="AH44" s="18"/>
       <c r="AI44" s="18"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -12275,7 +12245,7 @@
       <c r="AH45" s="18"/>
       <c r="AI45" s="18"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -12312,7 +12282,7 @@
       <c r="AH46" s="18"/>
       <c r="AI46" s="18"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -12349,7 +12319,7 @@
       <c r="AH47" s="18"/>
       <c r="AI47" s="18"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -12386,7 +12356,7 @@
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:35">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -12423,7 +12393,7 @@
       <c r="AH49" s="18"/>
       <c r="AI49" s="18"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:35">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -12460,7 +12430,7 @@
       <c r="AH50" s="18"/>
       <c r="AI50" s="18"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:35">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -12497,7 +12467,7 @@
       <c r="AH51" s="18"/>
       <c r="AI51" s="18"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:35">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -12534,7 +12504,7 @@
       <c r="AH52" s="18"/>
       <c r="AI52" s="18"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:35">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -12571,7 +12541,7 @@
       <c r="AH53" s="18"/>
       <c r="AI53" s="18"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:35">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -12608,7 +12578,7 @@
       <c r="AH54" s="18"/>
       <c r="AI54" s="18"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:35">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -12645,7 +12615,7 @@
       <c r="AH55" s="18"/>
       <c r="AI55" s="18"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:35">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -12682,7 +12652,7 @@
       <c r="AH56" s="18"/>
       <c r="AI56" s="18"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:35">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -12719,7 +12689,7 @@
       <c r="AH57" s="18"/>
       <c r="AI57" s="18"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:35">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -12756,7 +12726,7 @@
       <c r="AH58" s="18"/>
       <c r="AI58" s="18"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:35">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -12793,7 +12763,7 @@
       <c r="AH59" s="18"/>
       <c r="AI59" s="18"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:35">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -12830,7 +12800,7 @@
       <c r="AH60" s="18"/>
       <c r="AI60" s="18"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:35">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -12867,7 +12837,7 @@
       <c r="AH61" s="18"/>
       <c r="AI61" s="18"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:35">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -12904,7 +12874,7 @@
       <c r="AH62" s="18"/>
       <c r="AI62" s="18"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:35">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -12941,7 +12911,7 @@
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:35">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -12978,7 +12948,7 @@
       <c r="AH64" s="18"/>
       <c r="AI64" s="18"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:35">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -13015,7 +12985,7 @@
       <c r="AH65" s="18"/>
       <c r="AI65" s="18"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:35">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -13052,7 +13022,7 @@
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:35">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -13089,7 +13059,7 @@
       <c r="AH67" s="18"/>
       <c r="AI67" s="18"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:35">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -13126,7 +13096,7 @@
       <c r="AH68" s="18"/>
       <c r="AI68" s="18"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:35">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -13163,7 +13133,7 @@
       <c r="AH69" s="18"/>
       <c r="AI69" s="18"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:35">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -13200,7 +13170,7 @@
       <c r="AH70" s="18"/>
       <c r="AI70" s="18"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:35">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -13237,7 +13207,7 @@
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:35">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -13274,7 +13244,7 @@
       <c r="AH72" s="18"/>
       <c r="AI72" s="18"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:35">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -13311,7 +13281,7 @@
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:35">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -13348,7 +13318,7 @@
       <c r="AH74" s="18"/>
       <c r="AI74" s="18"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:35">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -13385,7 +13355,7 @@
       <c r="AH75" s="18"/>
       <c r="AI75" s="18"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:35">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -13422,7 +13392,7 @@
       <c r="AH76" s="18"/>
       <c r="AI76" s="18"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:35">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -13459,7 +13429,7 @@
       <c r="AH77" s="18"/>
       <c r="AI77" s="18"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:35">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -13496,7 +13466,7 @@
       <c r="AH78" s="18"/>
       <c r="AI78" s="18"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:35">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -13533,7 +13503,7 @@
       <c r="AH79" s="18"/>
       <c r="AI79" s="18"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:35">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -13570,7 +13540,7 @@
       <c r="AH80" s="18"/>
       <c r="AI80" s="18"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:35">
       <c r="A81" s="18"/>
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
@@ -13607,7 +13577,7 @@
       <c r="AH81" s="18"/>
       <c r="AI81" s="18"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:35">
       <c r="C84" s="35" t="s">
         <v>32</v>
       </c>
@@ -13641,7 +13611,7 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:35">
       <c r="C85" s="35"/>
       <c r="D85" s="35" t="s">
         <v>37</v>
@@ -13675,7 +13645,7 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:35">
       <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
@@ -13707,10 +13677,10 @@
       <c r="AE86" s="35"/>
       <c r="AF86" s="35"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:35">
       <c r="C87" s="35"/>
       <c r="E87" s="37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -13740,7 +13710,7 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:35">
       <c r="C88" s="35"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37"/>
@@ -13772,45 +13742,45 @@
       <c r="AE88" s="35"/>
       <c r="AF88" s="35"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:35">
       <c r="C89" s="35"/>
       <c r="D89" s="35"/>
-      <c r="E89" s="226" t="s">
+      <c r="E89" s="269" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="226"/>
-      <c r="G89" s="227"/>
-      <c r="H89" s="227"/>
-      <c r="I89" s="227"/>
-      <c r="J89" s="227"/>
-      <c r="K89" s="227"/>
-      <c r="L89" s="227"/>
-      <c r="M89" s="226" t="s">
+      <c r="F89" s="269"/>
+      <c r="G89" s="270"/>
+      <c r="H89" s="270"/>
+      <c r="I89" s="270"/>
+      <c r="J89" s="270"/>
+      <c r="K89" s="270"/>
+      <c r="L89" s="270"/>
+      <c r="M89" s="269" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="226"/>
-      <c r="O89" s="261"/>
-      <c r="P89" s="262"/>
-      <c r="Q89" s="262"/>
-      <c r="R89" s="262"/>
-      <c r="S89" s="262"/>
-      <c r="T89" s="262"/>
-      <c r="U89" s="262"/>
-      <c r="V89" s="262"/>
-      <c r="W89" s="262"/>
-      <c r="X89" s="262"/>
-      <c r="Y89" s="262"/>
-      <c r="Z89" s="262"/>
-      <c r="AA89" s="262"/>
-      <c r="AB89" s="262"/>
-      <c r="AC89" s="262"/>
-      <c r="AD89" s="262"/>
-      <c r="AE89" s="262"/>
-      <c r="AF89" s="262"/>
-      <c r="AG89" s="262"/>
-      <c r="AH89" s="263"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="N89" s="269"/>
+      <c r="O89" s="216"/>
+      <c r="P89" s="217"/>
+      <c r="Q89" s="217"/>
+      <c r="R89" s="217"/>
+      <c r="S89" s="217"/>
+      <c r="T89" s="217"/>
+      <c r="U89" s="217"/>
+      <c r="V89" s="217"/>
+      <c r="W89" s="217"/>
+      <c r="X89" s="217"/>
+      <c r="Y89" s="217"/>
+      <c r="Z89" s="217"/>
+      <c r="AA89" s="217"/>
+      <c r="AB89" s="217"/>
+      <c r="AC89" s="217"/>
+      <c r="AD89" s="217"/>
+      <c r="AE89" s="217"/>
+      <c r="AF89" s="217"/>
+      <c r="AG89" s="217"/>
+      <c r="AH89" s="218"/>
+    </row>
+    <row r="91" spans="1:35">
       <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -13842,7 +13812,7 @@
       <c r="AE91" s="35"/>
       <c r="AF91" s="35"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:35">
       <c r="C92" s="35"/>
       <c r="D92" s="35" t="s">
         <v>38</v>
@@ -13876,7 +13846,7 @@
       <c r="AE92" s="35"/>
       <c r="AF92" s="35"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:35">
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -13908,367 +13878,299 @@
       <c r="AE93" s="35"/>
       <c r="AF93" s="35"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:35">
       <c r="C94" s="35"/>
       <c r="D94" s="35"/>
-      <c r="E94" s="264" t="s">
+      <c r="E94" s="249" t="s">
         <v>39</v>
       </c>
-      <c r="F94" s="267" t="s">
+      <c r="F94" s="219" t="s">
         <v>30</v>
       </c>
-      <c r="G94" s="268"/>
-      <c r="H94" s="268"/>
-      <c r="I94" s="269"/>
-      <c r="J94" s="267" t="s">
+      <c r="G94" s="220"/>
+      <c r="H94" s="220"/>
+      <c r="I94" s="221"/>
+      <c r="J94" s="219" t="s">
         <v>15</v>
       </c>
-      <c r="K94" s="268"/>
-      <c r="L94" s="268"/>
-      <c r="M94" s="269"/>
-      <c r="N94" s="266" t="s">
+      <c r="K94" s="220"/>
+      <c r="L94" s="220"/>
+      <c r="M94" s="221"/>
+      <c r="N94" s="233" t="s">
         <v>13</v>
       </c>
-      <c r="O94" s="266"/>
-      <c r="P94" s="266"/>
-      <c r="Q94" s="266"/>
-      <c r="R94" s="266"/>
-      <c r="S94" s="266"/>
-      <c r="T94" s="266"/>
-      <c r="U94" s="266"/>
-      <c r="V94" s="266"/>
-      <c r="W94" s="267" t="s">
+      <c r="O94" s="233"/>
+      <c r="P94" s="233"/>
+      <c r="Q94" s="233"/>
+      <c r="R94" s="233"/>
+      <c r="S94" s="233"/>
+      <c r="T94" s="233"/>
+      <c r="U94" s="233"/>
+      <c r="V94" s="233"/>
+      <c r="W94" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="X94" s="268"/>
-      <c r="Y94" s="268"/>
-      <c r="Z94" s="268"/>
-      <c r="AA94" s="268"/>
-      <c r="AB94" s="268"/>
-      <c r="AC94" s="269"/>
-      <c r="AD94" s="267" t="s">
+      <c r="X94" s="220"/>
+      <c r="Y94" s="220"/>
+      <c r="Z94" s="220"/>
+      <c r="AA94" s="220"/>
+      <c r="AB94" s="220"/>
+      <c r="AC94" s="221"/>
+      <c r="AD94" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="AE94" s="268"/>
-      <c r="AF94" s="268"/>
-      <c r="AG94" s="268"/>
-      <c r="AH94" s="269"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="AE94" s="220"/>
+      <c r="AF94" s="220"/>
+      <c r="AG94" s="220"/>
+      <c r="AH94" s="221"/>
+    </row>
+    <row r="95" spans="1:35">
       <c r="C95" s="35"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="265"/>
-      <c r="F95" s="270"/>
-      <c r="G95" s="271"/>
-      <c r="H95" s="271"/>
-      <c r="I95" s="272"/>
-      <c r="J95" s="270"/>
-      <c r="K95" s="271"/>
-      <c r="L95" s="271"/>
-      <c r="M95" s="272"/>
-      <c r="N95" s="266" t="s">
+      <c r="E95" s="250"/>
+      <c r="F95" s="222"/>
+      <c r="G95" s="223"/>
+      <c r="H95" s="223"/>
+      <c r="I95" s="224"/>
+      <c r="J95" s="222"/>
+      <c r="K95" s="223"/>
+      <c r="L95" s="223"/>
+      <c r="M95" s="224"/>
+      <c r="N95" s="233" t="s">
         <v>0</v>
       </c>
-      <c r="O95" s="266"/>
-      <c r="P95" s="266"/>
-      <c r="Q95" s="266"/>
-      <c r="R95" s="266"/>
-      <c r="S95" s="273" t="s">
+      <c r="O95" s="233"/>
+      <c r="P95" s="233"/>
+      <c r="Q95" s="233"/>
+      <c r="R95" s="233"/>
+      <c r="S95" s="234" t="s">
         <v>12</v>
       </c>
-      <c r="T95" s="273"/>
-      <c r="U95" s="273"/>
-      <c r="V95" s="273"/>
-      <c r="W95" s="270"/>
-      <c r="X95" s="271"/>
-      <c r="Y95" s="271"/>
-      <c r="Z95" s="271"/>
-      <c r="AA95" s="271"/>
-      <c r="AB95" s="271"/>
-      <c r="AC95" s="272"/>
-      <c r="AD95" s="270"/>
-      <c r="AE95" s="271"/>
-      <c r="AF95" s="271"/>
-      <c r="AG95" s="271"/>
-      <c r="AH95" s="272"/>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="T95" s="234"/>
+      <c r="U95" s="234"/>
+      <c r="V95" s="234"/>
+      <c r="W95" s="222"/>
+      <c r="X95" s="223"/>
+      <c r="Y95" s="223"/>
+      <c r="Z95" s="223"/>
+      <c r="AA95" s="223"/>
+      <c r="AB95" s="223"/>
+      <c r="AC95" s="224"/>
+      <c r="AD95" s="222"/>
+      <c r="AE95" s="223"/>
+      <c r="AF95" s="223"/>
+      <c r="AG95" s="223"/>
+      <c r="AH95" s="224"/>
+    </row>
+    <row r="96" spans="1:35">
       <c r="C96" s="35"/>
       <c r="D96" s="37"/>
       <c r="E96" s="39">
         <v>1</v>
       </c>
-      <c r="F96" s="274"/>
-      <c r="G96" s="275"/>
-      <c r="H96" s="275"/>
-      <c r="I96" s="276"/>
-      <c r="J96" s="274"/>
-      <c r="K96" s="275"/>
-      <c r="L96" s="275"/>
-      <c r="M96" s="276"/>
-      <c r="N96" s="224"/>
-      <c r="O96" s="225"/>
-      <c r="P96" s="225"/>
-      <c r="Q96" s="225"/>
-      <c r="R96" s="225"/>
-      <c r="S96" s="220"/>
-      <c r="T96" s="220"/>
-      <c r="U96" s="220"/>
-      <c r="V96" s="220"/>
-      <c r="W96" s="221"/>
-      <c r="X96" s="222"/>
-      <c r="Y96" s="222"/>
-      <c r="Z96" s="222"/>
-      <c r="AA96" s="222"/>
-      <c r="AB96" s="222"/>
-      <c r="AC96" s="223"/>
-      <c r="AD96" s="221"/>
-      <c r="AE96" s="222"/>
-      <c r="AF96" s="222"/>
-      <c r="AG96" s="222"/>
-      <c r="AH96" s="223"/>
-    </row>
-    <row r="97" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F96" s="225"/>
+      <c r="G96" s="226"/>
+      <c r="H96" s="226"/>
+      <c r="I96" s="227"/>
+      <c r="J96" s="225"/>
+      <c r="K96" s="226"/>
+      <c r="L96" s="226"/>
+      <c r="M96" s="227"/>
+      <c r="N96" s="228"/>
+      <c r="O96" s="229"/>
+      <c r="P96" s="229"/>
+      <c r="Q96" s="229"/>
+      <c r="R96" s="229"/>
+      <c r="S96" s="215"/>
+      <c r="T96" s="215"/>
+      <c r="U96" s="215"/>
+      <c r="V96" s="215"/>
+      <c r="W96" s="230"/>
+      <c r="X96" s="231"/>
+      <c r="Y96" s="231"/>
+      <c r="Z96" s="231"/>
+      <c r="AA96" s="231"/>
+      <c r="AB96" s="231"/>
+      <c r="AC96" s="232"/>
+      <c r="AD96" s="230"/>
+      <c r="AE96" s="231"/>
+      <c r="AF96" s="231"/>
+      <c r="AG96" s="231"/>
+      <c r="AH96" s="232"/>
+    </row>
+    <row r="97" spans="3:34">
       <c r="C97" s="35"/>
       <c r="D97" s="37"/>
       <c r="E97" s="39">
         <v>2</v>
       </c>
-      <c r="F97" s="274"/>
-      <c r="G97" s="275"/>
-      <c r="H97" s="275"/>
-      <c r="I97" s="276"/>
-      <c r="J97" s="274"/>
-      <c r="K97" s="275"/>
-      <c r="L97" s="275"/>
-      <c r="M97" s="276"/>
-      <c r="N97" s="224"/>
-      <c r="O97" s="225"/>
-      <c r="P97" s="225"/>
-      <c r="Q97" s="225"/>
-      <c r="R97" s="225"/>
-      <c r="S97" s="220"/>
-      <c r="T97" s="220"/>
-      <c r="U97" s="220"/>
-      <c r="V97" s="220"/>
-      <c r="W97" s="221"/>
-      <c r="X97" s="222"/>
-      <c r="Y97" s="222"/>
-      <c r="Z97" s="222"/>
-      <c r="AA97" s="222"/>
-      <c r="AB97" s="222"/>
-      <c r="AC97" s="223"/>
-      <c r="AD97" s="221"/>
-      <c r="AE97" s="222"/>
-      <c r="AF97" s="222"/>
-      <c r="AG97" s="222"/>
-      <c r="AH97" s="223"/>
-    </row>
-    <row r="98" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F97" s="225"/>
+      <c r="G97" s="226"/>
+      <c r="H97" s="226"/>
+      <c r="I97" s="227"/>
+      <c r="J97" s="225"/>
+      <c r="K97" s="226"/>
+      <c r="L97" s="226"/>
+      <c r="M97" s="227"/>
+      <c r="N97" s="228"/>
+      <c r="O97" s="229"/>
+      <c r="P97" s="229"/>
+      <c r="Q97" s="229"/>
+      <c r="R97" s="229"/>
+      <c r="S97" s="215"/>
+      <c r="T97" s="215"/>
+      <c r="U97" s="215"/>
+      <c r="V97" s="215"/>
+      <c r="W97" s="230"/>
+      <c r="X97" s="231"/>
+      <c r="Y97" s="231"/>
+      <c r="Z97" s="231"/>
+      <c r="AA97" s="231"/>
+      <c r="AB97" s="231"/>
+      <c r="AC97" s="232"/>
+      <c r="AD97" s="230"/>
+      <c r="AE97" s="231"/>
+      <c r="AF97" s="231"/>
+      <c r="AG97" s="231"/>
+      <c r="AH97" s="232"/>
+    </row>
+    <row r="98" spans="3:34">
       <c r="C98" s="35"/>
       <c r="D98" s="37"/>
       <c r="E98" s="39">
         <v>3</v>
       </c>
-      <c r="F98" s="274"/>
-      <c r="G98" s="275"/>
-      <c r="H98" s="275"/>
-      <c r="I98" s="276"/>
-      <c r="J98" s="274"/>
-      <c r="K98" s="275"/>
-      <c r="L98" s="275"/>
-      <c r="M98" s="276"/>
-      <c r="N98" s="224"/>
-      <c r="O98" s="225"/>
-      <c r="P98" s="225"/>
-      <c r="Q98" s="225"/>
-      <c r="R98" s="225"/>
-      <c r="S98" s="220"/>
-      <c r="T98" s="220"/>
-      <c r="U98" s="220"/>
-      <c r="V98" s="220"/>
-      <c r="W98" s="221"/>
-      <c r="X98" s="222"/>
-      <c r="Y98" s="222"/>
-      <c r="Z98" s="222"/>
-      <c r="AA98" s="222"/>
-      <c r="AB98" s="222"/>
-      <c r="AC98" s="223"/>
-      <c r="AD98" s="221"/>
-      <c r="AE98" s="222"/>
-      <c r="AF98" s="222"/>
-      <c r="AG98" s="222"/>
-      <c r="AH98" s="223"/>
-    </row>
-    <row r="99" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F98" s="225"/>
+      <c r="G98" s="226"/>
+      <c r="H98" s="226"/>
+      <c r="I98" s="227"/>
+      <c r="J98" s="225"/>
+      <c r="K98" s="226"/>
+      <c r="L98" s="226"/>
+      <c r="M98" s="227"/>
+      <c r="N98" s="228"/>
+      <c r="O98" s="229"/>
+      <c r="P98" s="229"/>
+      <c r="Q98" s="229"/>
+      <c r="R98" s="229"/>
+      <c r="S98" s="215"/>
+      <c r="T98" s="215"/>
+      <c r="U98" s="215"/>
+      <c r="V98" s="215"/>
+      <c r="W98" s="230"/>
+      <c r="X98" s="231"/>
+      <c r="Y98" s="231"/>
+      <c r="Z98" s="231"/>
+      <c r="AA98" s="231"/>
+      <c r="AB98" s="231"/>
+      <c r="AC98" s="232"/>
+      <c r="AD98" s="230"/>
+      <c r="AE98" s="231"/>
+      <c r="AF98" s="231"/>
+      <c r="AG98" s="231"/>
+      <c r="AH98" s="232"/>
+    </row>
+    <row r="99" spans="3:34">
       <c r="C99" s="35"/>
       <c r="D99" s="37"/>
       <c r="E99" s="39">
         <v>4</v>
       </c>
-      <c r="F99" s="274"/>
-      <c r="G99" s="275"/>
-      <c r="H99" s="275"/>
-      <c r="I99" s="276"/>
-      <c r="J99" s="274"/>
-      <c r="K99" s="275"/>
-      <c r="L99" s="275"/>
-      <c r="M99" s="276"/>
-      <c r="N99" s="224"/>
-      <c r="O99" s="225"/>
-      <c r="P99" s="225"/>
-      <c r="Q99" s="225"/>
-      <c r="R99" s="225"/>
-      <c r="S99" s="220"/>
-      <c r="T99" s="220"/>
-      <c r="U99" s="220"/>
-      <c r="V99" s="220"/>
-      <c r="W99" s="221"/>
-      <c r="X99" s="222"/>
-      <c r="Y99" s="222"/>
-      <c r="Z99" s="222"/>
-      <c r="AA99" s="222"/>
-      <c r="AB99" s="222"/>
-      <c r="AC99" s="223"/>
-      <c r="AD99" s="221"/>
-      <c r="AE99" s="222"/>
-      <c r="AF99" s="222"/>
-      <c r="AG99" s="222"/>
-      <c r="AH99" s="223"/>
-    </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="F99" s="225"/>
+      <c r="G99" s="226"/>
+      <c r="H99" s="226"/>
+      <c r="I99" s="227"/>
+      <c r="J99" s="225"/>
+      <c r="K99" s="226"/>
+      <c r="L99" s="226"/>
+      <c r="M99" s="227"/>
+      <c r="N99" s="228"/>
+      <c r="O99" s="229"/>
+      <c r="P99" s="229"/>
+      <c r="Q99" s="229"/>
+      <c r="R99" s="229"/>
+      <c r="S99" s="215"/>
+      <c r="T99" s="215"/>
+      <c r="U99" s="215"/>
+      <c r="V99" s="215"/>
+      <c r="W99" s="230"/>
+      <c r="X99" s="231"/>
+      <c r="Y99" s="231"/>
+      <c r="Z99" s="231"/>
+      <c r="AA99" s="231"/>
+      <c r="AB99" s="231"/>
+      <c r="AC99" s="232"/>
+      <c r="AD99" s="230"/>
+      <c r="AE99" s="231"/>
+      <c r="AF99" s="231"/>
+      <c r="AG99" s="231"/>
+      <c r="AH99" s="232"/>
+    </row>
+    <row r="100" spans="3:34">
       <c r="C100" s="35"/>
       <c r="D100" s="37"/>
       <c r="E100" s="39">
         <v>5</v>
       </c>
-      <c r="F100" s="274"/>
-      <c r="G100" s="275"/>
-      <c r="H100" s="275"/>
-      <c r="I100" s="276"/>
-      <c r="J100" s="274"/>
-      <c r="K100" s="275"/>
-      <c r="L100" s="275"/>
-      <c r="M100" s="276"/>
-      <c r="N100" s="224"/>
-      <c r="O100" s="225"/>
-      <c r="P100" s="225"/>
-      <c r="Q100" s="225"/>
-      <c r="R100" s="225"/>
-      <c r="S100" s="220"/>
-      <c r="T100" s="220"/>
-      <c r="U100" s="220"/>
-      <c r="V100" s="220"/>
-      <c r="W100" s="221"/>
-      <c r="X100" s="222"/>
-      <c r="Y100" s="222"/>
-      <c r="Z100" s="222"/>
-      <c r="AA100" s="222"/>
-      <c r="AB100" s="222"/>
-      <c r="AC100" s="223"/>
-      <c r="AD100" s="221"/>
-      <c r="AE100" s="222"/>
-      <c r="AF100" s="222"/>
-      <c r="AG100" s="222"/>
-      <c r="AH100" s="223"/>
+      <c r="F100" s="225"/>
+      <c r="G100" s="226"/>
+      <c r="H100" s="226"/>
+      <c r="I100" s="227"/>
+      <c r="J100" s="225"/>
+      <c r="K100" s="226"/>
+      <c r="L100" s="226"/>
+      <c r="M100" s="227"/>
+      <c r="N100" s="228"/>
+      <c r="O100" s="229"/>
+      <c r="P100" s="229"/>
+      <c r="Q100" s="229"/>
+      <c r="R100" s="229"/>
+      <c r="S100" s="215"/>
+      <c r="T100" s="215"/>
+      <c r="U100" s="215"/>
+      <c r="V100" s="215"/>
+      <c r="W100" s="230"/>
+      <c r="X100" s="231"/>
+      <c r="Y100" s="231"/>
+      <c r="Z100" s="231"/>
+      <c r="AA100" s="231"/>
+      <c r="AB100" s="231"/>
+      <c r="AC100" s="232"/>
+      <c r="AD100" s="230"/>
+      <c r="AE100" s="231"/>
+      <c r="AF100" s="231"/>
+      <c r="AG100" s="231"/>
+      <c r="AH100" s="232"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA17:AH18"/>
-    <mergeCell ref="O89:AH89"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="J94:M95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="AD94:AH95"/>
-    <mergeCell ref="N98:R98"/>
-    <mergeCell ref="S98:V98"/>
-    <mergeCell ref="W98:AC98"/>
-    <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="W94:AC95"/>
-    <mergeCell ref="N95:R95"/>
-    <mergeCell ref="S95:V95"/>
-    <mergeCell ref="N100:R100"/>
+  <mergeCells count="104">
     <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="W24:Z24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K17:AH18"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="K20:AH20"/>
+    <mergeCell ref="K21:AH21"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="K24:AH24"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:V18"/>
-    <mergeCell ref="W17:Z18"/>
+    <mergeCell ref="H17:J18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="H23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
-    <mergeCell ref="AD96:AH96"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="H19:J19"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="T12:U12"/>
     <mergeCell ref="V12:AH12"/>
     <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
     <mergeCell ref="S100:V100"/>
     <mergeCell ref="W100:AC100"/>
     <mergeCell ref="AD100:AH100"/>
@@ -14285,6 +14187,67 @@
     <mergeCell ref="N96:R96"/>
     <mergeCell ref="S96:V96"/>
     <mergeCell ref="W96:AC96"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="N100:R100"/>
+    <mergeCell ref="O32:AH32"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="N94:V94"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="N98:R98"/>
+    <mergeCell ref="S98:V98"/>
+    <mergeCell ref="W98:AC98"/>
+    <mergeCell ref="AD98:AH98"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="AD97:AH97"/>
+    <mergeCell ref="W94:AC95"/>
+    <mergeCell ref="N95:R95"/>
+    <mergeCell ref="S95:V95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="F100:I100"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="J100:M100"/>
+    <mergeCell ref="O89:AH89"/>
+    <mergeCell ref="F94:I95"/>
+    <mergeCell ref="J94:M95"/>
+    <mergeCell ref="AD94:AH95"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">
@@ -14321,44 +14284,44 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="95" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="96" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="97" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" s="97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="97" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="97" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="97" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="97" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="97" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="97" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. メッセージ取引概要'!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.  取引ID(取引名)'!$A$1:$AI$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.  取引ID(取引名)'!$A$1:$AI$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -37,7 +37,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E36" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,23 +552,20 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
+    <t>終了コード</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
     <t>No.</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>処理結果</t>
+    <t>障害コード</t>
     <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>終了コード</t>
-    <rPh sb="0" eb="2">
-      <t>シュウリョウ</t>
+      <t>ショウガイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -581,7 +578,7 @@
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1308,192 +1305,195 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1572,9 +1572,87 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1584,6 +1662,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1602,6 +1689,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1611,134 +1701,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4703,43 +4700,43 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -4750,7 +4747,7 @@
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -4759,19 +4756,19 @@
       <c r="K24" s="25"/>
       <c r="L24" s="25"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="127" t="str">
+      <c r="I25" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="25"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -4780,7 +4777,7 @@
       <c r="K26" s="25"/>
       <c r="L26" s="25"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -4789,7 +4786,7 @@
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -4798,7 +4795,7 @@
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="5"/>
       <c r="H29" s="5"/>
       <c r="I29" s="25"/>
@@ -4806,7 +4803,7 @@
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="5"/>
       <c r="G30" s="12"/>
       <c r="H30" s="5"/>
@@ -4815,7 +4812,7 @@
       <c r="K30" s="25"/>
       <c r="L30" s="25"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="5"/>
       <c r="G31" s="12"/>
       <c r="H31" s="5"/>
@@ -4824,7 +4821,7 @@
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="5"/>
       <c r="G32" s="12"/>
       <c r="H32" s="5"/>
@@ -4835,7 +4832,7 @@
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="25"/>
@@ -4847,7 +4844,7 @@
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="5"/>
       <c r="H34" s="5"/>
       <c r="I34" s="25"/>
@@ -4864,515 +4861,515 @@
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="7"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="32"/>
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="100"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="100"/>
       <c r="R36" s="32"/>
       <c r="S36" s="98"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="101"/>
       <c r="P37" s="9"/>
       <c r="Q37" s="101"/>
       <c r="R37" s="9"/>
       <c r="S37" s="101"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="9"/>
       <c r="P38" s="9"/>
       <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
       <c r="S38" s="9"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="9"/>
       <c r="P39" s="9"/>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
       <c r="S39" s="9"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="I25:K25"/>
@@ -5397,162 +5394,162 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="143" t="s">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="183" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
       <c r="AM1" s="9"/>
       <c r="AN1" s="10"/>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="143" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="183" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
       <c r="AM2" s="9"/>
       <c r="AN2" s="9"/>
     </row>
-    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+    <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
       <c r="AM3" s="9"/>
       <c r="AN3" s="9"/>
     </row>
-    <row r="4" spans="1:40">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -5594,7 +5591,7 @@
       <c r="AM4" s="17"/>
       <c r="AN4" s="17"/>
     </row>
-    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="22" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -5638,7 +5635,7 @@
       <c r="AM5" s="13"/>
       <c r="AN5" s="13"/>
     </row>
-    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -5680,1155 +5677,1155 @@
       <c r="AM6" s="13"/>
       <c r="AN6" s="13"/>
     </row>
-    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="173" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="179" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="155" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="173" t="s">
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="173" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="174"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="148"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="33"/>
       <c r="AM7" s="33"/>
       <c r="AN7" s="33"/>
     </row>
-    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1">
+    <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="125"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
-      <c r="AI8" s="182"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
       <c r="AM8" s="33"/>
       <c r="AN8" s="33"/>
     </row>
-    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="33"/>
       <c r="AL9" s="33"/>
       <c r="AM9" s="33"/>
       <c r="AN9" s="33"/>
     </row>
-    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="142"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
       <c r="AM10" s="33"/>
       <c r="AN10" s="33"/>
     </row>
-    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="142"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
       <c r="AM11" s="33"/>
       <c r="AN11" s="33"/>
     </row>
-    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" s="33"/>
       <c r="AM12" s="33"/>
       <c r="AN12" s="33"/>
     </row>
-    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
       <c r="AM13" s="33"/>
       <c r="AN13" s="33"/>
     </row>
-    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
       <c r="AM14" s="33"/>
       <c r="AN14" s="33"/>
     </row>
-    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="33"/>
       <c r="AM15" s="33"/>
       <c r="AN15" s="33"/>
     </row>
-    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="142"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
       <c r="AM16" s="33"/>
       <c r="AN16" s="33"/>
     </row>
-    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="138"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
       <c r="AM17" s="33"/>
       <c r="AN17" s="33"/>
     </row>
-    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="138"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="142"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
       <c r="AM18" s="33"/>
       <c r="AN18" s="33"/>
     </row>
-    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="126"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="142"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="33"/>
       <c r="AM19" s="33"/>
       <c r="AN19" s="33"/>
     </row>
-    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="126"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="142"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="33"/>
       <c r="AM20" s="33"/>
       <c r="AN20" s="33"/>
     </row>
-    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="126"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="142"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
       <c r="AM21" s="33"/>
       <c r="AN21" s="33"/>
     </row>
-    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="126"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="142"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
       <c r="AM22" s="33"/>
       <c r="AN22" s="33"/>
     </row>
-    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="126"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="142"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
       <c r="AJ23" s="33"/>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
       <c r="AM23" s="33"/>
       <c r="AN23" s="33"/>
     </row>
-    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="126"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
       <c r="AJ24" s="33"/>
       <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
       <c r="AM24" s="33"/>
       <c r="AN24" s="33"/>
     </row>
-    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="126"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="33"/>
       <c r="AK25" s="33"/>
       <c r="AL25" s="33"/>
       <c r="AM25" s="33"/>
       <c r="AN25" s="33"/>
     </row>
-    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="126"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
       <c r="AJ26" s="33"/>
       <c r="AK26" s="33"/>
       <c r="AL26" s="33"/>
       <c r="AM26" s="33"/>
       <c r="AN26" s="33"/>
     </row>
-    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="126"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
       <c r="AJ27" s="33"/>
       <c r="AK27" s="33"/>
       <c r="AL27" s="33"/>
       <c r="AM27" s="33"/>
       <c r="AN27" s="33"/>
     </row>
-    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="126"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="142"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
       <c r="AJ28" s="33"/>
       <c r="AK28" s="33"/>
       <c r="AL28" s="33"/>
       <c r="AM28" s="33"/>
       <c r="AN28" s="33"/>
     </row>
-    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="126"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="142"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
       <c r="AJ29" s="33"/>
       <c r="AK29" s="33"/>
       <c r="AL29" s="33"/>
       <c r="AM29" s="33"/>
       <c r="AN29" s="33"/>
     </row>
-    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="126"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="142"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
       <c r="AJ30" s="33"/>
       <c r="AK30" s="33"/>
       <c r="AL30" s="33"/>
       <c r="AM30" s="33"/>
       <c r="AN30" s="33"/>
     </row>
-    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="126"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="142"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
       <c r="AJ31" s="33"/>
       <c r="AK31" s="33"/>
       <c r="AL31" s="33"/>
       <c r="AM31" s="33"/>
       <c r="AN31" s="33"/>
     </row>
-    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="126"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="142"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
       <c r="AJ32" s="33"/>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
       <c r="AM32" s="33"/>
       <c r="AN32" s="33"/>
     </row>
-    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="126"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="142"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
       <c r="AJ33" s="33"/>
       <c r="AK33" s="33"/>
       <c r="AL33" s="33"/>
       <c r="AM33" s="33"/>
       <c r="AN33" s="33"/>
     </row>
-    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -6870,7 +6867,7 @@
       <c r="AM34" s="33"/>
       <c r="AN34" s="33"/>
     </row>
-    <row r="35" spans="1:40">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -6912,7 +6909,7 @@
       <c r="AM35" s="17"/>
       <c r="AN35" s="17"/>
     </row>
-    <row r="36" spans="1:40">
+    <row r="36" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -6954,7 +6951,7 @@
       <c r="AM36" s="17"/>
       <c r="AN36" s="17"/>
     </row>
-    <row r="37" spans="1:40">
+    <row r="37" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -6996,7 +6993,7 @@
       <c r="AM37" s="17"/>
       <c r="AN37" s="17"/>
     </row>
-    <row r="38" spans="1:40">
+    <row r="38" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -7038,7 +7035,7 @@
       <c r="AM38" s="17"/>
       <c r="AN38" s="17"/>
     </row>
-    <row r="39" spans="1:40">
+    <row r="39" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -7080,7 +7077,7 @@
       <c r="AM39" s="17"/>
       <c r="AN39" s="17"/>
     </row>
-    <row r="40" spans="1:40">
+    <row r="40" spans="1:40" x14ac:dyDescent="0.15">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -7124,6 +7121,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -7148,161 +7300,6 @@
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -7323,7 +7320,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="44" customWidth="1"/>
@@ -7458,160 +7455,160 @@
     <col min="16163" max="16384" width="4.83203125" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
-    </row>
-    <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
+    </row>
+    <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
-    </row>
-    <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
+    </row>
+    <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
-    </row>
-    <row r="4" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
+    </row>
+    <row r="4" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71"/>
       <c r="B4" s="71"/>
       <c r="C4" s="71"/>
@@ -7648,7 +7645,7 @@
       <c r="AH4" s="71"/>
       <c r="AI4" s="71"/>
     </row>
-    <row r="5" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="71"/>
       <c r="B5" s="71"/>
       <c r="C5" s="71"/>
@@ -7687,7 +7684,7 @@
       <c r="AH5" s="71"/>
       <c r="AI5" s="71"/>
     </row>
-    <row r="6" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="71"/>
       <c r="B6" s="71"/>
       <c r="C6" s="71"/>
@@ -7724,7 +7721,7 @@
       <c r="AH6" s="71"/>
       <c r="AI6" s="71"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="41" t="s">
         <v>25</v>
@@ -7763,7 +7760,7 @@
       <c r="AH7" s="74"/>
       <c r="AI7" s="73"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18"/>
       <c r="B8" s="41"/>
       <c r="C8" s="41" t="s">
@@ -7802,7 +7799,7 @@
       <c r="AH8" s="80"/>
       <c r="AI8" s="73"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="69"/>
       <c r="C9" s="41" t="s">
@@ -7841,7 +7838,7 @@
       <c r="AH9" s="79"/>
       <c r="AI9" s="18"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="18"/>
       <c r="B10" s="69"/>
       <c r="C10" s="69"/>
@@ -7878,7 +7875,7 @@
       <c r="AH10" s="74"/>
       <c r="AI10" s="73"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
         <v>67</v>
@@ -7917,7 +7914,7 @@
       <c r="AH11" s="74"/>
       <c r="AI11" s="73"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="18"/>
       <c r="B12" s="69"/>
       <c r="C12" s="37" t="s">
@@ -7956,7 +7953,7 @@
       <c r="AH12" s="74"/>
       <c r="AI12" s="73"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="69"/>
       <c r="C13" s="78" t="s">
@@ -7990,7 +7987,7 @@
       <c r="AH13" s="74"/>
       <c r="AI13" s="73"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="73"/>
       <c r="C14" s="37" t="s">
@@ -8029,7 +8026,7 @@
       <c r="AH14" s="74"/>
       <c r="AI14" s="73"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="37"/>
       <c r="C15" s="78" t="s">
@@ -8068,7 +8065,7 @@
       <c r="AH15" s="74"/>
       <c r="AI15" s="73"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37" t="s">
@@ -8103,7 +8100,7 @@
       <c r="AH16" s="74"/>
       <c r="AI16" s="73"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="71"/>
       <c r="C17" s="37"/>
@@ -8140,7 +8137,7 @@
       <c r="AH17" s="74"/>
       <c r="AI17" s="73"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="71"/>
       <c r="C18" s="18"/>
@@ -8177,7 +8174,7 @@
       <c r="AH18" s="74"/>
       <c r="AI18" s="73"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="71"/>
       <c r="C19" s="18"/>
@@ -8214,7 +8211,7 @@
       <c r="AH19" s="74"/>
       <c r="AI19" s="73"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="71"/>
       <c r="C20" s="18"/>
@@ -8251,7 +8248,7 @@
       <c r="AH20" s="74"/>
       <c r="AI20" s="73"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="71"/>
       <c r="C21" s="18"/>
@@ -8288,7 +8285,7 @@
       <c r="AH21" s="74"/>
       <c r="AI21" s="73"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="71"/>
       <c r="C22" s="18"/>
@@ -8325,7 +8322,7 @@
       <c r="AH22" s="74"/>
       <c r="AI22" s="73"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="77"/>
       <c r="C23" s="69"/>
@@ -8362,7 +8359,7 @@
       <c r="AH23" s="74"/>
       <c r="AI23" s="73"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="18"/>
       <c r="B24" s="71"/>
       <c r="C24" s="18"/>
@@ -8399,7 +8396,7 @@
       <c r="AH24" s="74"/>
       <c r="AI24" s="73"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="18"/>
       <c r="B25" s="71"/>
       <c r="C25" s="18"/>
@@ -8436,7 +8433,7 @@
       <c r="AH25" s="74"/>
       <c r="AI25" s="73"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="18"/>
       <c r="B26" s="71"/>
       <c r="C26" s="18"/>
@@ -8473,7 +8470,7 @@
       <c r="AH26" s="74"/>
       <c r="AI26" s="73"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="18"/>
       <c r="B27" s="71"/>
       <c r="C27" s="18"/>
@@ -8510,7 +8507,7 @@
       <c r="AH27" s="74"/>
       <c r="AI27" s="73"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="18"/>
       <c r="B28" s="71"/>
       <c r="C28" s="18"/>
@@ -8547,7 +8544,7 @@
       <c r="AH28" s="74"/>
       <c r="AI28" s="73"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="18"/>
       <c r="B29" s="71"/>
       <c r="C29" s="18"/>
@@ -8584,7 +8581,7 @@
       <c r="AH29" s="74"/>
       <c r="AI29" s="73"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="57"/>
       <c r="B30" s="71"/>
       <c r="C30" s="71"/>
@@ -8621,7 +8618,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="59"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="57"/>
       <c r="B31" s="71"/>
       <c r="C31" s="72"/>
@@ -8658,7 +8655,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="59"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="57"/>
       <c r="B32" s="61"/>
       <c r="C32" s="18"/>
@@ -8695,7 +8692,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="59"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="57"/>
       <c r="B33" s="61"/>
       <c r="C33" s="18"/>
@@ -8732,7 +8729,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="59"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="57"/>
       <c r="B34" s="61"/>
       <c r="C34" s="18"/>
@@ -8769,7 +8766,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="59"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="57"/>
       <c r="B35" s="61"/>
       <c r="C35" s="18"/>
@@ -8806,7 +8803,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="59"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="57"/>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
@@ -8843,7 +8840,7 @@
       <c r="AH36" s="58"/>
       <c r="AI36" s="57"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="45"/>
       <c r="E37" s="45"/>
       <c r="F37" s="45"/>
@@ -8875,7 +8872,7 @@
       <c r="AH37" s="53"/>
       <c r="AI37" s="48"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="48"/>
       <c r="T38" s="48"/>
       <c r="U38" s="52"/>
@@ -8894,7 +8891,7 @@
       <c r="AH38" s="49"/>
       <c r="AI38" s="48"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="46"/>
       <c r="S39" s="48"/>
       <c r="T39" s="52"/>
@@ -8914,7 +8911,7 @@
       <c r="AH39" s="49"/>
       <c r="AI39" s="48"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="48"/>
       <c r="T40" s="48"/>
       <c r="U40" s="48"/>
@@ -8933,7 +8930,7 @@
       <c r="AH40" s="49"/>
       <c r="AI40" s="48"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="45"/>
       <c r="K41" s="45"/>
       <c r="L41" s="45"/>
@@ -8947,37 +8944,37 @@
       <c r="AH41" s="49"/>
       <c r="AI41" s="48"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="48"/>
       <c r="AF42" s="50"/>
       <c r="AG42" s="51"/>
       <c r="AH42" s="49"/>
       <c r="AI42" s="48"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="48"/>
       <c r="AF43" s="50"/>
       <c r="AG43" s="50"/>
       <c r="AH43" s="49"/>
       <c r="AI43" s="48"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="45"/>
       <c r="AF44" s="47"/>
       <c r="AG44" s="47"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="45"/>
       <c r="AG45" s="47"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="47"/>
       <c r="AG46" s="47"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="47"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="45"/>
       <c r="T48" s="45"/>
       <c r="V48" s="45"/>
@@ -8990,7 +8987,7 @@
       <c r="AC48" s="45"/>
       <c r="AD48" s="45"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
       <c r="T49" s="45"/>
@@ -9005,10 +9002,10 @@
       <c r="AD49" s="45"/>
       <c r="AG49" s="47"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="45"/>
     </row>
-    <row r="51" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -9041,7 +9038,7 @@
       <c r="AD51" s="43"/>
       <c r="AH51" s="46"/>
     </row>
-    <row r="52" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -9076,6 +9073,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9085,14 +9090,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -9113,166 +9110,166 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
-    </row>
-    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
+    </row>
+    <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
-    </row>
-    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
+    </row>
+    <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>25</v>
       </c>
@@ -9309,7 +9306,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1">
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
         <v>26</v>
@@ -9346,7 +9343,7 @@
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
     </row>
-    <row r="7" spans="1:35" ht="12" customHeight="1">
+    <row r="7" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -9381,86 +9378,86 @@
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
     </row>
-    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>
-      <c r="D8" s="212" t="s">
+      <c r="D8" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="210"/>
-      <c r="Q8" s="210"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
-      <c r="AF8" s="210"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
-    </row>
-    <row r="9" spans="1:35" s="20" customFormat="1">
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="211"/>
+    </row>
+    <row r="9" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
-      <c r="D9" s="212" t="s">
+      <c r="D9" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="211"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="211"/>
-      <c r="AF9" s="211"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="211"/>
-    </row>
-    <row r="10" spans="1:35" ht="11.25" customHeight="1">
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="212"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="212"/>
+      <c r="Z9" s="212"/>
+      <c r="AA9" s="212"/>
+      <c r="AB9" s="212"/>
+      <c r="AC9" s="212"/>
+      <c r="AD9" s="212"/>
+      <c r="AE9" s="212"/>
+      <c r="AF9" s="212"/>
+      <c r="AG9" s="212"/>
+      <c r="AH9" s="212"/>
+    </row>
+    <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
-      <c r="D10" s="201" t="s">
+      <c r="D10" s="202" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="203"/>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="204"/>
       <c r="H10" s="102"/>
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
@@ -9489,12 +9486,12 @@
       <c r="AG10" s="103"/>
       <c r="AH10" s="104"/>
     </row>
-    <row r="11" spans="1:35" s="19" customFormat="1">
+    <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="206"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="207"/>
       <c r="H11" s="105"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -9523,12 +9520,12 @@
       <c r="AG11" s="36"/>
       <c r="AH11" s="106"/>
     </row>
-    <row r="12" spans="1:35" s="19" customFormat="1">
+    <row r="12" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="206"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="207"/>
       <c r="H12" s="105"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
@@ -9557,12 +9554,12 @@
       <c r="AG12" s="36"/>
       <c r="AH12" s="106"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="206"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="105"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -9591,12 +9588,12 @@
       <c r="AG13" s="36"/>
       <c r="AH13" s="106"/>
     </row>
-    <row r="14" spans="1:35" s="19" customFormat="1">
+    <row r="14" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="206"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="207"/>
       <c r="H14" s="105"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -9625,12 +9622,12 @@
       <c r="AG14" s="36"/>
       <c r="AH14" s="106"/>
     </row>
-    <row r="15" spans="1:35" s="19" customFormat="1">
+    <row r="15" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="35"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="206"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="207"/>
       <c r="H15" s="105"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -9659,12 +9656,12 @@
       <c r="AG15" s="36"/>
       <c r="AH15" s="106"/>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="35"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="206"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="207"/>
       <c r="H16" s="105"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -9693,12 +9690,12 @@
       <c r="AG16" s="36"/>
       <c r="AH16" s="106"/>
     </row>
-    <row r="17" spans="2:34" s="19" customFormat="1">
+    <row r="17" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="35"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="207"/>
       <c r="H17" s="105"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -9727,12 +9724,12 @@
       <c r="AG17" s="36"/>
       <c r="AH17" s="106"/>
     </row>
-    <row r="18" spans="2:34" s="19" customFormat="1">
+    <row r="18" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="35"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="206"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
       <c r="H18" s="105"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -9761,12 +9758,12 @@
       <c r="AG18" s="36"/>
       <c r="AH18" s="106"/>
     </row>
-    <row r="19" spans="2:34">
+    <row r="19" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B19" s="35"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="105"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
@@ -9795,12 +9792,12 @@
       <c r="AG19" s="36"/>
       <c r="AH19" s="106"/>
     </row>
-    <row r="20" spans="2:34">
+    <row r="20" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B20" s="35"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="206"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="207"/>
       <c r="H20" s="105"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -9829,12 +9826,12 @@
       <c r="AG20" s="36"/>
       <c r="AH20" s="106"/>
     </row>
-    <row r="21" spans="2:34">
+    <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="35"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="207"/>
       <c r="H21" s="105"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -9863,12 +9860,12 @@
       <c r="AG21" s="36"/>
       <c r="AH21" s="106"/>
     </row>
-    <row r="22" spans="2:34">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="35"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="206"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="207"/>
       <c r="H22" s="105"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -9897,12 +9894,12 @@
       <c r="AG22" s="36"/>
       <c r="AH22" s="106"/>
     </row>
-    <row r="23" spans="2:34" s="19" customFormat="1">
+    <row r="23" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="35"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="207"/>
       <c r="H23" s="105"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -9931,12 +9928,12 @@
       <c r="AG23" s="36"/>
       <c r="AH23" s="106"/>
     </row>
-    <row r="24" spans="2:34" s="19" customFormat="1">
+    <row r="24" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="35"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="206"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="207"/>
       <c r="H24" s="105"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -9965,12 +9962,12 @@
       <c r="AG24" s="36"/>
       <c r="AH24" s="106"/>
     </row>
-    <row r="25" spans="2:34">
+    <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="35"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="207"/>
       <c r="H25" s="105"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -9999,12 +9996,12 @@
       <c r="AG25" s="36"/>
       <c r="AH25" s="106"/>
     </row>
-    <row r="26" spans="2:34">
+    <row r="26" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B26" s="35"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="206"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="207"/>
       <c r="H26" s="105"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -10033,12 +10030,12 @@
       <c r="AG26" s="36"/>
       <c r="AH26" s="106"/>
     </row>
-    <row r="27" spans="2:34">
+    <row r="27" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B27" s="35"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="207"/>
       <c r="H27" s="105"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -10067,12 +10064,12 @@
       <c r="AG27" s="36"/>
       <c r="AH27" s="106"/>
     </row>
-    <row r="28" spans="2:34">
+    <row r="28" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B28" s="35"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="207"/>
       <c r="H28" s="105"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -10101,12 +10098,12 @@
       <c r="AG28" s="36"/>
       <c r="AH28" s="106"/>
     </row>
-    <row r="29" spans="2:34">
+    <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="35"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="209"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210"/>
       <c r="H29" s="107"/>
       <c r="I29" s="108"/>
       <c r="J29" s="108"/>
@@ -10135,14 +10132,14 @@
       <c r="AG29" s="108"/>
       <c r="AH29" s="109"/>
     </row>
-    <row r="30" spans="2:34">
+    <row r="30" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
-      <c r="D30" s="201" t="s">
+      <c r="D30" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="204"/>
       <c r="H30" s="110"/>
       <c r="I30" s="111"/>
       <c r="J30" s="111"/>
@@ -10171,12 +10168,12 @@
       <c r="AG30" s="111"/>
       <c r="AH30" s="112"/>
     </row>
-    <row r="31" spans="2:34">
+    <row r="31" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="207"/>
       <c r="H31" s="113"/>
       <c r="I31" s="114"/>
       <c r="J31" s="114"/>
@@ -10205,12 +10202,12 @@
       <c r="AG31" s="114"/>
       <c r="AH31" s="115"/>
     </row>
-    <row r="32" spans="2:34">
+    <row r="32" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="206"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="207"/>
       <c r="H32" s="113"/>
       <c r="I32" s="114"/>
       <c r="J32" s="114"/>
@@ -10239,12 +10236,12 @@
       <c r="AG32" s="114"/>
       <c r="AH32" s="115"/>
     </row>
-    <row r="33" spans="2:34">
+    <row r="33" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B33" s="35"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="207"/>
       <c r="H33" s="113"/>
       <c r="I33" s="114"/>
       <c r="J33" s="114"/>
@@ -10273,12 +10270,12 @@
       <c r="AG33" s="114"/>
       <c r="AH33" s="115"/>
     </row>
-    <row r="34" spans="2:34">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="206"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="207"/>
       <c r="H34" s="113"/>
       <c r="I34" s="114"/>
       <c r="J34" s="114"/>
@@ -10307,12 +10304,12 @@
       <c r="AG34" s="114"/>
       <c r="AH34" s="115"/>
     </row>
-    <row r="35" spans="2:34">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="206"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="207"/>
       <c r="H35" s="113"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -10341,12 +10338,12 @@
       <c r="AG35" s="114"/>
       <c r="AH35" s="115"/>
     </row>
-    <row r="36" spans="2:34">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="206"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="207"/>
       <c r="H36" s="113"/>
       <c r="I36" s="114"/>
       <c r="J36" s="114"/>
@@ -10375,12 +10372,12 @@
       <c r="AG36" s="114"/>
       <c r="AH36" s="115"/>
     </row>
-    <row r="37" spans="2:34">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="209"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="209"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="210"/>
       <c r="H37" s="116"/>
       <c r="I37" s="117"/>
       <c r="J37" s="117"/>
@@ -10411,18 +10408,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D30:G37"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -10434,6 +10419,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D30:G37"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10456,173 +10453,181 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
-    </row>
-    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
+    </row>
+    <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
-    </row>
-    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
+    </row>
+    <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
-    </row>
-    <row r="4" spans="1:35" ht="12" customHeight="1"/>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
+    </row>
+    <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="84" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="12" customHeight="1"/>
+    <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10632,14 +10637,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10657,181 +10654,181 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AL99"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="143" t="s">
+    <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
-    <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="143" t="s">
+    <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
-    <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="143" t="s">
+    <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
     </row>
-    <row r="4" spans="1:38" ht="12" customHeight="1"/>
-    <row r="5" spans="1:38" s="21" customFormat="1">
+    <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
         <v>65</v>
       </c>
@@ -10868,7 +10865,7 @@
       <c r="AG5" s="35"/>
       <c r="AH5" s="35"/>
     </row>
-    <row r="6" spans="1:38" s="21" customFormat="1">
+    <row r="6" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="35"/>
       <c r="C6" s="35" t="s">
         <v>42</v>
@@ -10905,7 +10902,7 @@
       <c r="AG6" s="35"/>
       <c r="AH6" s="35"/>
     </row>
-    <row r="7" spans="1:38" s="21" customFormat="1">
+    <row r="7" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="87"/>
@@ -10940,68 +10937,68 @@
       <c r="AG7" s="35"/>
       <c r="AH7" s="35"/>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="253" t="s">
+      <c r="D8" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="255" t="s">
+      <c r="E8" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="243" t="s">
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="261" t="s">
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="266" t="s">
+      <c r="P8" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="267"/>
-      <c r="R8" s="267"/>
-      <c r="S8" s="267"/>
-      <c r="T8" s="267"/>
-      <c r="U8" s="268"/>
-      <c r="V8" s="263" t="s">
+      <c r="Q8" s="220"/>
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="263"/>
-      <c r="X8" s="263"/>
-      <c r="Y8" s="263"/>
-      <c r="Z8" s="263"/>
-      <c r="AA8" s="263"/>
-      <c r="AB8" s="263"/>
-      <c r="AC8" s="263"/>
-      <c r="AD8" s="263"/>
-      <c r="AE8" s="263"/>
-      <c r="AF8" s="263"/>
-      <c r="AG8" s="263"/>
-      <c r="AH8" s="263"/>
-    </row>
-    <row r="9" spans="1:38">
+      <c r="W8" s="240"/>
+      <c r="X8" s="240"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="240"/>
+      <c r="AC8" s="240"/>
+      <c r="AD8" s="240"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="240"/>
+      <c r="AH8" s="240"/>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="254"/>
-      <c r="E9" s="258"/>
-      <c r="F9" s="259"/>
-      <c r="G9" s="259"/>
-      <c r="H9" s="259"/>
-      <c r="I9" s="259"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="258"/>
-      <c r="L9" s="259"/>
-      <c r="M9" s="259"/>
-      <c r="N9" s="260"/>
-      <c r="O9" s="262"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="239"/>
       <c r="P9" s="88" t="s">
         <v>49</v>
       </c>
@@ -11014,136 +11011,136 @@
       <c r="S9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="264" t="s">
+      <c r="T9" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="265"/>
-      <c r="V9" s="263"/>
-      <c r="W9" s="263"/>
-      <c r="X9" s="263"/>
-      <c r="Y9" s="263"/>
-      <c r="Z9" s="263"/>
-      <c r="AA9" s="263"/>
-      <c r="AB9" s="263"/>
-      <c r="AC9" s="263"/>
-      <c r="AD9" s="263"/>
-      <c r="AE9" s="263"/>
-      <c r="AF9" s="263"/>
-      <c r="AG9" s="263"/>
-      <c r="AH9" s="263"/>
-    </row>
-    <row r="10" spans="1:38">
+      <c r="U9" s="242"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="240"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="240"/>
+      <c r="AA9" s="240"/>
+      <c r="AB9" s="240"/>
+      <c r="AC9" s="240"/>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="240"/>
+      <c r="AF9" s="240"/>
+      <c r="AG9" s="240"/>
+      <c r="AH9" s="240"/>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
       <c r="D10" s="89">
         <v>1</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="140"/>
       <c r="O10" s="90"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="251"/>
-      <c r="U10" s="252"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="139"/>
-    </row>
-    <row r="11" spans="1:38">
+      <c r="T10" s="217"/>
+      <c r="U10" s="218"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="140"/>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
       <c r="D11" s="89">
         <v>2</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="139"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="140"/>
       <c r="O11" s="92"/>
       <c r="P11" s="91"/>
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="252"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="138"/>
-      <c r="AH11" s="139"/>
-    </row>
-    <row r="12" spans="1:38">
+      <c r="T11" s="217"/>
+      <c r="U11" s="218"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="140"/>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
       <c r="D12" s="89">
         <v>3</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="139"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="92"/>
       <c r="P12" s="91"/>
       <c r="Q12" s="91"/>
       <c r="R12" s="91"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="251"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="138"/>
-      <c r="AG12" s="138"/>
-      <c r="AH12" s="139"/>
-    </row>
-    <row r="13" spans="1:38">
+      <c r="T12" s="217"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="140"/>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
       <c r="D13" s="119"/>
@@ -11178,7 +11175,7 @@
       <c r="AG13" s="121"/>
       <c r="AH13" s="121"/>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
       <c r="D14" s="87"/>
@@ -11213,7 +11210,7 @@
       <c r="AG14" s="35"/>
       <c r="AH14" s="35"/>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B15" s="40"/>
       <c r="C15" s="36" t="s">
         <v>55</v>
@@ -11250,7 +11247,7 @@
       <c r="AG15" s="86"/>
       <c r="AH15" s="86"/>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" s="40"/>
       <c r="C16" s="36"/>
       <c r="D16" s="36"/>
@@ -11285,346 +11282,347 @@
       <c r="AG16" s="86"/>
       <c r="AH16" s="86"/>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="235" t="s">
+      <c r="D17" s="127" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="237" t="s">
+      <c r="F17" s="260"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="238"/>
-      <c r="G17" s="239"/>
-      <c r="H17" s="243" t="s">
+      <c r="I17" s="263"/>
+      <c r="J17" s="264"/>
+      <c r="K17" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="244"/>
-      <c r="J17" s="244"/>
-      <c r="K17" s="243" t="s">
-        <v>70</v>
-      </c>
-      <c r="L17" s="244"/>
-      <c r="M17" s="244"/>
-      <c r="N17" s="244"/>
-      <c r="O17" s="244"/>
-      <c r="P17" s="244"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
-      <c r="S17" s="244"/>
-      <c r="T17" s="244"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="244"/>
-      <c r="W17" s="244"/>
-      <c r="X17" s="244"/>
-      <c r="Y17" s="244"/>
-      <c r="Z17" s="244"/>
-      <c r="AA17" s="244"/>
-      <c r="AB17" s="244"/>
-      <c r="AC17" s="244"/>
-      <c r="AD17" s="244"/>
-      <c r="AE17" s="244"/>
-      <c r="AF17" s="244"/>
-      <c r="AG17" s="244"/>
-      <c r="AH17" s="245"/>
-    </row>
-    <row r="18" spans="1:34">
+      <c r="L17" s="266"/>
+      <c r="M17" s="266"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="266"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266"/>
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266"/>
+      <c r="AB17" s="266"/>
+      <c r="AC17" s="266"/>
+      <c r="AD17" s="266"/>
+      <c r="AE17" s="266"/>
+      <c r="AF17" s="266"/>
+      <c r="AG17" s="266"/>
+      <c r="AH17" s="267"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="236"/>
-      <c r="E18" s="240"/>
-      <c r="F18" s="241"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="246"/>
-      <c r="I18" s="247"/>
-      <c r="J18" s="247"/>
-      <c r="K18" s="246"/>
-      <c r="L18" s="247"/>
-      <c r="M18" s="247"/>
-      <c r="N18" s="247"/>
-      <c r="O18" s="247"/>
-      <c r="P18" s="247"/>
-      <c r="Q18" s="247"/>
-      <c r="R18" s="247"/>
-      <c r="S18" s="247"/>
-      <c r="T18" s="247"/>
-      <c r="U18" s="247"/>
-      <c r="V18" s="247"/>
-      <c r="W18" s="247"/>
-      <c r="X18" s="247"/>
-      <c r="Y18" s="247"/>
-      <c r="Z18" s="247"/>
-      <c r="AA18" s="247"/>
-      <c r="AB18" s="247"/>
-      <c r="AC18" s="247"/>
-      <c r="AD18" s="247"/>
-      <c r="AE18" s="247"/>
-      <c r="AF18" s="247"/>
-      <c r="AG18" s="247"/>
-      <c r="AH18" s="248"/>
-    </row>
-    <row r="19" spans="1:34">
+      <c r="D18" s="89">
+        <v>1</v>
+      </c>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="269"/>
+      <c r="M18" s="269"/>
+      <c r="N18" s="269"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="269"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="269"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="270"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="89">
-        <v>1</v>
-      </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="137"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="138"/>
-      <c r="AF19" s="138"/>
-      <c r="AG19" s="138"/>
-      <c r="AH19" s="139"/>
-    </row>
-    <row r="20" spans="1:34">
+        <v>2</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="269"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="269"/>
+      <c r="P19" s="269"/>
+      <c r="Q19" s="269"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="269"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="270"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="89">
-        <v>2</v>
-      </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="137"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="138"/>
-      <c r="AF20" s="138"/>
-      <c r="AG20" s="138"/>
-      <c r="AH20" s="139"/>
-    </row>
-    <row r="21" spans="1:34">
+        <v>3</v>
+      </c>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="269"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="269"/>
+      <c r="Q20" s="269"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="269"/>
+      <c r="U20" s="269"/>
+      <c r="V20" s="269"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="269"/>
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="270"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36"/>
       <c r="D21" s="89">
-        <v>3</v>
-      </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="137"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="138"/>
-      <c r="AF21" s="138"/>
-      <c r="AG21" s="138"/>
-      <c r="AH21" s="139"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="18"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="269"/>
+      <c r="M21" s="269"/>
+      <c r="N21" s="269"/>
+      <c r="O21" s="269"/>
+      <c r="P21" s="269"/>
+      <c r="Q21" s="269"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="269"/>
+      <c r="T21" s="269"/>
+      <c r="U21" s="269"/>
+      <c r="V21" s="269"/>
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269"/>
+      <c r="AB21" s="269"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="269"/>
+      <c r="AE21" s="269"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="270"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C22" s="36"/>
       <c r="D22" s="89">
-        <v>4</v>
-      </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="137"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="138"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="138"/>
-      <c r="AH22" s="139"/>
-    </row>
-    <row r="23" spans="1:34">
+        <v>5</v>
+      </c>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="140"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C23" s="36"/>
       <c r="D23" s="89">
-        <v>5</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="137"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="138"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="138"/>
-      <c r="AH23" s="139"/>
-    </row>
-    <row r="24" spans="1:34">
+        <v>6</v>
+      </c>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="140"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C24" s="36"/>
-      <c r="D24" s="89">
-        <v>6</v>
-      </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="137"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="138"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="138"/>
-      <c r="AH24" s="139"/>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="C25" s="36"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1">
-      <c r="C27" s="36" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+    </row>
+    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+    </row>
+    <row r="27" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="36"/>
+      <c r="D27" s="86" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="86"/>
       <c r="F27" s="86"/>
       <c r="G27" s="86"/>
@@ -11632,7 +11630,7 @@
       <c r="I27" s="86"/>
       <c r="J27" s="86"/>
       <c r="K27" s="86"/>
-      <c r="L27" s="124"/>
+      <c r="L27" s="86"/>
       <c r="M27" s="86"/>
       <c r="N27" s="86"/>
       <c r="O27" s="86"/>
@@ -11656,11 +11654,9 @@
       <c r="AG27" s="86"/>
       <c r="AH27" s="86"/>
     </row>
-    <row r="28" spans="1:34" s="20" customFormat="1">
+    <row r="28" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="36"/>
-      <c r="D28" s="86" t="s">
-        <v>36</v>
-      </c>
+      <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
@@ -11692,45 +11688,45 @@
       <c r="AG28" s="86"/>
       <c r="AH28" s="86"/>
     </row>
-    <row r="29" spans="1:34" s="20" customFormat="1">
+    <row r="29" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C29" s="36"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
+      <c r="E29" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
       <c r="AF29" s="86"/>
       <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
-    </row>
-    <row r="30" spans="1:34" s="20" customFormat="1">
+      <c r="AH29" s="38"/>
+    </row>
+    <row r="30" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="36"/>
-      <c r="E30" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -11761,83 +11757,88 @@
       <c r="AG30" s="86"/>
       <c r="AH30" s="38"/>
     </row>
-    <row r="31" spans="1:34" s="20" customFormat="1">
+    <row r="31" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="38"/>
-    </row>
-    <row r="32" spans="1:34" s="20" customFormat="1">
-      <c r="C32" s="36"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="269" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="269"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="270"/>
-      <c r="I32" s="270"/>
-      <c r="J32" s="270"/>
-      <c r="K32" s="270"/>
-      <c r="L32" s="270"/>
-      <c r="M32" s="269" t="s">
+      <c r="F31" s="228"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="269"/>
-      <c r="O32" s="216"/>
-      <c r="P32" s="217"/>
-      <c r="Q32" s="217"/>
-      <c r="R32" s="217"/>
-      <c r="S32" s="217"/>
-      <c r="T32" s="217"/>
-      <c r="U32" s="217"/>
-      <c r="V32" s="217"/>
-      <c r="W32" s="217"/>
-      <c r="X32" s="217"/>
-      <c r="Y32" s="217"/>
-      <c r="Z32" s="217"/>
-      <c r="AA32" s="217"/>
-      <c r="AB32" s="217"/>
-      <c r="AC32" s="217"/>
-      <c r="AD32" s="217"/>
-      <c r="AE32" s="217"/>
-      <c r="AF32" s="217"/>
-      <c r="AG32" s="217"/>
-      <c r="AH32" s="218"/>
-    </row>
-    <row r="33" spans="1:35" s="20" customFormat="1"/>
-    <row r="35" spans="1:35">
+      <c r="N31" s="228"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="244"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="244"/>
+      <c r="S31" s="244"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="244"/>
+      <c r="V31" s="244"/>
+      <c r="W31" s="244"/>
+      <c r="X31" s="244"/>
+      <c r="Y31" s="244"/>
+      <c r="Z31" s="244"/>
+      <c r="AA31" s="244"/>
+      <c r="AB31" s="244"/>
+      <c r="AC31" s="244"/>
+      <c r="AD31" s="244"/>
+      <c r="AE31" s="244"/>
+      <c r="AF31" s="244"/>
+      <c r="AG31" s="244"/>
+      <c r="AH31" s="245"/>
+    </row>
+    <row r="32" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="C35" s="78" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -11871,21 +11872,21 @@
       <c r="AH35" s="18"/>
       <c r="AI35" s="18"/>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="18"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -11910,18 +11911,16 @@
       <c r="AH36" s="18"/>
       <c r="AI36" s="18"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78" t="s">
-        <v>43</v>
-      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="41"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -11949,7 +11948,7 @@
       <c r="AH37" s="18"/>
       <c r="AI37" s="18"/>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -11986,10 +11985,10 @@
       <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -12023,18 +12022,18 @@
       <c r="AH39" s="18"/>
       <c r="AI39" s="18"/>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
       <c r="L40" s="41"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
@@ -12060,12 +12059,12 @@
       <c r="AH40" s="18"/>
       <c r="AI40" s="18"/>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
       <c r="C41" s="93"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="78"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -12097,18 +12096,18 @@
       <c r="AH41" s="18"/>
       <c r="AI41" s="18"/>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="41"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
@@ -12134,10 +12133,10 @@
       <c r="AH42" s="18"/>
       <c r="AI42" s="18"/>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="41"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="18"/>
       <c r="E43" s="78"/>
       <c r="F43" s="18"/>
@@ -12171,19 +12170,19 @@
       <c r="AH43" s="18"/>
       <c r="AI43" s="18"/>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="78"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="41"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -12208,7 +12207,7 @@
       <c r="AH44" s="18"/>
       <c r="AI44" s="18"/>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A45" s="18"/>
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
@@ -12217,8 +12216,8 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
@@ -12245,7 +12244,7 @@
       <c r="AH45" s="18"/>
       <c r="AI45" s="18"/>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -12254,8 +12253,8 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -12282,7 +12281,7 @@
       <c r="AH46" s="18"/>
       <c r="AI46" s="18"/>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A47" s="18"/>
       <c r="B47" s="18"/>
       <c r="C47" s="18"/>
@@ -12319,7 +12318,7 @@
       <c r="AH47" s="18"/>
       <c r="AI47" s="18"/>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A48" s="18"/>
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
@@ -12356,7 +12355,7 @@
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A49" s="18"/>
       <c r="B49" s="18"/>
       <c r="C49" s="18"/>
@@ -12393,7 +12392,7 @@
       <c r="AH49" s="18"/>
       <c r="AI49" s="18"/>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A50" s="18"/>
       <c r="B50" s="18"/>
       <c r="C50" s="18"/>
@@ -12430,7 +12429,7 @@
       <c r="AH50" s="18"/>
       <c r="AI50" s="18"/>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A51" s="18"/>
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
@@ -12467,7 +12466,7 @@
       <c r="AH51" s="18"/>
       <c r="AI51" s="18"/>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A52" s="18"/>
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
@@ -12504,7 +12503,7 @@
       <c r="AH52" s="18"/>
       <c r="AI52" s="18"/>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A53" s="18"/>
       <c r="B53" s="18"/>
       <c r="C53" s="18"/>
@@ -12541,7 +12540,7 @@
       <c r="AH53" s="18"/>
       <c r="AI53" s="18"/>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A54" s="18"/>
       <c r="B54" s="18"/>
       <c r="C54" s="18"/>
@@ -12578,7 +12577,7 @@
       <c r="AH54" s="18"/>
       <c r="AI54" s="18"/>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
       <c r="C55" s="18"/>
@@ -12615,7 +12614,7 @@
       <c r="AH55" s="18"/>
       <c r="AI55" s="18"/>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A56" s="18"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18"/>
@@ -12652,7 +12651,7 @@
       <c r="AH56" s="18"/>
       <c r="AI56" s="18"/>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A57" s="18"/>
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
@@ -12689,7 +12688,7 @@
       <c r="AH57" s="18"/>
       <c r="AI57" s="18"/>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A58" s="18"/>
       <c r="B58" s="18"/>
       <c r="C58" s="18"/>
@@ -12726,7 +12725,7 @@
       <c r="AH58" s="18"/>
       <c r="AI58" s="18"/>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -12763,7 +12762,7 @@
       <c r="AH59" s="18"/>
       <c r="AI59" s="18"/>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A60" s="18"/>
       <c r="B60" s="18"/>
       <c r="C60" s="18"/>
@@ -12800,7 +12799,7 @@
       <c r="AH60" s="18"/>
       <c r="AI60" s="18"/>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A61" s="18"/>
       <c r="B61" s="18"/>
       <c r="C61" s="18"/>
@@ -12837,7 +12836,7 @@
       <c r="AH61" s="18"/>
       <c r="AI61" s="18"/>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
       <c r="C62" s="18"/>
@@ -12874,7 +12873,7 @@
       <c r="AH62" s="18"/>
       <c r="AI62" s="18"/>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
       <c r="C63" s="18"/>
@@ -12911,7 +12910,7 @@
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
       <c r="C64" s="18"/>
@@ -12948,7 +12947,7 @@
       <c r="AH64" s="18"/>
       <c r="AI64" s="18"/>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
       <c r="C65" s="18"/>
@@ -12985,7 +12984,7 @@
       <c r="AH65" s="18"/>
       <c r="AI65" s="18"/>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
       <c r="C66" s="18"/>
@@ -13022,7 +13021,7 @@
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
       <c r="C67" s="18"/>
@@ -13059,7 +13058,7 @@
       <c r="AH67" s="18"/>
       <c r="AI67" s="18"/>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
       <c r="C68" s="18"/>
@@ -13096,7 +13095,7 @@
       <c r="AH68" s="18"/>
       <c r="AI68" s="18"/>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
       <c r="C69" s="18"/>
@@ -13133,7 +13132,7 @@
       <c r="AH69" s="18"/>
       <c r="AI69" s="18"/>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A70" s="18"/>
       <c r="B70" s="18"/>
       <c r="C70" s="18"/>
@@ -13170,7 +13169,7 @@
       <c r="AH70" s="18"/>
       <c r="AI70" s="18"/>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
       <c r="C71" s="18"/>
@@ -13207,7 +13206,7 @@
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
       <c r="C72" s="18"/>
@@ -13244,7 +13243,7 @@
       <c r="AH72" s="18"/>
       <c r="AI72" s="18"/>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
       <c r="C73" s="18"/>
@@ -13281,7 +13280,7 @@
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
       <c r="C74" s="18"/>
@@ -13318,7 +13317,7 @@
       <c r="AH74" s="18"/>
       <c r="AI74" s="18"/>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
       <c r="C75" s="18"/>
@@ -13355,7 +13354,7 @@
       <c r="AH75" s="18"/>
       <c r="AI75" s="18"/>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A76" s="18"/>
       <c r="B76" s="18"/>
       <c r="C76" s="18"/>
@@ -13392,7 +13391,7 @@
       <c r="AH76" s="18"/>
       <c r="AI76" s="18"/>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A77" s="18"/>
       <c r="B77" s="18"/>
       <c r="C77" s="18"/>
@@ -13429,7 +13428,7 @@
       <c r="AH77" s="18"/>
       <c r="AI77" s="18"/>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A78" s="18"/>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -13466,7 +13465,7 @@
       <c r="AH78" s="18"/>
       <c r="AI78" s="18"/>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
       <c r="C79" s="18"/>
@@ -13503,7 +13502,7 @@
       <c r="AH79" s="18"/>
       <c r="AI79" s="18"/>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A80" s="18"/>
       <c r="B80" s="18"/>
       <c r="C80" s="18"/>
@@ -13540,48 +13539,45 @@
       <c r="AH80" s="18"/>
       <c r="AI80" s="18"/>
     </row>
-    <row r="81" spans="1:35">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
-      <c r="AI81" s="18"/>
-    </row>
-    <row r="84" spans="1:35">
-      <c r="C84" s="35" t="s">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C83" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+    </row>
+    <row r="84" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -13611,11 +13607,9 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C85" s="35"/>
-      <c r="D85" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="D85" s="35"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -13645,43 +13639,43 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
+      <c r="E86" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+      <c r="AA86" s="37"/>
+      <c r="AB86" s="37"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="38"/>
       <c r="AE86" s="35"/>
       <c r="AF86" s="35"/>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C87" s="35"/>
-      <c r="E87" s="37" t="s">
-        <v>68</v>
-      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
@@ -13710,79 +13704,81 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C88" s="35"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-    </row>
-    <row r="89" spans="1:35">
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="269" t="s">
+      <c r="D88" s="35"/>
+      <c r="E88" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="269"/>
-      <c r="G89" s="270"/>
-      <c r="H89" s="270"/>
-      <c r="I89" s="270"/>
-      <c r="J89" s="270"/>
-      <c r="K89" s="270"/>
-      <c r="L89" s="270"/>
-      <c r="M89" s="269" t="s">
+      <c r="F88" s="228"/>
+      <c r="G88" s="229"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="229"/>
+      <c r="J88" s="229"/>
+      <c r="K88" s="229"/>
+      <c r="L88" s="229"/>
+      <c r="M88" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="269"/>
-      <c r="O89" s="216"/>
-      <c r="P89" s="217"/>
-      <c r="Q89" s="217"/>
-      <c r="R89" s="217"/>
-      <c r="S89" s="217"/>
-      <c r="T89" s="217"/>
-      <c r="U89" s="217"/>
-      <c r="V89" s="217"/>
-      <c r="W89" s="217"/>
-      <c r="X89" s="217"/>
-      <c r="Y89" s="217"/>
-      <c r="Z89" s="217"/>
-      <c r="AA89" s="217"/>
-      <c r="AB89" s="217"/>
-      <c r="AC89" s="217"/>
-      <c r="AD89" s="217"/>
-      <c r="AE89" s="217"/>
-      <c r="AF89" s="217"/>
-      <c r="AG89" s="217"/>
-      <c r="AH89" s="218"/>
-    </row>
-    <row r="91" spans="1:35">
+      <c r="N88" s="228"/>
+      <c r="O88" s="243"/>
+      <c r="P88" s="244"/>
+      <c r="Q88" s="244"/>
+      <c r="R88" s="244"/>
+      <c r="S88" s="244"/>
+      <c r="T88" s="244"/>
+      <c r="U88" s="244"/>
+      <c r="V88" s="244"/>
+      <c r="W88" s="244"/>
+      <c r="X88" s="244"/>
+      <c r="Y88" s="244"/>
+      <c r="Z88" s="244"/>
+      <c r="AA88" s="244"/>
+      <c r="AB88" s="244"/>
+      <c r="AC88" s="244"/>
+      <c r="AD88" s="244"/>
+      <c r="AE88" s="244"/>
+      <c r="AF88" s="244"/>
+      <c r="AG88" s="244"/>
+      <c r="AH88" s="245"/>
+    </row>
+    <row r="90" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+    </row>
+    <row r="91" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="D91" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -13812,11 +13808,9 @@
       <c r="AE91" s="35"/>
       <c r="AF91" s="35"/>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C92" s="35"/>
-      <c r="D92" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="D92" s="35"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -13846,351 +13840,319 @@
       <c r="AE92" s="35"/>
       <c r="AF92" s="35"/>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-    </row>
-    <row r="94" spans="1:35">
+      <c r="E93" s="246" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="249" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="250"/>
+      <c r="H93" s="250"/>
+      <c r="I93" s="251"/>
+      <c r="J93" s="249" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="250"/>
+      <c r="L93" s="250"/>
+      <c r="M93" s="251"/>
+      <c r="N93" s="248" t="s">
+        <v>13</v>
+      </c>
+      <c r="O93" s="248"/>
+      <c r="P93" s="248"/>
+      <c r="Q93" s="248"/>
+      <c r="R93" s="248"/>
+      <c r="S93" s="248"/>
+      <c r="T93" s="248"/>
+      <c r="U93" s="248"/>
+      <c r="V93" s="248"/>
+      <c r="W93" s="249" t="s">
+        <v>40</v>
+      </c>
+      <c r="X93" s="250"/>
+      <c r="Y93" s="250"/>
+      <c r="Z93" s="250"/>
+      <c r="AA93" s="250"/>
+      <c r="AB93" s="250"/>
+      <c r="AC93" s="251"/>
+      <c r="AD93" s="249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE93" s="250"/>
+      <c r="AF93" s="250"/>
+      <c r="AG93" s="250"/>
+      <c r="AH93" s="251"/>
+    </row>
+    <row r="94" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="249" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="219" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="220"/>
-      <c r="H94" s="220"/>
-      <c r="I94" s="221"/>
-      <c r="J94" s="219" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="220"/>
-      <c r="L94" s="220"/>
-      <c r="M94" s="221"/>
-      <c r="N94" s="233" t="s">
-        <v>13</v>
-      </c>
-      <c r="O94" s="233"/>
-      <c r="P94" s="233"/>
-      <c r="Q94" s="233"/>
-      <c r="R94" s="233"/>
-      <c r="S94" s="233"/>
-      <c r="T94" s="233"/>
-      <c r="U94" s="233"/>
-      <c r="V94" s="233"/>
-      <c r="W94" s="219" t="s">
-        <v>40</v>
-      </c>
-      <c r="X94" s="220"/>
-      <c r="Y94" s="220"/>
-      <c r="Z94" s="220"/>
-      <c r="AA94" s="220"/>
-      <c r="AB94" s="220"/>
-      <c r="AC94" s="221"/>
-      <c r="AD94" s="219" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE94" s="220"/>
-      <c r="AF94" s="220"/>
-      <c r="AG94" s="220"/>
-      <c r="AH94" s="221"/>
-    </row>
-    <row r="95" spans="1:35">
+      <c r="D94" s="37"/>
+      <c r="E94" s="247"/>
+      <c r="F94" s="252"/>
+      <c r="G94" s="253"/>
+      <c r="H94" s="253"/>
+      <c r="I94" s="254"/>
+      <c r="J94" s="252"/>
+      <c r="K94" s="253"/>
+      <c r="L94" s="253"/>
+      <c r="M94" s="254"/>
+      <c r="N94" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="O94" s="248"/>
+      <c r="P94" s="248"/>
+      <c r="Q94" s="248"/>
+      <c r="R94" s="248"/>
+      <c r="S94" s="255" t="s">
+        <v>12</v>
+      </c>
+      <c r="T94" s="255"/>
+      <c r="U94" s="255"/>
+      <c r="V94" s="255"/>
+      <c r="W94" s="252"/>
+      <c r="X94" s="253"/>
+      <c r="Y94" s="253"/>
+      <c r="Z94" s="253"/>
+      <c r="AA94" s="253"/>
+      <c r="AB94" s="253"/>
+      <c r="AC94" s="254"/>
+      <c r="AD94" s="252"/>
+      <c r="AE94" s="253"/>
+      <c r="AF94" s="253"/>
+      <c r="AG94" s="253"/>
+      <c r="AH94" s="254"/>
+    </row>
+    <row r="95" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C95" s="35"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="250"/>
-      <c r="F95" s="222"/>
-      <c r="G95" s="223"/>
-      <c r="H95" s="223"/>
-      <c r="I95" s="224"/>
-      <c r="J95" s="222"/>
-      <c r="K95" s="223"/>
-      <c r="L95" s="223"/>
-      <c r="M95" s="224"/>
-      <c r="N95" s="233" t="s">
-        <v>0</v>
-      </c>
-      <c r="O95" s="233"/>
-      <c r="P95" s="233"/>
-      <c r="Q95" s="233"/>
-      <c r="R95" s="233"/>
-      <c r="S95" s="234" t="s">
-        <v>12</v>
-      </c>
-      <c r="T95" s="234"/>
-      <c r="U95" s="234"/>
-      <c r="V95" s="234"/>
-      <c r="W95" s="222"/>
-      <c r="X95" s="223"/>
-      <c r="Y95" s="223"/>
-      <c r="Z95" s="223"/>
-      <c r="AA95" s="223"/>
-      <c r="AB95" s="223"/>
-      <c r="AC95" s="224"/>
-      <c r="AD95" s="222"/>
-      <c r="AE95" s="223"/>
-      <c r="AF95" s="223"/>
-      <c r="AG95" s="223"/>
-      <c r="AH95" s="224"/>
-    </row>
-    <row r="96" spans="1:35">
+      <c r="E95" s="39">
+        <v>1</v>
+      </c>
+      <c r="F95" s="256"/>
+      <c r="G95" s="257"/>
+      <c r="H95" s="257"/>
+      <c r="I95" s="258"/>
+      <c r="J95" s="256"/>
+      <c r="K95" s="257"/>
+      <c r="L95" s="257"/>
+      <c r="M95" s="258"/>
+      <c r="N95" s="226"/>
+      <c r="O95" s="227"/>
+      <c r="P95" s="227"/>
+      <c r="Q95" s="227"/>
+      <c r="R95" s="227"/>
+      <c r="S95" s="222"/>
+      <c r="T95" s="222"/>
+      <c r="U95" s="222"/>
+      <c r="V95" s="222"/>
+      <c r="W95" s="223"/>
+      <c r="X95" s="224"/>
+      <c r="Y95" s="224"/>
+      <c r="Z95" s="224"/>
+      <c r="AA95" s="224"/>
+      <c r="AB95" s="224"/>
+      <c r="AC95" s="225"/>
+      <c r="AD95" s="223"/>
+      <c r="AE95" s="224"/>
+      <c r="AF95" s="224"/>
+      <c r="AG95" s="224"/>
+      <c r="AH95" s="225"/>
+    </row>
+    <row r="96" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C96" s="35"/>
       <c r="D96" s="37"/>
       <c r="E96" s="39">
-        <v>1</v>
-      </c>
-      <c r="F96" s="225"/>
-      <c r="G96" s="226"/>
-      <c r="H96" s="226"/>
-      <c r="I96" s="227"/>
-      <c r="J96" s="225"/>
-      <c r="K96" s="226"/>
-      <c r="L96" s="226"/>
-      <c r="M96" s="227"/>
-      <c r="N96" s="228"/>
-      <c r="O96" s="229"/>
-      <c r="P96" s="229"/>
-      <c r="Q96" s="229"/>
-      <c r="R96" s="229"/>
-      <c r="S96" s="215"/>
-      <c r="T96" s="215"/>
-      <c r="U96" s="215"/>
-      <c r="V96" s="215"/>
-      <c r="W96" s="230"/>
-      <c r="X96" s="231"/>
-      <c r="Y96" s="231"/>
-      <c r="Z96" s="231"/>
-      <c r="AA96" s="231"/>
-      <c r="AB96" s="231"/>
-      <c r="AC96" s="232"/>
-      <c r="AD96" s="230"/>
-      <c r="AE96" s="231"/>
-      <c r="AF96" s="231"/>
-      <c r="AG96" s="231"/>
-      <c r="AH96" s="232"/>
-    </row>
-    <row r="97" spans="3:34">
+        <v>2</v>
+      </c>
+      <c r="F96" s="256"/>
+      <c r="G96" s="257"/>
+      <c r="H96" s="257"/>
+      <c r="I96" s="258"/>
+      <c r="J96" s="256"/>
+      <c r="K96" s="257"/>
+      <c r="L96" s="257"/>
+      <c r="M96" s="258"/>
+      <c r="N96" s="226"/>
+      <c r="O96" s="227"/>
+      <c r="P96" s="227"/>
+      <c r="Q96" s="227"/>
+      <c r="R96" s="227"/>
+      <c r="S96" s="222"/>
+      <c r="T96" s="222"/>
+      <c r="U96" s="222"/>
+      <c r="V96" s="222"/>
+      <c r="W96" s="223"/>
+      <c r="X96" s="224"/>
+      <c r="Y96" s="224"/>
+      <c r="Z96" s="224"/>
+      <c r="AA96" s="224"/>
+      <c r="AB96" s="224"/>
+      <c r="AC96" s="225"/>
+      <c r="AD96" s="223"/>
+      <c r="AE96" s="224"/>
+      <c r="AF96" s="224"/>
+      <c r="AG96" s="224"/>
+      <c r="AH96" s="225"/>
+    </row>
+    <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="35"/>
       <c r="D97" s="37"/>
       <c r="E97" s="39">
-        <v>2</v>
-      </c>
-      <c r="F97" s="225"/>
-      <c r="G97" s="226"/>
-      <c r="H97" s="226"/>
-      <c r="I97" s="227"/>
-      <c r="J97" s="225"/>
-      <c r="K97" s="226"/>
-      <c r="L97" s="226"/>
-      <c r="M97" s="227"/>
-      <c r="N97" s="228"/>
-      <c r="O97" s="229"/>
-      <c r="P97" s="229"/>
-      <c r="Q97" s="229"/>
-      <c r="R97" s="229"/>
-      <c r="S97" s="215"/>
-      <c r="T97" s="215"/>
-      <c r="U97" s="215"/>
-      <c r="V97" s="215"/>
-      <c r="W97" s="230"/>
-      <c r="X97" s="231"/>
-      <c r="Y97" s="231"/>
-      <c r="Z97" s="231"/>
-      <c r="AA97" s="231"/>
-      <c r="AB97" s="231"/>
-      <c r="AC97" s="232"/>
-      <c r="AD97" s="230"/>
-      <c r="AE97" s="231"/>
-      <c r="AF97" s="231"/>
-      <c r="AG97" s="231"/>
-      <c r="AH97" s="232"/>
-    </row>
-    <row r="98" spans="3:34">
+        <v>3</v>
+      </c>
+      <c r="F97" s="256"/>
+      <c r="G97" s="257"/>
+      <c r="H97" s="257"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="256"/>
+      <c r="K97" s="257"/>
+      <c r="L97" s="257"/>
+      <c r="M97" s="258"/>
+      <c r="N97" s="226"/>
+      <c r="O97" s="227"/>
+      <c r="P97" s="227"/>
+      <c r="Q97" s="227"/>
+      <c r="R97" s="227"/>
+      <c r="S97" s="222"/>
+      <c r="T97" s="222"/>
+      <c r="U97" s="222"/>
+      <c r="V97" s="222"/>
+      <c r="W97" s="223"/>
+      <c r="X97" s="224"/>
+      <c r="Y97" s="224"/>
+      <c r="Z97" s="224"/>
+      <c r="AA97" s="224"/>
+      <c r="AB97" s="224"/>
+      <c r="AC97" s="225"/>
+      <c r="AD97" s="223"/>
+      <c r="AE97" s="224"/>
+      <c r="AF97" s="224"/>
+      <c r="AG97" s="224"/>
+      <c r="AH97" s="225"/>
+    </row>
+    <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="35"/>
       <c r="D98" s="37"/>
       <c r="E98" s="39">
-        <v>3</v>
-      </c>
-      <c r="F98" s="225"/>
-      <c r="G98" s="226"/>
-      <c r="H98" s="226"/>
-      <c r="I98" s="227"/>
-      <c r="J98" s="225"/>
-      <c r="K98" s="226"/>
-      <c r="L98" s="226"/>
-      <c r="M98" s="227"/>
-      <c r="N98" s="228"/>
-      <c r="O98" s="229"/>
-      <c r="P98" s="229"/>
-      <c r="Q98" s="229"/>
-      <c r="R98" s="229"/>
-      <c r="S98" s="215"/>
-      <c r="T98" s="215"/>
-      <c r="U98" s="215"/>
-      <c r="V98" s="215"/>
-      <c r="W98" s="230"/>
-      <c r="X98" s="231"/>
-      <c r="Y98" s="231"/>
-      <c r="Z98" s="231"/>
-      <c r="AA98" s="231"/>
-      <c r="AB98" s="231"/>
-      <c r="AC98" s="232"/>
-      <c r="AD98" s="230"/>
-      <c r="AE98" s="231"/>
-      <c r="AF98" s="231"/>
-      <c r="AG98" s="231"/>
-      <c r="AH98" s="232"/>
-    </row>
-    <row r="99" spans="3:34">
+        <v>4</v>
+      </c>
+      <c r="F98" s="256"/>
+      <c r="G98" s="257"/>
+      <c r="H98" s="257"/>
+      <c r="I98" s="258"/>
+      <c r="J98" s="256"/>
+      <c r="K98" s="257"/>
+      <c r="L98" s="257"/>
+      <c r="M98" s="258"/>
+      <c r="N98" s="226"/>
+      <c r="O98" s="227"/>
+      <c r="P98" s="227"/>
+      <c r="Q98" s="227"/>
+      <c r="R98" s="227"/>
+      <c r="S98" s="222"/>
+      <c r="T98" s="222"/>
+      <c r="U98" s="222"/>
+      <c r="V98" s="222"/>
+      <c r="W98" s="223"/>
+      <c r="X98" s="224"/>
+      <c r="Y98" s="224"/>
+      <c r="Z98" s="224"/>
+      <c r="AA98" s="224"/>
+      <c r="AB98" s="224"/>
+      <c r="AC98" s="225"/>
+      <c r="AD98" s="223"/>
+      <c r="AE98" s="224"/>
+      <c r="AF98" s="224"/>
+      <c r="AG98" s="224"/>
+      <c r="AH98" s="225"/>
+    </row>
+    <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="35"/>
       <c r="D99" s="37"/>
       <c r="E99" s="39">
-        <v>4</v>
-      </c>
-      <c r="F99" s="225"/>
-      <c r="G99" s="226"/>
-      <c r="H99" s="226"/>
-      <c r="I99" s="227"/>
-      <c r="J99" s="225"/>
-      <c r="K99" s="226"/>
-      <c r="L99" s="226"/>
-      <c r="M99" s="227"/>
-      <c r="N99" s="228"/>
-      <c r="O99" s="229"/>
-      <c r="P99" s="229"/>
-      <c r="Q99" s="229"/>
-      <c r="R99" s="229"/>
-      <c r="S99" s="215"/>
-      <c r="T99" s="215"/>
-      <c r="U99" s="215"/>
-      <c r="V99" s="215"/>
-      <c r="W99" s="230"/>
-      <c r="X99" s="231"/>
-      <c r="Y99" s="231"/>
-      <c r="Z99" s="231"/>
-      <c r="AA99" s="231"/>
-      <c r="AB99" s="231"/>
-      <c r="AC99" s="232"/>
-      <c r="AD99" s="230"/>
-      <c r="AE99" s="231"/>
-      <c r="AF99" s="231"/>
-      <c r="AG99" s="231"/>
-      <c r="AH99" s="232"/>
-    </row>
-    <row r="100" spans="3:34">
-      <c r="C100" s="35"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="39">
         <v>5</v>
       </c>
-      <c r="F100" s="225"/>
-      <c r="G100" s="226"/>
-      <c r="H100" s="226"/>
-      <c r="I100" s="227"/>
-      <c r="J100" s="225"/>
-      <c r="K100" s="226"/>
-      <c r="L100" s="226"/>
-      <c r="M100" s="227"/>
-      <c r="N100" s="228"/>
-      <c r="O100" s="229"/>
-      <c r="P100" s="229"/>
-      <c r="Q100" s="229"/>
-      <c r="R100" s="229"/>
-      <c r="S100" s="215"/>
-      <c r="T100" s="215"/>
-      <c r="U100" s="215"/>
-      <c r="V100" s="215"/>
-      <c r="W100" s="230"/>
-      <c r="X100" s="231"/>
-      <c r="Y100" s="231"/>
-      <c r="Z100" s="231"/>
-      <c r="AA100" s="231"/>
-      <c r="AB100" s="231"/>
-      <c r="AC100" s="232"/>
-      <c r="AD100" s="230"/>
-      <c r="AE100" s="231"/>
-      <c r="AF100" s="231"/>
-      <c r="AG100" s="231"/>
-      <c r="AH100" s="232"/>
+      <c r="F99" s="256"/>
+      <c r="G99" s="257"/>
+      <c r="H99" s="257"/>
+      <c r="I99" s="258"/>
+      <c r="J99" s="256"/>
+      <c r="K99" s="257"/>
+      <c r="L99" s="257"/>
+      <c r="M99" s="258"/>
+      <c r="N99" s="226"/>
+      <c r="O99" s="227"/>
+      <c r="P99" s="227"/>
+      <c r="Q99" s="227"/>
+      <c r="R99" s="227"/>
+      <c r="S99" s="222"/>
+      <c r="T99" s="222"/>
+      <c r="U99" s="222"/>
+      <c r="V99" s="222"/>
+      <c r="W99" s="223"/>
+      <c r="X99" s="224"/>
+      <c r="Y99" s="224"/>
+      <c r="Z99" s="224"/>
+      <c r="AA99" s="224"/>
+      <c r="AB99" s="224"/>
+      <c r="AC99" s="225"/>
+      <c r="AD99" s="223"/>
+      <c r="AE99" s="224"/>
+      <c r="AF99" s="224"/>
+      <c r="AG99" s="224"/>
+      <c r="AH99" s="225"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K17:AH18"/>
-    <mergeCell ref="K19:AH19"/>
-    <mergeCell ref="K20:AH20"/>
-    <mergeCell ref="K21:AH21"/>
-    <mergeCell ref="K22:AH22"/>
-    <mergeCell ref="K23:AH23"/>
-    <mergeCell ref="K24:AH24"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:J18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="S100:V100"/>
-    <mergeCell ref="W100:AC100"/>
-    <mergeCell ref="AD100:AH100"/>
+  <mergeCells count="103">
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="O88:AH88"/>
+    <mergeCell ref="F93:I94"/>
+    <mergeCell ref="J93:M94"/>
+    <mergeCell ref="AD93:AH94"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:AH17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:AH18"/>
     <mergeCell ref="N99:R99"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="W99:AC99"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O31:AH31"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="N93:V93"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="AD97:AH97"/>
     <mergeCell ref="N96:R96"/>
     <mergeCell ref="S96:V96"/>
     <mergeCell ref="W96:AC96"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="W93:AC94"/>
+    <mergeCell ref="N94:R94"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
@@ -14204,50 +14166,49 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="N100:R100"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
-    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="W99:AC99"/>
+    <mergeCell ref="AD99:AH99"/>
     <mergeCell ref="N98:R98"/>
     <mergeCell ref="S98:V98"/>
     <mergeCell ref="W98:AC98"/>
     <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="W94:AC95"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M88:N88"/>
     <mergeCell ref="N95:R95"/>
     <mergeCell ref="S95:V95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="O89:AH89"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="J94:M95"/>
-    <mergeCell ref="AD94:AH95"/>
+    <mergeCell ref="W95:AC95"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="K20:AH20"/>
+    <mergeCell ref="K21:AH21"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">
@@ -14268,8 +14229,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="34" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
+    <brk id="33" max="34" man="1"/>
+    <brk id="81" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -14284,42 +14245,42 @@
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="95" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="96" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="97" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="97" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="97" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="97" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="97" t="s">
         <v>63</v>
       </c>

--- a/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/010_システム機能設計/システム機能設計書(メッセージング)_(取引ID)_(取引名).xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. メッセージ取引概要'!$A$1:$AI$39</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.  取引ID(取引名)'!$A$1:$AI$101</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2.  取引ID(取引名)'!$A$1:$AI$100</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -37,7 +37,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E36" authorId="0">
+    <comment ref="E35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>電文/テーブル名</t>
     <rPh sb="0" eb="2">
@@ -480,19 +480,6 @@
     <phoneticPr fontId="11"/>
   </si>
   <si>
-    <t>埋め込み文字列</t>
-    <rPh sb="0" eb="1">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>モジレツ</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 種別一覧</t>
     <rPh sb="1" eb="3">
       <t>シュベツ</t>
@@ -543,23 +530,7 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>No.</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>メッセージID</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
     <t>2. [取引ID]([取引名])</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>【外部インターフェース定義書_XXX】を参照する。</t>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>エラーコード</t>
     <phoneticPr fontId="11"/>
   </si>
   <si>
@@ -569,6 +540,32 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>2. [取引ID]([取引名])</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>【外部インタフェース定義書_XXX】を参照する。</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>終了コード</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>障害コード</t>
+    <rPh sb="0" eb="2">
+      <t>ショウガイ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1004,7 +1001,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1308,192 +1305,195 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1572,14 +1572,86 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1590,6 +1662,15 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1608,6 +1689,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1617,152 +1701,41 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -4787,12 +4760,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="127" t="str">
+      <c r="I25" s="128" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="128"/>
       <c r="L25" s="25"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5427,53 +5400,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="155"/>
-      <c r="Z1" s="156"/>
-      <c r="AA1" s="143" t="s">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="173"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="175"/>
+      <c r="AA1" s="162" t="s">
         <v>22</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="164" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="183" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="165"/>
-      <c r="AI1" s="166"/>
+      <c r="AH1" s="184"/>
+      <c r="AI1" s="185"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -5481,51 +5454,51 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="158"/>
-      <c r="U2" s="158"/>
-      <c r="V2" s="158"/>
-      <c r="W2" s="158"/>
-      <c r="X2" s="158"/>
-      <c r="Y2" s="158"/>
-      <c r="Z2" s="159"/>
-      <c r="AA2" s="143" t="s">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="176"/>
+      <c r="T2" s="177"/>
+      <c r="U2" s="177"/>
+      <c r="V2" s="177"/>
+      <c r="W2" s="177"/>
+      <c r="X2" s="177"/>
+      <c r="Y2" s="177"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="162" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="167" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="168"/>
-      <c r="AE2" s="168"/>
-      <c r="AF2" s="169"/>
-      <c r="AG2" s="164" t="str">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="183" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="165"/>
-      <c r="AI2" s="166"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="185"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -5533,43 +5506,43 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="160"/>
-      <c r="T3" s="161"/>
-      <c r="U3" s="161"/>
-      <c r="V3" s="161"/>
-      <c r="W3" s="161"/>
-      <c r="X3" s="161"/>
-      <c r="Y3" s="161"/>
-      <c r="Z3" s="162"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="165"/>
-      <c r="AI3" s="166"/>
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="180"/>
+      <c r="U3" s="180"/>
+      <c r="V3" s="180"/>
+      <c r="W3" s="180"/>
+      <c r="X3" s="180"/>
+      <c r="Y3" s="180"/>
+      <c r="Z3" s="181"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144"/>
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="183"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="185"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -5708,52 +5681,52 @@
       <c r="A7" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="147" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="174"/>
-      <c r="D7" s="173" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="175"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="173" t="s">
+      <c r="E7" s="149"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="175"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="179" t="s">
-        <v>65</v>
-      </c>
-      <c r="K7" s="175"/>
-      <c r="L7" s="175"/>
-      <c r="M7" s="175"/>
-      <c r="N7" s="175"/>
-      <c r="O7" s="175"/>
-      <c r="P7" s="174"/>
-      <c r="Q7" s="173" t="s">
+      <c r="H7" s="149"/>
+      <c r="I7" s="148"/>
+      <c r="J7" s="155" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149"/>
+      <c r="O7" s="149"/>
+      <c r="P7" s="148"/>
+      <c r="Q7" s="147" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="175"/>
-      <c r="S7" s="175"/>
-      <c r="T7" s="175"/>
-      <c r="U7" s="175"/>
-      <c r="V7" s="175"/>
-      <c r="W7" s="175"/>
-      <c r="X7" s="175"/>
-      <c r="Y7" s="175"/>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="175"/>
-      <c r="AC7" s="175"/>
-      <c r="AD7" s="175"/>
-      <c r="AE7" s="174"/>
-      <c r="AF7" s="173" t="s">
+      <c r="R7" s="149"/>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="148"/>
+      <c r="AF7" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="175"/>
-      <c r="AH7" s="175"/>
-      <c r="AI7" s="174"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="148"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="33"/>
       <c r="AL7" s="33"/>
@@ -5762,40 +5735,40 @@
     </row>
     <row r="8" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="125"/>
-      <c r="B8" s="128"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="177"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="128"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="180"/>
-      <c r="K8" s="181"/>
-      <c r="L8" s="181"/>
-      <c r="M8" s="181"/>
-      <c r="N8" s="181"/>
-      <c r="O8" s="181"/>
-      <c r="P8" s="182"/>
-      <c r="Q8" s="183"/>
-      <c r="R8" s="184"/>
-      <c r="S8" s="184"/>
-      <c r="T8" s="184"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="184"/>
-      <c r="X8" s="184"/>
-      <c r="Y8" s="184"/>
-      <c r="Z8" s="184"/>
-      <c r="AA8" s="184"/>
-      <c r="AB8" s="184"/>
-      <c r="AC8" s="184"/>
-      <c r="AD8" s="184"/>
-      <c r="AE8" s="185"/>
-      <c r="AF8" s="180"/>
-      <c r="AG8" s="181"/>
-      <c r="AH8" s="181"/>
-      <c r="AI8" s="182"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="152"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="151"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="157"/>
+      <c r="L8" s="157"/>
+      <c r="M8" s="157"/>
+      <c r="N8" s="157"/>
+      <c r="O8" s="157"/>
+      <c r="P8" s="158"/>
+      <c r="Q8" s="159"/>
+      <c r="R8" s="160"/>
+      <c r="S8" s="160"/>
+      <c r="T8" s="160"/>
+      <c r="U8" s="160"/>
+      <c r="V8" s="160"/>
+      <c r="W8" s="160"/>
+      <c r="X8" s="160"/>
+      <c r="Y8" s="160"/>
+      <c r="Z8" s="160"/>
+      <c r="AA8" s="160"/>
+      <c r="AB8" s="160"/>
+      <c r="AC8" s="160"/>
+      <c r="AD8" s="160"/>
+      <c r="AE8" s="161"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="157"/>
+      <c r="AH8" s="157"/>
+      <c r="AI8" s="158"/>
       <c r="AJ8" s="33"/>
       <c r="AK8" s="33"/>
       <c r="AL8" s="33"/>
@@ -5804,40 +5777,40 @@
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="126"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="132"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="141"/>
-      <c r="L9" s="141"/>
-      <c r="M9" s="141"/>
-      <c r="N9" s="141"/>
-      <c r="O9" s="141"/>
-      <c r="P9" s="142"/>
-      <c r="Q9" s="137"/>
-      <c r="R9" s="138"/>
-      <c r="S9" s="138"/>
-      <c r="T9" s="138"/>
-      <c r="U9" s="138"/>
-      <c r="V9" s="138"/>
-      <c r="W9" s="138"/>
-      <c r="X9" s="138"/>
-      <c r="Y9" s="138"/>
-      <c r="Z9" s="138"/>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
-      <c r="AD9" s="138"/>
-      <c r="AE9" s="139"/>
-      <c r="AF9" s="140"/>
-      <c r="AG9" s="141"/>
-      <c r="AH9" s="141"/>
-      <c r="AI9" s="142"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="136"/>
+      <c r="L9" s="136"/>
+      <c r="M9" s="136"/>
+      <c r="N9" s="136"/>
+      <c r="O9" s="136"/>
+      <c r="P9" s="137"/>
+      <c r="Q9" s="138"/>
+      <c r="R9" s="139"/>
+      <c r="S9" s="139"/>
+      <c r="T9" s="139"/>
+      <c r="U9" s="139"/>
+      <c r="V9" s="139"/>
+      <c r="W9" s="139"/>
+      <c r="X9" s="139"/>
+      <c r="Y9" s="139"/>
+      <c r="Z9" s="139"/>
+      <c r="AA9" s="139"/>
+      <c r="AB9" s="139"/>
+      <c r="AC9" s="139"/>
+      <c r="AD9" s="139"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="135"/>
+      <c r="AG9" s="136"/>
+      <c r="AH9" s="136"/>
+      <c r="AI9" s="137"/>
       <c r="AJ9" s="33"/>
       <c r="AK9" s="33"/>
       <c r="AL9" s="33"/>
@@ -5846,40 +5819,40 @@
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="126"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="132"/>
-      <c r="D10" s="133"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="132"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="141"/>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="138"/>
-      <c r="S10" s="138"/>
-      <c r="T10" s="138"/>
-      <c r="U10" s="138"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="139"/>
-      <c r="AF10" s="140"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="142"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="136"/>
+      <c r="L10" s="136"/>
+      <c r="M10" s="136"/>
+      <c r="N10" s="136"/>
+      <c r="O10" s="136"/>
+      <c r="P10" s="137"/>
+      <c r="Q10" s="138"/>
+      <c r="R10" s="139"/>
+      <c r="S10" s="139"/>
+      <c r="T10" s="139"/>
+      <c r="U10" s="139"/>
+      <c r="V10" s="139"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="136"/>
+      <c r="AH10" s="136"/>
+      <c r="AI10" s="137"/>
       <c r="AJ10" s="33"/>
       <c r="AK10" s="33"/>
       <c r="AL10" s="33"/>
@@ -5888,40 +5861,40 @@
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="126"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="133"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="141"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="141"/>
-      <c r="N11" s="141"/>
-      <c r="O11" s="141"/>
-      <c r="P11" s="142"/>
-      <c r="Q11" s="137"/>
-      <c r="R11" s="138"/>
-      <c r="S11" s="138"/>
-      <c r="T11" s="138"/>
-      <c r="U11" s="138"/>
-      <c r="V11" s="138"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="139"/>
-      <c r="AF11" s="140"/>
-      <c r="AG11" s="141"/>
-      <c r="AH11" s="141"/>
-      <c r="AI11" s="142"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
+      <c r="M11" s="136"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="136"/>
+      <c r="P11" s="137"/>
+      <c r="Q11" s="138"/>
+      <c r="R11" s="139"/>
+      <c r="S11" s="139"/>
+      <c r="T11" s="139"/>
+      <c r="U11" s="139"/>
+      <c r="V11" s="139"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="136"/>
+      <c r="AH11" s="136"/>
+      <c r="AI11" s="137"/>
       <c r="AJ11" s="33"/>
       <c r="AK11" s="33"/>
       <c r="AL11" s="33"/>
@@ -5930,40 +5903,40 @@
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="126"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="141"/>
-      <c r="N12" s="141"/>
-      <c r="O12" s="141"/>
-      <c r="P12" s="142"/>
-      <c r="Q12" s="137"/>
-      <c r="R12" s="138"/>
-      <c r="S12" s="138"/>
-      <c r="T12" s="138"/>
-      <c r="U12" s="138"/>
-      <c r="V12" s="138"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="139"/>
-      <c r="AF12" s="140"/>
-      <c r="AG12" s="141"/>
-      <c r="AH12" s="141"/>
-      <c r="AI12" s="142"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="136"/>
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="136"/>
+      <c r="P12" s="137"/>
+      <c r="Q12" s="138"/>
+      <c r="R12" s="139"/>
+      <c r="S12" s="139"/>
+      <c r="T12" s="139"/>
+      <c r="U12" s="139"/>
+      <c r="V12" s="139"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="140"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="136"/>
+      <c r="AH12" s="136"/>
+      <c r="AI12" s="137"/>
       <c r="AJ12" s="33"/>
       <c r="AK12" s="33"/>
       <c r="AL12" s="33"/>
@@ -5972,40 +5945,40 @@
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="126"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="141"/>
-      <c r="N13" s="141"/>
-      <c r="O13" s="141"/>
-      <c r="P13" s="142"/>
-      <c r="Q13" s="137"/>
-      <c r="R13" s="138"/>
-      <c r="S13" s="138"/>
-      <c r="T13" s="138"/>
-      <c r="U13" s="138"/>
-      <c r="V13" s="138"/>
-      <c r="W13" s="138"/>
-      <c r="X13" s="138"/>
-      <c r="Y13" s="138"/>
-      <c r="Z13" s="138"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
-      <c r="AD13" s="138"/>
-      <c r="AE13" s="139"/>
-      <c r="AF13" s="140"/>
-      <c r="AG13" s="141"/>
-      <c r="AH13" s="141"/>
-      <c r="AI13" s="142"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="136"/>
+      <c r="L13" s="136"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="137"/>
+      <c r="Q13" s="138"/>
+      <c r="R13" s="139"/>
+      <c r="S13" s="139"/>
+      <c r="T13" s="139"/>
+      <c r="U13" s="139"/>
+      <c r="V13" s="139"/>
+      <c r="W13" s="139"/>
+      <c r="X13" s="139"/>
+      <c r="Y13" s="139"/>
+      <c r="Z13" s="139"/>
+      <c r="AA13" s="139"/>
+      <c r="AB13" s="139"/>
+      <c r="AC13" s="139"/>
+      <c r="AD13" s="139"/>
+      <c r="AE13" s="140"/>
+      <c r="AF13" s="135"/>
+      <c r="AG13" s="136"/>
+      <c r="AH13" s="136"/>
+      <c r="AI13" s="137"/>
       <c r="AJ13" s="33"/>
       <c r="AK13" s="33"/>
       <c r="AL13" s="33"/>
@@ -6014,40 +5987,40 @@
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="126"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="132"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="141"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="141"/>
-      <c r="N14" s="141"/>
-      <c r="O14" s="141"/>
-      <c r="P14" s="142"/>
-      <c r="Q14" s="137"/>
-      <c r="R14" s="138"/>
-      <c r="S14" s="138"/>
-      <c r="T14" s="138"/>
-      <c r="U14" s="138"/>
-      <c r="V14" s="138"/>
-      <c r="W14" s="138"/>
-      <c r="X14" s="138"/>
-      <c r="Y14" s="138"/>
-      <c r="Z14" s="138"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
-      <c r="AD14" s="138"/>
-      <c r="AE14" s="139"/>
-      <c r="AF14" s="140"/>
-      <c r="AG14" s="141"/>
-      <c r="AH14" s="141"/>
-      <c r="AI14" s="142"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="136"/>
+      <c r="L14" s="136"/>
+      <c r="M14" s="136"/>
+      <c r="N14" s="136"/>
+      <c r="O14" s="136"/>
+      <c r="P14" s="137"/>
+      <c r="Q14" s="138"/>
+      <c r="R14" s="139"/>
+      <c r="S14" s="139"/>
+      <c r="T14" s="139"/>
+      <c r="U14" s="139"/>
+      <c r="V14" s="139"/>
+      <c r="W14" s="139"/>
+      <c r="X14" s="139"/>
+      <c r="Y14" s="139"/>
+      <c r="Z14" s="139"/>
+      <c r="AA14" s="139"/>
+      <c r="AB14" s="139"/>
+      <c r="AC14" s="139"/>
+      <c r="AD14" s="139"/>
+      <c r="AE14" s="140"/>
+      <c r="AF14" s="135"/>
+      <c r="AG14" s="136"/>
+      <c r="AH14" s="136"/>
+      <c r="AI14" s="137"/>
       <c r="AJ14" s="33"/>
       <c r="AK14" s="33"/>
       <c r="AL14" s="33"/>
@@ -6056,40 +6029,40 @@
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="126"/>
-      <c r="B15" s="131"/>
-      <c r="C15" s="132"/>
-      <c r="D15" s="133"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="131"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="132"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="141"/>
-      <c r="L15" s="141"/>
-      <c r="M15" s="141"/>
-      <c r="N15" s="141"/>
-      <c r="O15" s="141"/>
-      <c r="P15" s="142"/>
-      <c r="Q15" s="137"/>
-      <c r="R15" s="138"/>
-      <c r="S15" s="138"/>
-      <c r="T15" s="138"/>
-      <c r="U15" s="138"/>
-      <c r="V15" s="138"/>
-      <c r="W15" s="138"/>
-      <c r="X15" s="138"/>
-      <c r="Y15" s="138"/>
-      <c r="Z15" s="138"/>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
-      <c r="AD15" s="138"/>
-      <c r="AE15" s="139"/>
-      <c r="AF15" s="140"/>
-      <c r="AG15" s="141"/>
-      <c r="AH15" s="141"/>
-      <c r="AI15" s="142"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="136"/>
+      <c r="L15" s="136"/>
+      <c r="M15" s="136"/>
+      <c r="N15" s="136"/>
+      <c r="O15" s="136"/>
+      <c r="P15" s="137"/>
+      <c r="Q15" s="138"/>
+      <c r="R15" s="139"/>
+      <c r="S15" s="139"/>
+      <c r="T15" s="139"/>
+      <c r="U15" s="139"/>
+      <c r="V15" s="139"/>
+      <c r="W15" s="139"/>
+      <c r="X15" s="139"/>
+      <c r="Y15" s="139"/>
+      <c r="Z15" s="139"/>
+      <c r="AA15" s="139"/>
+      <c r="AB15" s="139"/>
+      <c r="AC15" s="139"/>
+      <c r="AD15" s="139"/>
+      <c r="AE15" s="140"/>
+      <c r="AF15" s="135"/>
+      <c r="AG15" s="136"/>
+      <c r="AH15" s="136"/>
+      <c r="AI15" s="137"/>
       <c r="AJ15" s="33"/>
       <c r="AK15" s="33"/>
       <c r="AL15" s="33"/>
@@ -6098,40 +6071,40 @@
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="126"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="132"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="135"/>
-      <c r="G16" s="131"/>
-      <c r="H16" s="136"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="141"/>
-      <c r="L16" s="141"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="141"/>
-      <c r="O16" s="141"/>
-      <c r="P16" s="142"/>
-      <c r="Q16" s="137"/>
-      <c r="R16" s="138"/>
-      <c r="S16" s="138"/>
-      <c r="T16" s="138"/>
-      <c r="U16" s="138"/>
-      <c r="V16" s="138"/>
-      <c r="W16" s="138"/>
-      <c r="X16" s="138"/>
-      <c r="Y16" s="138"/>
-      <c r="Z16" s="138"/>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
-      <c r="AD16" s="138"/>
-      <c r="AE16" s="139"/>
-      <c r="AF16" s="140"/>
-      <c r="AG16" s="141"/>
-      <c r="AH16" s="141"/>
-      <c r="AI16" s="142"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="137"/>
+      <c r="Q16" s="138"/>
+      <c r="R16" s="139"/>
+      <c r="S16" s="139"/>
+      <c r="T16" s="139"/>
+      <c r="U16" s="139"/>
+      <c r="V16" s="139"/>
+      <c r="W16" s="139"/>
+      <c r="X16" s="139"/>
+      <c r="Y16" s="139"/>
+      <c r="Z16" s="139"/>
+      <c r="AA16" s="139"/>
+      <c r="AB16" s="139"/>
+      <c r="AC16" s="139"/>
+      <c r="AD16" s="139"/>
+      <c r="AE16" s="140"/>
+      <c r="AF16" s="135"/>
+      <c r="AG16" s="136"/>
+      <c r="AH16" s="136"/>
+      <c r="AI16" s="137"/>
       <c r="AJ16" s="33"/>
       <c r="AK16" s="33"/>
       <c r="AL16" s="33"/>
@@ -6140,40 +6113,40 @@
     </row>
     <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="126"/>
-      <c r="B17" s="131"/>
-      <c r="C17" s="132"/>
-      <c r="D17" s="133"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="135"/>
-      <c r="G17" s="131"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="141"/>
-      <c r="M17" s="141"/>
-      <c r="N17" s="141"/>
-      <c r="O17" s="141"/>
-      <c r="P17" s="142"/>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="138"/>
-      <c r="S17" s="138"/>
-      <c r="T17" s="138"/>
-      <c r="U17" s="138"/>
-      <c r="V17" s="138"/>
-      <c r="W17" s="138"/>
-      <c r="X17" s="138"/>
-      <c r="Y17" s="138"/>
-      <c r="Z17" s="138"/>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
-      <c r="AD17" s="138"/>
-      <c r="AE17" s="139"/>
-      <c r="AF17" s="140"/>
-      <c r="AG17" s="141"/>
-      <c r="AH17" s="141"/>
-      <c r="AI17" s="142"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="135"/>
+      <c r="K17" s="136"/>
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="136"/>
+      <c r="P17" s="137"/>
+      <c r="Q17" s="138"/>
+      <c r="R17" s="139"/>
+      <c r="S17" s="139"/>
+      <c r="T17" s="139"/>
+      <c r="U17" s="139"/>
+      <c r="V17" s="139"/>
+      <c r="W17" s="139"/>
+      <c r="X17" s="139"/>
+      <c r="Y17" s="139"/>
+      <c r="Z17" s="139"/>
+      <c r="AA17" s="139"/>
+      <c r="AB17" s="139"/>
+      <c r="AC17" s="139"/>
+      <c r="AD17" s="139"/>
+      <c r="AE17" s="140"/>
+      <c r="AF17" s="135"/>
+      <c r="AG17" s="136"/>
+      <c r="AH17" s="136"/>
+      <c r="AI17" s="137"/>
       <c r="AJ17" s="33"/>
       <c r="AK17" s="33"/>
       <c r="AL17" s="33"/>
@@ -6182,40 +6155,40 @@
     </row>
     <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="126"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="132"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="131"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="141"/>
-      <c r="L18" s="141"/>
-      <c r="M18" s="141"/>
-      <c r="N18" s="141"/>
-      <c r="O18" s="141"/>
-      <c r="P18" s="142"/>
-      <c r="Q18" s="137"/>
-      <c r="R18" s="138"/>
-      <c r="S18" s="138"/>
-      <c r="T18" s="138"/>
-      <c r="U18" s="138"/>
-      <c r="V18" s="138"/>
-      <c r="W18" s="138"/>
-      <c r="X18" s="138"/>
-      <c r="Y18" s="138"/>
-      <c r="Z18" s="138"/>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
-      <c r="AD18" s="138"/>
-      <c r="AE18" s="139"/>
-      <c r="AF18" s="140"/>
-      <c r="AG18" s="141"/>
-      <c r="AH18" s="141"/>
-      <c r="AI18" s="142"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="136"/>
+      <c r="L18" s="136"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="136"/>
+      <c r="O18" s="136"/>
+      <c r="P18" s="137"/>
+      <c r="Q18" s="138"/>
+      <c r="R18" s="139"/>
+      <c r="S18" s="139"/>
+      <c r="T18" s="139"/>
+      <c r="U18" s="139"/>
+      <c r="V18" s="139"/>
+      <c r="W18" s="139"/>
+      <c r="X18" s="139"/>
+      <c r="Y18" s="139"/>
+      <c r="Z18" s="139"/>
+      <c r="AA18" s="139"/>
+      <c r="AB18" s="139"/>
+      <c r="AC18" s="139"/>
+      <c r="AD18" s="139"/>
+      <c r="AE18" s="140"/>
+      <c r="AF18" s="135"/>
+      <c r="AG18" s="136"/>
+      <c r="AH18" s="136"/>
+      <c r="AI18" s="137"/>
       <c r="AJ18" s="33"/>
       <c r="AK18" s="33"/>
       <c r="AL18" s="33"/>
@@ -6224,40 +6197,40 @@
     </row>
     <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="126"/>
-      <c r="B19" s="131"/>
-      <c r="C19" s="132"/>
-      <c r="D19" s="133"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="135"/>
-      <c r="G19" s="131"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="141"/>
-      <c r="L19" s="141"/>
-      <c r="M19" s="141"/>
-      <c r="N19" s="141"/>
-      <c r="O19" s="141"/>
-      <c r="P19" s="142"/>
-      <c r="Q19" s="137"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="138"/>
-      <c r="W19" s="138"/>
-      <c r="X19" s="138"/>
-      <c r="Y19" s="138"/>
-      <c r="Z19" s="138"/>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
-      <c r="AD19" s="138"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="140"/>
-      <c r="AG19" s="141"/>
-      <c r="AH19" s="141"/>
-      <c r="AI19" s="142"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="136"/>
+      <c r="L19" s="136"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="136"/>
+      <c r="O19" s="136"/>
+      <c r="P19" s="137"/>
+      <c r="Q19" s="138"/>
+      <c r="R19" s="139"/>
+      <c r="S19" s="139"/>
+      <c r="T19" s="139"/>
+      <c r="U19" s="139"/>
+      <c r="V19" s="139"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="140"/>
+      <c r="AF19" s="135"/>
+      <c r="AG19" s="136"/>
+      <c r="AH19" s="136"/>
+      <c r="AI19" s="137"/>
       <c r="AJ19" s="33"/>
       <c r="AK19" s="33"/>
       <c r="AL19" s="33"/>
@@ -6266,40 +6239,40 @@
     </row>
     <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="126"/>
-      <c r="B20" s="131"/>
-      <c r="C20" s="132"/>
-      <c r="D20" s="133"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="135"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="140"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-      <c r="M20" s="141"/>
-      <c r="N20" s="141"/>
-      <c r="O20" s="141"/>
-      <c r="P20" s="142"/>
-      <c r="Q20" s="137"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="138"/>
-      <c r="X20" s="138"/>
-      <c r="Y20" s="138"/>
-      <c r="Z20" s="138"/>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="138"/>
-      <c r="AE20" s="139"/>
-      <c r="AF20" s="140"/>
-      <c r="AG20" s="141"/>
-      <c r="AH20" s="141"/>
-      <c r="AI20" s="142"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="136"/>
+      <c r="L20" s="136"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="136"/>
+      <c r="O20" s="136"/>
+      <c r="P20" s="137"/>
+      <c r="Q20" s="138"/>
+      <c r="R20" s="139"/>
+      <c r="S20" s="139"/>
+      <c r="T20" s="139"/>
+      <c r="U20" s="139"/>
+      <c r="V20" s="139"/>
+      <c r="W20" s="139"/>
+      <c r="X20" s="139"/>
+      <c r="Y20" s="139"/>
+      <c r="Z20" s="139"/>
+      <c r="AA20" s="139"/>
+      <c r="AB20" s="139"/>
+      <c r="AC20" s="139"/>
+      <c r="AD20" s="139"/>
+      <c r="AE20" s="140"/>
+      <c r="AF20" s="135"/>
+      <c r="AG20" s="136"/>
+      <c r="AH20" s="136"/>
+      <c r="AI20" s="137"/>
       <c r="AJ20" s="33"/>
       <c r="AK20" s="33"/>
       <c r="AL20" s="33"/>
@@ -6308,40 +6281,40 @@
     </row>
     <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="126"/>
-      <c r="B21" s="131"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="135"/>
-      <c r="G21" s="131"/>
-      <c r="H21" s="136"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="140"/>
-      <c r="K21" s="141"/>
-      <c r="L21" s="141"/>
-      <c r="M21" s="141"/>
-      <c r="N21" s="141"/>
-      <c r="O21" s="141"/>
-      <c r="P21" s="142"/>
-      <c r="Q21" s="137"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="138"/>
-      <c r="X21" s="138"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="138"/>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="138"/>
-      <c r="AE21" s="139"/>
-      <c r="AF21" s="140"/>
-      <c r="AG21" s="141"/>
-      <c r="AH21" s="141"/>
-      <c r="AI21" s="142"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="136"/>
+      <c r="L21" s="136"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="136"/>
+      <c r="O21" s="136"/>
+      <c r="P21" s="137"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="139"/>
+      <c r="S21" s="139"/>
+      <c r="T21" s="139"/>
+      <c r="U21" s="139"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="139"/>
+      <c r="X21" s="139"/>
+      <c r="Y21" s="139"/>
+      <c r="Z21" s="139"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="139"/>
+      <c r="AC21" s="139"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="140"/>
+      <c r="AF21" s="135"/>
+      <c r="AG21" s="136"/>
+      <c r="AH21" s="136"/>
+      <c r="AI21" s="137"/>
       <c r="AJ21" s="33"/>
       <c r="AK21" s="33"/>
       <c r="AL21" s="33"/>
@@ -6350,40 +6323,40 @@
     </row>
     <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="126"/>
-      <c r="B22" s="131"/>
-      <c r="C22" s="132"/>
-      <c r="D22" s="133"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="141"/>
-      <c r="L22" s="141"/>
-      <c r="M22" s="141"/>
-      <c r="N22" s="141"/>
-      <c r="O22" s="141"/>
-      <c r="P22" s="142"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="138"/>
-      <c r="X22" s="138"/>
-      <c r="Y22" s="138"/>
-      <c r="Z22" s="138"/>
-      <c r="AA22" s="138"/>
-      <c r="AB22" s="138"/>
-      <c r="AC22" s="138"/>
-      <c r="AD22" s="138"/>
-      <c r="AE22" s="139"/>
-      <c r="AF22" s="140"/>
-      <c r="AG22" s="141"/>
-      <c r="AH22" s="141"/>
-      <c r="AI22" s="142"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="136"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="136"/>
+      <c r="O22" s="136"/>
+      <c r="P22" s="137"/>
+      <c r="Q22" s="138"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
+      <c r="V22" s="139"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="140"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="137"/>
       <c r="AJ22" s="33"/>
       <c r="AK22" s="33"/>
       <c r="AL22" s="33"/>
@@ -6392,40 +6365,40 @@
     </row>
     <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="126"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="132"/>
-      <c r="D23" s="133"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="135"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="140"/>
-      <c r="K23" s="141"/>
-      <c r="L23" s="141"/>
-      <c r="M23" s="141"/>
-      <c r="N23" s="141"/>
-      <c r="O23" s="141"/>
-      <c r="P23" s="142"/>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
-      <c r="V23" s="138"/>
-      <c r="W23" s="138"/>
-      <c r="X23" s="138"/>
-      <c r="Y23" s="138"/>
-      <c r="Z23" s="138"/>
-      <c r="AA23" s="138"/>
-      <c r="AB23" s="138"/>
-      <c r="AC23" s="138"/>
-      <c r="AD23" s="138"/>
-      <c r="AE23" s="139"/>
-      <c r="AF23" s="140"/>
-      <c r="AG23" s="141"/>
-      <c r="AH23" s="141"/>
-      <c r="AI23" s="142"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="136"/>
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="136"/>
+      <c r="P23" s="137"/>
+      <c r="Q23" s="138"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="140"/>
+      <c r="AF23" s="135"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="137"/>
       <c r="AJ23" s="33"/>
       <c r="AK23" s="33"/>
       <c r="AL23" s="33"/>
@@ -6434,40 +6407,40 @@
     </row>
     <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="126"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="132"/>
-      <c r="D24" s="133"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="136"/>
-      <c r="I24" s="132"/>
-      <c r="J24" s="140"/>
-      <c r="K24" s="141"/>
-      <c r="L24" s="141"/>
-      <c r="M24" s="141"/>
-      <c r="N24" s="141"/>
-      <c r="O24" s="141"/>
-      <c r="P24" s="142"/>
-      <c r="Q24" s="137"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="138"/>
-      <c r="W24" s="138"/>
-      <c r="X24" s="138"/>
-      <c r="Y24" s="138"/>
-      <c r="Z24" s="138"/>
-      <c r="AA24" s="138"/>
-      <c r="AB24" s="138"/>
-      <c r="AC24" s="138"/>
-      <c r="AD24" s="138"/>
-      <c r="AE24" s="139"/>
-      <c r="AF24" s="140"/>
-      <c r="AG24" s="141"/>
-      <c r="AH24" s="141"/>
-      <c r="AI24" s="142"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="136"/>
+      <c r="L24" s="136"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="136"/>
+      <c r="O24" s="136"/>
+      <c r="P24" s="137"/>
+      <c r="Q24" s="138"/>
+      <c r="R24" s="139"/>
+      <c r="S24" s="139"/>
+      <c r="T24" s="139"/>
+      <c r="U24" s="139"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="139"/>
+      <c r="X24" s="139"/>
+      <c r="Y24" s="139"/>
+      <c r="Z24" s="139"/>
+      <c r="AA24" s="139"/>
+      <c r="AB24" s="139"/>
+      <c r="AC24" s="139"/>
+      <c r="AD24" s="139"/>
+      <c r="AE24" s="140"/>
+      <c r="AF24" s="135"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="137"/>
       <c r="AJ24" s="33"/>
       <c r="AK24" s="33"/>
       <c r="AL24" s="33"/>
@@ -6476,40 +6449,40 @@
     </row>
     <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="126"/>
-      <c r="B25" s="131"/>
-      <c r="C25" s="132"/>
-      <c r="D25" s="133"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="135"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="140"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="O25" s="141"/>
-      <c r="P25" s="142"/>
-      <c r="Q25" s="137"/>
-      <c r="R25" s="138"/>
-      <c r="S25" s="138"/>
-      <c r="T25" s="138"/>
-      <c r="U25" s="138"/>
-      <c r="V25" s="138"/>
-      <c r="W25" s="138"/>
-      <c r="X25" s="138"/>
-      <c r="Y25" s="138"/>
-      <c r="Z25" s="138"/>
-      <c r="AA25" s="138"/>
-      <c r="AB25" s="138"/>
-      <c r="AC25" s="138"/>
-      <c r="AD25" s="138"/>
-      <c r="AE25" s="139"/>
-      <c r="AF25" s="140"/>
-      <c r="AG25" s="141"/>
-      <c r="AH25" s="141"/>
-      <c r="AI25" s="142"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="O25" s="136"/>
+      <c r="P25" s="137"/>
+      <c r="Q25" s="138"/>
+      <c r="R25" s="139"/>
+      <c r="S25" s="139"/>
+      <c r="T25" s="139"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="140"/>
+      <c r="AF25" s="135"/>
+      <c r="AG25" s="136"/>
+      <c r="AH25" s="136"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="33"/>
       <c r="AK25" s="33"/>
       <c r="AL25" s="33"/>
@@ -6518,40 +6491,40 @@
     </row>
     <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="126"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="132"/>
-      <c r="D26" s="133"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="140"/>
-      <c r="K26" s="141"/>
-      <c r="L26" s="141"/>
-      <c r="M26" s="141"/>
-      <c r="N26" s="141"/>
-      <c r="O26" s="141"/>
-      <c r="P26" s="142"/>
-      <c r="Q26" s="137"/>
-      <c r="R26" s="138"/>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
-      <c r="V26" s="138"/>
-      <c r="W26" s="138"/>
-      <c r="X26" s="138"/>
-      <c r="Y26" s="138"/>
-      <c r="Z26" s="138"/>
-      <c r="AA26" s="138"/>
-      <c r="AB26" s="138"/>
-      <c r="AC26" s="138"/>
-      <c r="AD26" s="138"/>
-      <c r="AE26" s="139"/>
-      <c r="AF26" s="140"/>
-      <c r="AG26" s="141"/>
-      <c r="AH26" s="141"/>
-      <c r="AI26" s="142"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="136"/>
+      <c r="O26" s="136"/>
+      <c r="P26" s="137"/>
+      <c r="Q26" s="138"/>
+      <c r="R26" s="139"/>
+      <c r="S26" s="139"/>
+      <c r="T26" s="139"/>
+      <c r="U26" s="139"/>
+      <c r="V26" s="139"/>
+      <c r="W26" s="139"/>
+      <c r="X26" s="139"/>
+      <c r="Y26" s="139"/>
+      <c r="Z26" s="139"/>
+      <c r="AA26" s="139"/>
+      <c r="AB26" s="139"/>
+      <c r="AC26" s="139"/>
+      <c r="AD26" s="139"/>
+      <c r="AE26" s="140"/>
+      <c r="AF26" s="135"/>
+      <c r="AG26" s="136"/>
+      <c r="AH26" s="136"/>
+      <c r="AI26" s="137"/>
       <c r="AJ26" s="33"/>
       <c r="AK26" s="33"/>
       <c r="AL26" s="33"/>
@@ -6560,40 +6533,40 @@
     </row>
     <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="126"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="132"/>
-      <c r="D27" s="133"/>
-      <c r="E27" s="134"/>
-      <c r="F27" s="135"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="136"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="140"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="141"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141"/>
-      <c r="O27" s="141"/>
-      <c r="P27" s="142"/>
-      <c r="Q27" s="137"/>
-      <c r="R27" s="138"/>
-      <c r="S27" s="138"/>
-      <c r="T27" s="138"/>
-      <c r="U27" s="138"/>
-      <c r="V27" s="138"/>
-      <c r="W27" s="138"/>
-      <c r="X27" s="138"/>
-      <c r="Y27" s="138"/>
-      <c r="Z27" s="138"/>
-      <c r="AA27" s="138"/>
-      <c r="AB27" s="138"/>
-      <c r="AC27" s="138"/>
-      <c r="AD27" s="138"/>
-      <c r="AE27" s="139"/>
-      <c r="AF27" s="140"/>
-      <c r="AG27" s="141"/>
-      <c r="AH27" s="141"/>
-      <c r="AI27" s="142"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="136"/>
+      <c r="L27" s="136"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="136"/>
+      <c r="O27" s="136"/>
+      <c r="P27" s="137"/>
+      <c r="Q27" s="138"/>
+      <c r="R27" s="139"/>
+      <c r="S27" s="139"/>
+      <c r="T27" s="139"/>
+      <c r="U27" s="139"/>
+      <c r="V27" s="139"/>
+      <c r="W27" s="139"/>
+      <c r="X27" s="139"/>
+      <c r="Y27" s="139"/>
+      <c r="Z27" s="139"/>
+      <c r="AA27" s="139"/>
+      <c r="AB27" s="139"/>
+      <c r="AC27" s="139"/>
+      <c r="AD27" s="139"/>
+      <c r="AE27" s="140"/>
+      <c r="AF27" s="135"/>
+      <c r="AG27" s="136"/>
+      <c r="AH27" s="136"/>
+      <c r="AI27" s="137"/>
       <c r="AJ27" s="33"/>
       <c r="AK27" s="33"/>
       <c r="AL27" s="33"/>
@@ -6602,40 +6575,40 @@
     </row>
     <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="126"/>
-      <c r="B28" s="131"/>
-      <c r="C28" s="132"/>
-      <c r="D28" s="133"/>
-      <c r="E28" s="134"/>
-      <c r="F28" s="135"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="140"/>
-      <c r="K28" s="141"/>
-      <c r="L28" s="141"/>
-      <c r="M28" s="141"/>
-      <c r="N28" s="141"/>
-      <c r="O28" s="141"/>
-      <c r="P28" s="142"/>
-      <c r="Q28" s="137"/>
-      <c r="R28" s="138"/>
-      <c r="S28" s="138"/>
-      <c r="T28" s="138"/>
-      <c r="U28" s="138"/>
-      <c r="V28" s="138"/>
-      <c r="W28" s="138"/>
-      <c r="X28" s="138"/>
-      <c r="Y28" s="138"/>
-      <c r="Z28" s="138"/>
-      <c r="AA28" s="138"/>
-      <c r="AB28" s="138"/>
-      <c r="AC28" s="138"/>
-      <c r="AD28" s="138"/>
-      <c r="AE28" s="139"/>
-      <c r="AF28" s="140"/>
-      <c r="AG28" s="141"/>
-      <c r="AH28" s="141"/>
-      <c r="AI28" s="142"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="136"/>
+      <c r="L28" s="136"/>
+      <c r="M28" s="136"/>
+      <c r="N28" s="136"/>
+      <c r="O28" s="136"/>
+      <c r="P28" s="137"/>
+      <c r="Q28" s="138"/>
+      <c r="R28" s="139"/>
+      <c r="S28" s="139"/>
+      <c r="T28" s="139"/>
+      <c r="U28" s="139"/>
+      <c r="V28" s="139"/>
+      <c r="W28" s="139"/>
+      <c r="X28" s="139"/>
+      <c r="Y28" s="139"/>
+      <c r="Z28" s="139"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="139"/>
+      <c r="AC28" s="139"/>
+      <c r="AD28" s="139"/>
+      <c r="AE28" s="140"/>
+      <c r="AF28" s="135"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="137"/>
       <c r="AJ28" s="33"/>
       <c r="AK28" s="33"/>
       <c r="AL28" s="33"/>
@@ -6644,40 +6617,40 @@
     </row>
     <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="126"/>
-      <c r="B29" s="131"/>
-      <c r="C29" s="132"/>
-      <c r="D29" s="133"/>
-      <c r="E29" s="134"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="141"/>
-      <c r="L29" s="141"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="141"/>
-      <c r="P29" s="142"/>
-      <c r="Q29" s="137"/>
-      <c r="R29" s="138"/>
-      <c r="S29" s="138"/>
-      <c r="T29" s="138"/>
-      <c r="U29" s="138"/>
-      <c r="V29" s="138"/>
-      <c r="W29" s="138"/>
-      <c r="X29" s="138"/>
-      <c r="Y29" s="138"/>
-      <c r="Z29" s="138"/>
-      <c r="AA29" s="138"/>
-      <c r="AB29" s="138"/>
-      <c r="AC29" s="138"/>
-      <c r="AD29" s="138"/>
-      <c r="AE29" s="139"/>
-      <c r="AF29" s="140"/>
-      <c r="AG29" s="141"/>
-      <c r="AH29" s="141"/>
-      <c r="AI29" s="142"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="136"/>
+      <c r="L29" s="136"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="136"/>
+      <c r="O29" s="136"/>
+      <c r="P29" s="137"/>
+      <c r="Q29" s="138"/>
+      <c r="R29" s="139"/>
+      <c r="S29" s="139"/>
+      <c r="T29" s="139"/>
+      <c r="U29" s="139"/>
+      <c r="V29" s="139"/>
+      <c r="W29" s="139"/>
+      <c r="X29" s="139"/>
+      <c r="Y29" s="139"/>
+      <c r="Z29" s="139"/>
+      <c r="AA29" s="139"/>
+      <c r="AB29" s="139"/>
+      <c r="AC29" s="139"/>
+      <c r="AD29" s="139"/>
+      <c r="AE29" s="140"/>
+      <c r="AF29" s="135"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="137"/>
       <c r="AJ29" s="33"/>
       <c r="AK29" s="33"/>
       <c r="AL29" s="33"/>
@@ -6686,40 +6659,40 @@
     </row>
     <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="126"/>
-      <c r="B30" s="131"/>
-      <c r="C30" s="132"/>
-      <c r="D30" s="133"/>
-      <c r="E30" s="134"/>
-      <c r="F30" s="135"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="141"/>
-      <c r="L30" s="141"/>
-      <c r="M30" s="141"/>
-      <c r="N30" s="141"/>
-      <c r="O30" s="141"/>
-      <c r="P30" s="142"/>
-      <c r="Q30" s="137"/>
-      <c r="R30" s="138"/>
-      <c r="S30" s="138"/>
-      <c r="T30" s="138"/>
-      <c r="U30" s="138"/>
-      <c r="V30" s="138"/>
-      <c r="W30" s="138"/>
-      <c r="X30" s="138"/>
-      <c r="Y30" s="138"/>
-      <c r="Z30" s="138"/>
-      <c r="AA30" s="138"/>
-      <c r="AB30" s="138"/>
-      <c r="AC30" s="138"/>
-      <c r="AD30" s="138"/>
-      <c r="AE30" s="139"/>
-      <c r="AF30" s="140"/>
-      <c r="AG30" s="141"/>
-      <c r="AH30" s="141"/>
-      <c r="AI30" s="142"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="136"/>
+      <c r="P30" s="137"/>
+      <c r="Q30" s="138"/>
+      <c r="R30" s="139"/>
+      <c r="S30" s="139"/>
+      <c r="T30" s="139"/>
+      <c r="U30" s="139"/>
+      <c r="V30" s="139"/>
+      <c r="W30" s="139"/>
+      <c r="X30" s="139"/>
+      <c r="Y30" s="139"/>
+      <c r="Z30" s="139"/>
+      <c r="AA30" s="139"/>
+      <c r="AB30" s="139"/>
+      <c r="AC30" s="139"/>
+      <c r="AD30" s="139"/>
+      <c r="AE30" s="140"/>
+      <c r="AF30" s="135"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="137"/>
       <c r="AJ30" s="33"/>
       <c r="AK30" s="33"/>
       <c r="AL30" s="33"/>
@@ -6728,40 +6701,40 @@
     </row>
     <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="126"/>
-      <c r="B31" s="131"/>
-      <c r="C31" s="132"/>
-      <c r="D31" s="133"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="141"/>
-      <c r="P31" s="142"/>
-      <c r="Q31" s="137"/>
-      <c r="R31" s="138"/>
-      <c r="S31" s="138"/>
-      <c r="T31" s="138"/>
-      <c r="U31" s="138"/>
-      <c r="V31" s="138"/>
-      <c r="W31" s="138"/>
-      <c r="X31" s="138"/>
-      <c r="Y31" s="138"/>
-      <c r="Z31" s="138"/>
-      <c r="AA31" s="138"/>
-      <c r="AB31" s="138"/>
-      <c r="AC31" s="138"/>
-      <c r="AD31" s="138"/>
-      <c r="AE31" s="139"/>
-      <c r="AF31" s="140"/>
-      <c r="AG31" s="141"/>
-      <c r="AH31" s="141"/>
-      <c r="AI31" s="142"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="136"/>
+      <c r="P31" s="137"/>
+      <c r="Q31" s="138"/>
+      <c r="R31" s="139"/>
+      <c r="S31" s="139"/>
+      <c r="T31" s="139"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="140"/>
+      <c r="AF31" s="135"/>
+      <c r="AG31" s="136"/>
+      <c r="AH31" s="136"/>
+      <c r="AI31" s="137"/>
       <c r="AJ31" s="33"/>
       <c r="AK31" s="33"/>
       <c r="AL31" s="33"/>
@@ -6770,40 +6743,40 @@
     </row>
     <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="126"/>
-      <c r="B32" s="131"/>
-      <c r="C32" s="132"/>
-      <c r="D32" s="133"/>
-      <c r="E32" s="134"/>
-      <c r="F32" s="135"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="141"/>
-      <c r="L32" s="141"/>
-      <c r="M32" s="141"/>
-      <c r="N32" s="141"/>
-      <c r="O32" s="141"/>
-      <c r="P32" s="142"/>
-      <c r="Q32" s="137"/>
-      <c r="R32" s="138"/>
-      <c r="S32" s="138"/>
-      <c r="T32" s="138"/>
-      <c r="U32" s="138"/>
-      <c r="V32" s="138"/>
-      <c r="W32" s="138"/>
-      <c r="X32" s="138"/>
-      <c r="Y32" s="138"/>
-      <c r="Z32" s="138"/>
-      <c r="AA32" s="138"/>
-      <c r="AB32" s="138"/>
-      <c r="AC32" s="138"/>
-      <c r="AD32" s="138"/>
-      <c r="AE32" s="139"/>
-      <c r="AF32" s="140"/>
-      <c r="AG32" s="141"/>
-      <c r="AH32" s="141"/>
-      <c r="AI32" s="142"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="136"/>
+      <c r="P32" s="137"/>
+      <c r="Q32" s="138"/>
+      <c r="R32" s="139"/>
+      <c r="S32" s="139"/>
+      <c r="T32" s="139"/>
+      <c r="U32" s="139"/>
+      <c r="V32" s="139"/>
+      <c r="W32" s="139"/>
+      <c r="X32" s="139"/>
+      <c r="Y32" s="139"/>
+      <c r="Z32" s="139"/>
+      <c r="AA32" s="139"/>
+      <c r="AB32" s="139"/>
+      <c r="AC32" s="139"/>
+      <c r="AD32" s="139"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="135"/>
+      <c r="AG32" s="136"/>
+      <c r="AH32" s="136"/>
+      <c r="AI32" s="137"/>
       <c r="AJ32" s="33"/>
       <c r="AK32" s="33"/>
       <c r="AL32" s="33"/>
@@ -6812,40 +6785,40 @@
     </row>
     <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="126"/>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="133"/>
-      <c r="E33" s="134"/>
-      <c r="F33" s="135"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="141"/>
-      <c r="L33" s="141"/>
-      <c r="M33" s="141"/>
-      <c r="N33" s="141"/>
-      <c r="O33" s="141"/>
-      <c r="P33" s="142"/>
-      <c r="Q33" s="137"/>
-      <c r="R33" s="138"/>
-      <c r="S33" s="138"/>
-      <c r="T33" s="138"/>
-      <c r="U33" s="138"/>
-      <c r="V33" s="138"/>
-      <c r="W33" s="138"/>
-      <c r="X33" s="138"/>
-      <c r="Y33" s="138"/>
-      <c r="Z33" s="138"/>
-      <c r="AA33" s="138"/>
-      <c r="AB33" s="138"/>
-      <c r="AC33" s="138"/>
-      <c r="AD33" s="138"/>
-      <c r="AE33" s="139"/>
-      <c r="AF33" s="140"/>
-      <c r="AG33" s="141"/>
-      <c r="AH33" s="141"/>
-      <c r="AI33" s="142"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="136"/>
+      <c r="P33" s="137"/>
+      <c r="Q33" s="138"/>
+      <c r="R33" s="139"/>
+      <c r="S33" s="139"/>
+      <c r="T33" s="139"/>
+      <c r="U33" s="139"/>
+      <c r="V33" s="139"/>
+      <c r="W33" s="139"/>
+      <c r="X33" s="139"/>
+      <c r="Y33" s="139"/>
+      <c r="Z33" s="139"/>
+      <c r="AA33" s="139"/>
+      <c r="AB33" s="139"/>
+      <c r="AC33" s="139"/>
+      <c r="AD33" s="139"/>
+      <c r="AE33" s="140"/>
+      <c r="AF33" s="135"/>
+      <c r="AG33" s="136"/>
+      <c r="AH33" s="136"/>
+      <c r="AI33" s="137"/>
       <c r="AJ33" s="33"/>
       <c r="AK33" s="33"/>
       <c r="AL33" s="33"/>
@@ -7148,6 +7121,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:F33"/>
     <mergeCell ref="G33:I33"/>
@@ -7172,161 +7300,6 @@
     <mergeCell ref="AF32:AI32"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -7483,157 +7456,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
     </row>
     <row r="2" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
     </row>
     <row r="3" spans="1:35" s="34" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
     </row>
     <row r="4" spans="1:35" s="82" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="71"/>
@@ -7905,7 +7878,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="69"/>
       <c r="D11" s="18"/>
@@ -9100,6 +9073,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9109,14 +9090,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -9143,157 +9116,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -9407,84 +9380,84 @@
     </row>
     <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>
-      <c r="D8" s="212" t="s">
+      <c r="D8" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="210"/>
-      <c r="M8" s="210"/>
-      <c r="N8" s="210"/>
-      <c r="O8" s="210"/>
-      <c r="P8" s="210"/>
-      <c r="Q8" s="210"/>
-      <c r="R8" s="210"/>
-      <c r="S8" s="210"/>
-      <c r="T8" s="210"/>
-      <c r="U8" s="210"/>
-      <c r="V8" s="210"/>
-      <c r="W8" s="210"/>
-      <c r="X8" s="210"/>
-      <c r="Y8" s="210"/>
-      <c r="Z8" s="210"/>
-      <c r="AA8" s="210"/>
-      <c r="AB8" s="210"/>
-      <c r="AC8" s="210"/>
-      <c r="AD8" s="210"/>
-      <c r="AE8" s="210"/>
-      <c r="AF8" s="210"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="210"/>
+      <c r="E8" s="214"/>
+      <c r="F8" s="214"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="211"/>
+      <c r="K8" s="211"/>
+      <c r="L8" s="211"/>
+      <c r="M8" s="211"/>
+      <c r="N8" s="211"/>
+      <c r="O8" s="211"/>
+      <c r="P8" s="211"/>
+      <c r="Q8" s="211"/>
+      <c r="R8" s="211"/>
+      <c r="S8" s="211"/>
+      <c r="T8" s="211"/>
+      <c r="U8" s="211"/>
+      <c r="V8" s="211"/>
+      <c r="W8" s="211"/>
+      <c r="X8" s="211"/>
+      <c r="Y8" s="211"/>
+      <c r="Z8" s="211"/>
+      <c r="AA8" s="211"/>
+      <c r="AB8" s="211"/>
+      <c r="AC8" s="211"/>
+      <c r="AD8" s="211"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="211"/>
+      <c r="AH8" s="211"/>
     </row>
     <row r="9" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
-      <c r="D9" s="212" t="s">
+      <c r="D9" s="213" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="213"/>
-      <c r="F9" s="213"/>
-      <c r="G9" s="214"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
-      <c r="P9" s="211"/>
-      <c r="Q9" s="211"/>
-      <c r="R9" s="211"/>
-      <c r="S9" s="211"/>
-      <c r="T9" s="211"/>
-      <c r="U9" s="211"/>
-      <c r="V9" s="211"/>
-      <c r="W9" s="211"/>
-      <c r="X9" s="211"/>
-      <c r="Y9" s="211"/>
-      <c r="Z9" s="211"/>
-      <c r="AA9" s="211"/>
-      <c r="AB9" s="211"/>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="211"/>
-      <c r="AE9" s="211"/>
-      <c r="AF9" s="211"/>
-      <c r="AG9" s="211"/>
-      <c r="AH9" s="211"/>
+      <c r="E9" s="214"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="212"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
+      <c r="M9" s="212"/>
+      <c r="N9" s="212"/>
+      <c r="O9" s="212"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
+      <c r="S9" s="212"/>
+      <c r="T9" s="212"/>
+      <c r="U9" s="212"/>
+      <c r="V9" s="212"/>
+      <c r="W9" s="212"/>
+      <c r="X9" s="212"/>
+      <c r="Y9" s="212"/>
+      <c r="Z9" s="212"/>
+      <c r="AA9" s="212"/>
+      <c r="AB9" s="212"/>
+      <c r="AC9" s="212"/>
+      <c r="AD9" s="212"/>
+      <c r="AE9" s="212"/>
+      <c r="AF9" s="212"/>
+      <c r="AG9" s="212"/>
+      <c r="AH9" s="212"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
-      <c r="D10" s="201" t="s">
-        <v>71</v>
-      </c>
-      <c r="E10" s="202"/>
-      <c r="F10" s="202"/>
-      <c r="G10" s="203"/>
+      <c r="D10" s="202" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="203"/>
+      <c r="F10" s="203"/>
+      <c r="G10" s="204"/>
       <c r="H10" s="102"/>
       <c r="I10" s="103"/>
       <c r="J10" s="103"/>
@@ -9515,10 +9488,10 @@
     </row>
     <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
-      <c r="D11" s="204"/>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="206"/>
+      <c r="D11" s="205"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="207"/>
       <c r="H11" s="105"/>
       <c r="I11" s="36"/>
       <c r="J11" s="36"/>
@@ -9549,10 +9522,10 @@
     </row>
     <row r="12" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
-      <c r="D12" s="204"/>
-      <c r="E12" s="205"/>
-      <c r="F12" s="205"/>
-      <c r="G12" s="206"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="207"/>
       <c r="H12" s="105"/>
       <c r="I12" s="36"/>
       <c r="J12" s="36"/>
@@ -9583,10 +9556,10 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
-      <c r="D13" s="204"/>
-      <c r="E13" s="205"/>
-      <c r="F13" s="205"/>
-      <c r="G13" s="206"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="207"/>
       <c r="H13" s="105"/>
       <c r="I13" s="36"/>
       <c r="J13" s="36"/>
@@ -9617,10 +9590,10 @@
     </row>
     <row r="14" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="35"/>
-      <c r="D14" s="204"/>
-      <c r="E14" s="205"/>
-      <c r="F14" s="205"/>
-      <c r="G14" s="206"/>
+      <c r="D14" s="205"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="207"/>
       <c r="H14" s="105"/>
       <c r="I14" s="36"/>
       <c r="J14" s="36"/>
@@ -9651,10 +9624,10 @@
     </row>
     <row r="15" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="35"/>
-      <c r="D15" s="204"/>
-      <c r="E15" s="205"/>
-      <c r="F15" s="205"/>
-      <c r="G15" s="206"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="207"/>
       <c r="H15" s="105"/>
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
@@ -9685,10 +9658,10 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B16" s="35"/>
-      <c r="D16" s="204"/>
-      <c r="E16" s="205"/>
-      <c r="F16" s="205"/>
-      <c r="G16" s="206"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="207"/>
       <c r="H16" s="105"/>
       <c r="I16" s="36"/>
       <c r="J16" s="36"/>
@@ -9719,10 +9692,10 @@
     </row>
     <row r="17" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="35"/>
-      <c r="D17" s="204"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="206"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="207"/>
       <c r="H17" s="105"/>
       <c r="I17" s="36"/>
       <c r="J17" s="36"/>
@@ -9753,10 +9726,10 @@
     </row>
     <row r="18" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="35"/>
-      <c r="D18" s="204"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="206"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="207"/>
       <c r="H18" s="105"/>
       <c r="I18" s="36"/>
       <c r="J18" s="36"/>
@@ -9787,10 +9760,10 @@
     </row>
     <row r="19" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B19" s="35"/>
-      <c r="D19" s="204"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="206"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="207"/>
       <c r="H19" s="105"/>
       <c r="I19" s="36"/>
       <c r="J19" s="36"/>
@@ -9821,10 +9794,10 @@
     </row>
     <row r="20" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B20" s="35"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="205"/>
-      <c r="F20" s="205"/>
-      <c r="G20" s="206"/>
+      <c r="D20" s="205"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="207"/>
       <c r="H20" s="105"/>
       <c r="I20" s="36"/>
       <c r="J20" s="36"/>
@@ -9855,10 +9828,10 @@
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B21" s="35"/>
-      <c r="D21" s="204"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="206"/>
+      <c r="D21" s="205"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="207"/>
       <c r="H21" s="105"/>
       <c r="I21" s="36"/>
       <c r="J21" s="36"/>
@@ -9889,10 +9862,10 @@
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B22" s="35"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="206"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="207"/>
       <c r="H22" s="105"/>
       <c r="I22" s="36"/>
       <c r="J22" s="36"/>
@@ -9923,10 +9896,10 @@
     </row>
     <row r="23" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="35"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="205"/>
-      <c r="F23" s="205"/>
-      <c r="G23" s="206"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="207"/>
       <c r="H23" s="105"/>
       <c r="I23" s="36"/>
       <c r="J23" s="36"/>
@@ -9957,10 +9930,10 @@
     </row>
     <row r="24" spans="2:34" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="35"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="205"/>
-      <c r="F24" s="205"/>
-      <c r="G24" s="206"/>
+      <c r="D24" s="205"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="207"/>
       <c r="H24" s="105"/>
       <c r="I24" s="36"/>
       <c r="J24" s="36"/>
@@ -9991,10 +9964,10 @@
     </row>
     <row r="25" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B25" s="35"/>
-      <c r="D25" s="204"/>
-      <c r="E25" s="205"/>
-      <c r="F25" s="205"/>
-      <c r="G25" s="206"/>
+      <c r="D25" s="205"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="207"/>
       <c r="H25" s="105"/>
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
@@ -10025,10 +9998,10 @@
     </row>
     <row r="26" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B26" s="35"/>
-      <c r="D26" s="204"/>
-      <c r="E26" s="205"/>
-      <c r="F26" s="205"/>
-      <c r="G26" s="206"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="207"/>
       <c r="H26" s="105"/>
       <c r="I26" s="36"/>
       <c r="J26" s="36"/>
@@ -10059,10 +10032,10 @@
     </row>
     <row r="27" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B27" s="35"/>
-      <c r="D27" s="204"/>
-      <c r="E27" s="205"/>
-      <c r="F27" s="205"/>
-      <c r="G27" s="206"/>
+      <c r="D27" s="205"/>
+      <c r="E27" s="206"/>
+      <c r="F27" s="206"/>
+      <c r="G27" s="207"/>
       <c r="H27" s="105"/>
       <c r="I27" s="36"/>
       <c r="J27" s="36"/>
@@ -10093,10 +10066,10 @@
     </row>
     <row r="28" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B28" s="35"/>
-      <c r="D28" s="204"/>
-      <c r="E28" s="205"/>
-      <c r="F28" s="205"/>
-      <c r="G28" s="206"/>
+      <c r="D28" s="205"/>
+      <c r="E28" s="206"/>
+      <c r="F28" s="206"/>
+      <c r="G28" s="207"/>
       <c r="H28" s="105"/>
       <c r="I28" s="36"/>
       <c r="J28" s="36"/>
@@ -10127,10 +10100,10 @@
     </row>
     <row r="29" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B29" s="35"/>
-      <c r="D29" s="207"/>
-      <c r="E29" s="208"/>
-      <c r="F29" s="208"/>
-      <c r="G29" s="209"/>
+      <c r="D29" s="208"/>
+      <c r="E29" s="209"/>
+      <c r="F29" s="209"/>
+      <c r="G29" s="210"/>
       <c r="H29" s="107"/>
       <c r="I29" s="108"/>
       <c r="J29" s="108"/>
@@ -10161,12 +10134,12 @@
     </row>
     <row r="30" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B30" s="35"/>
-      <c r="D30" s="201" t="s">
+      <c r="D30" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="202"/>
-      <c r="F30" s="202"/>
-      <c r="G30" s="203"/>
+      <c r="E30" s="203"/>
+      <c r="F30" s="203"/>
+      <c r="G30" s="204"/>
       <c r="H30" s="110"/>
       <c r="I30" s="111"/>
       <c r="J30" s="111"/>
@@ -10197,10 +10170,10 @@
     </row>
     <row r="31" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B31" s="35"/>
-      <c r="D31" s="204"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="205"/>
-      <c r="G31" s="206"/>
+      <c r="D31" s="205"/>
+      <c r="E31" s="206"/>
+      <c r="F31" s="206"/>
+      <c r="G31" s="207"/>
       <c r="H31" s="113"/>
       <c r="I31" s="114"/>
       <c r="J31" s="114"/>
@@ -10231,10 +10204,10 @@
     </row>
     <row r="32" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B32" s="35"/>
-      <c r="D32" s="204"/>
-      <c r="E32" s="205"/>
-      <c r="F32" s="205"/>
-      <c r="G32" s="206"/>
+      <c r="D32" s="205"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="207"/>
       <c r="H32" s="113"/>
       <c r="I32" s="114"/>
       <c r="J32" s="114"/>
@@ -10265,10 +10238,10 @@
     </row>
     <row r="33" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B33" s="35"/>
-      <c r="D33" s="204"/>
-      <c r="E33" s="205"/>
-      <c r="F33" s="205"/>
-      <c r="G33" s="206"/>
+      <c r="D33" s="205"/>
+      <c r="E33" s="206"/>
+      <c r="F33" s="206"/>
+      <c r="G33" s="207"/>
       <c r="H33" s="113"/>
       <c r="I33" s="114"/>
       <c r="J33" s="114"/>
@@ -10299,10 +10272,10 @@
     </row>
     <row r="34" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B34" s="35"/>
-      <c r="D34" s="204"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="206"/>
+      <c r="D34" s="205"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="207"/>
       <c r="H34" s="113"/>
       <c r="I34" s="114"/>
       <c r="J34" s="114"/>
@@ -10333,10 +10306,10 @@
     </row>
     <row r="35" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B35" s="35"/>
-      <c r="D35" s="204"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="206"/>
+      <c r="D35" s="205"/>
+      <c r="E35" s="206"/>
+      <c r="F35" s="206"/>
+      <c r="G35" s="207"/>
       <c r="H35" s="113"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -10367,10 +10340,10 @@
     </row>
     <row r="36" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B36" s="35"/>
-      <c r="D36" s="204"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="206"/>
+      <c r="D36" s="205"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="207"/>
       <c r="H36" s="113"/>
       <c r="I36" s="114"/>
       <c r="J36" s="114"/>
@@ -10401,10 +10374,10 @@
     </row>
     <row r="37" spans="2:34" x14ac:dyDescent="0.15">
       <c r="B37" s="35"/>
-      <c r="D37" s="207"/>
-      <c r="E37" s="208"/>
-      <c r="F37" s="208"/>
-      <c r="G37" s="209"/>
+      <c r="D37" s="208"/>
+      <c r="E37" s="209"/>
+      <c r="F37" s="209"/>
+      <c r="G37" s="210"/>
       <c r="H37" s="116"/>
       <c r="I37" s="117"/>
       <c r="J37" s="117"/>
@@ -10435,18 +10408,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="D30:G37"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G29"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -10458,6 +10419,18 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="D30:G37"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G29"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10486,157 +10459,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -10647,6 +10620,14 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10656,14 +10637,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -10681,7 +10654,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL100"/>
+  <dimension ref="A1:AL99"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -10693,163 +10666,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="186" t="str">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="187"/>
-      <c r="G1" s="187"/>
-      <c r="H1" s="187"/>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
-      <c r="K1" s="187"/>
-      <c r="L1" s="187"/>
-      <c r="M1" s="187"/>
-      <c r="N1" s="188"/>
-      <c r="O1" s="145" t="s">
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
+      <c r="N1" s="143"/>
+      <c r="O1" s="164" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="146"/>
-      <c r="Q1" s="146"/>
-      <c r="R1" s="147"/>
-      <c r="S1" s="192" t="str">
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+      <c r="R1" s="166"/>
+      <c r="S1" s="193" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="193"/>
-      <c r="U1" s="193"/>
-      <c r="V1" s="193"/>
-      <c r="W1" s="193"/>
-      <c r="X1" s="193"/>
-      <c r="Y1" s="193"/>
-      <c r="Z1" s="194"/>
-      <c r="AA1" s="143" t="s">
+      <c r="T1" s="194"/>
+      <c r="U1" s="194"/>
+      <c r="V1" s="194"/>
+      <c r="W1" s="194"/>
+      <c r="X1" s="194"/>
+      <c r="Y1" s="194"/>
+      <c r="Z1" s="195"/>
+      <c r="AA1" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="144"/>
-      <c r="AC1" s="170" t="str">
+      <c r="AB1" s="163"/>
+      <c r="AC1" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="172"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="145"/>
+      <c r="AE1" s="145"/>
+      <c r="AF1" s="146"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="163"/>
-      <c r="C2" s="163"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="186" t="str">
+      <c r="B2" s="182"/>
+      <c r="C2" s="182"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="187"/>
-      <c r="G2" s="187"/>
-      <c r="H2" s="187"/>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="195"/>
-      <c r="T2" s="196"/>
-      <c r="U2" s="196"/>
-      <c r="V2" s="196"/>
-      <c r="W2" s="196"/>
-      <c r="X2" s="196"/>
-      <c r="Y2" s="196"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="143" t="s">
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="143"/>
+      <c r="O2" s="167"/>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="168"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="196"/>
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="198"/>
+      <c r="AA2" s="162" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="144"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="163"/>
+      <c r="AC2" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="145"/>
+      <c r="AE2" s="145"/>
+      <c r="AF2" s="146"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="85" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="163"/>
-      <c r="C3" s="163"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="186" t="str">
+      <c r="B3" s="182"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="141" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="187"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
-      <c r="J3" s="187"/>
-      <c r="K3" s="187"/>
-      <c r="L3" s="187"/>
-      <c r="M3" s="187"/>
-      <c r="N3" s="188"/>
-      <c r="O3" s="151"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="198"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
-      <c r="W3" s="199"/>
-      <c r="X3" s="199"/>
-      <c r="Y3" s="199"/>
-      <c r="Z3" s="200"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="144"/>
-      <c r="AC3" s="170" t="str">
+      <c r="F3" s="142"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="143"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="171"/>
+      <c r="Q3" s="171"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="199"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="200"/>
+      <c r="V3" s="200"/>
+      <c r="W3" s="200"/>
+      <c r="X3" s="200"/>
+      <c r="Y3" s="200"/>
+      <c r="Z3" s="201"/>
+      <c r="AA3" s="162"/>
+      <c r="AB3" s="163"/>
+      <c r="AC3" s="144" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="145"/>
+      <c r="AE3" s="145"/>
+      <c r="AF3" s="146"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -10857,7 +10830,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="35" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -10967,65 +10940,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
-      <c r="D8" s="259" t="s">
+      <c r="D8" s="230" t="s">
         <v>44</v>
       </c>
-      <c r="E8" s="261" t="s">
+      <c r="E8" s="232" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="245" t="s">
+      <c r="F8" s="233"/>
+      <c r="G8" s="233"/>
+      <c r="H8" s="233"/>
+      <c r="I8" s="233"/>
+      <c r="J8" s="234"/>
+      <c r="K8" s="216" t="s">
         <v>46</v>
       </c>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="263"/>
-      <c r="O8" s="267" t="s">
+      <c r="L8" s="233"/>
+      <c r="M8" s="233"/>
+      <c r="N8" s="234"/>
+      <c r="O8" s="238" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="272" t="s">
+      <c r="P8" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="Q8" s="273"/>
-      <c r="R8" s="273"/>
-      <c r="S8" s="273"/>
-      <c r="T8" s="273"/>
-      <c r="U8" s="274"/>
-      <c r="V8" s="269" t="s">
+      <c r="Q8" s="220"/>
+      <c r="R8" s="220"/>
+      <c r="S8" s="220"/>
+      <c r="T8" s="220"/>
+      <c r="U8" s="221"/>
+      <c r="V8" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="W8" s="269"/>
-      <c r="X8" s="269"/>
-      <c r="Y8" s="269"/>
-      <c r="Z8" s="269"/>
-      <c r="AA8" s="269"/>
-      <c r="AB8" s="269"/>
-      <c r="AC8" s="269"/>
-      <c r="AD8" s="269"/>
-      <c r="AE8" s="269"/>
-      <c r="AF8" s="269"/>
-      <c r="AG8" s="269"/>
-      <c r="AH8" s="269"/>
+      <c r="W8" s="240"/>
+      <c r="X8" s="240"/>
+      <c r="Y8" s="240"/>
+      <c r="Z8" s="240"/>
+      <c r="AA8" s="240"/>
+      <c r="AB8" s="240"/>
+      <c r="AC8" s="240"/>
+      <c r="AD8" s="240"/>
+      <c r="AE8" s="240"/>
+      <c r="AF8" s="240"/>
+      <c r="AG8" s="240"/>
+      <c r="AH8" s="240"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
-      <c r="D9" s="260"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="264"/>
-      <c r="L9" s="265"/>
-      <c r="M9" s="265"/>
-      <c r="N9" s="266"/>
-      <c r="O9" s="268"/>
+      <c r="D9" s="231"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="236"/>
+      <c r="G9" s="236"/>
+      <c r="H9" s="236"/>
+      <c r="I9" s="236"/>
+      <c r="J9" s="237"/>
+      <c r="K9" s="235"/>
+      <c r="L9" s="236"/>
+      <c r="M9" s="236"/>
+      <c r="N9" s="237"/>
+      <c r="O9" s="239"/>
       <c r="P9" s="88" t="s">
         <v>49</v>
       </c>
@@ -11038,23 +11011,23 @@
       <c r="S9" s="88" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="270" t="s">
+      <c r="T9" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="U9" s="271"/>
-      <c r="V9" s="269"/>
-      <c r="W9" s="269"/>
-      <c r="X9" s="269"/>
-      <c r="Y9" s="269"/>
-      <c r="Z9" s="269"/>
-      <c r="AA9" s="269"/>
-      <c r="AB9" s="269"/>
-      <c r="AC9" s="269"/>
-      <c r="AD9" s="269"/>
-      <c r="AE9" s="269"/>
-      <c r="AF9" s="269"/>
-      <c r="AG9" s="269"/>
-      <c r="AH9" s="269"/>
+      <c r="U9" s="242"/>
+      <c r="V9" s="240"/>
+      <c r="W9" s="240"/>
+      <c r="X9" s="240"/>
+      <c r="Y9" s="240"/>
+      <c r="Z9" s="240"/>
+      <c r="AA9" s="240"/>
+      <c r="AB9" s="240"/>
+      <c r="AC9" s="240"/>
+      <c r="AD9" s="240"/>
+      <c r="AE9" s="240"/>
+      <c r="AF9" s="240"/>
+      <c r="AG9" s="240"/>
+      <c r="AH9" s="240"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="35"/>
@@ -11062,36 +11035,36 @@
       <c r="D10" s="89">
         <v>1</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
+      <c r="E10" s="138"/>
+      <c r="F10" s="139"/>
+      <c r="G10" s="139"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="140"/>
       <c r="O10" s="90"/>
       <c r="P10" s="91"/>
       <c r="Q10" s="91"/>
       <c r="R10" s="91"/>
       <c r="S10" s="91"/>
-      <c r="T10" s="257"/>
-      <c r="U10" s="258"/>
-      <c r="V10" s="137"/>
-      <c r="W10" s="138"/>
-      <c r="X10" s="138"/>
-      <c r="Y10" s="138"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="138"/>
-      <c r="AE10" s="138"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="138"/>
-      <c r="AH10" s="139"/>
+      <c r="T10" s="217"/>
+      <c r="U10" s="218"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="139"/>
+      <c r="X10" s="139"/>
+      <c r="Y10" s="139"/>
+      <c r="Z10" s="139"/>
+      <c r="AA10" s="139"/>
+      <c r="AB10" s="139"/>
+      <c r="AC10" s="139"/>
+      <c r="AD10" s="139"/>
+      <c r="AE10" s="139"/>
+      <c r="AF10" s="139"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="140"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="35"/>
@@ -11099,36 +11072,36 @@
       <c r="D11" s="89">
         <v>2</v>
       </c>
-      <c r="E11" s="137"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="137"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="139"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="139"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="140"/>
       <c r="O11" s="92"/>
       <c r="P11" s="91"/>
       <c r="Q11" s="91"/>
       <c r="R11" s="91"/>
       <c r="S11" s="91"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="137"/>
-      <c r="W11" s="138"/>
-      <c r="X11" s="138"/>
-      <c r="Y11" s="138"/>
-      <c r="Z11" s="138"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
-      <c r="AD11" s="138"/>
-      <c r="AE11" s="138"/>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="138"/>
-      <c r="AH11" s="139"/>
+      <c r="T11" s="217"/>
+      <c r="U11" s="218"/>
+      <c r="V11" s="138"/>
+      <c r="W11" s="139"/>
+      <c r="X11" s="139"/>
+      <c r="Y11" s="139"/>
+      <c r="Z11" s="139"/>
+      <c r="AA11" s="139"/>
+      <c r="AB11" s="139"/>
+      <c r="AC11" s="139"/>
+      <c r="AD11" s="139"/>
+      <c r="AE11" s="139"/>
+      <c r="AF11" s="139"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="140"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="35"/>
@@ -11136,36 +11109,36 @@
       <c r="D12" s="89">
         <v>3</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="137"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="139"/>
+      <c r="E12" s="138"/>
+      <c r="F12" s="139"/>
+      <c r="G12" s="139"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="140"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="140"/>
       <c r="O12" s="92"/>
       <c r="P12" s="91"/>
       <c r="Q12" s="91"/>
       <c r="R12" s="91"/>
       <c r="S12" s="91"/>
-      <c r="T12" s="257"/>
-      <c r="U12" s="258"/>
-      <c r="V12" s="137"/>
-      <c r="W12" s="138"/>
-      <c r="X12" s="138"/>
-      <c r="Y12" s="138"/>
-      <c r="Z12" s="138"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
-      <c r="AD12" s="138"/>
-      <c r="AE12" s="138"/>
-      <c r="AF12" s="138"/>
-      <c r="AG12" s="138"/>
-      <c r="AH12" s="139"/>
+      <c r="T12" s="217"/>
+      <c r="U12" s="218"/>
+      <c r="V12" s="138"/>
+      <c r="W12" s="139"/>
+      <c r="X12" s="139"/>
+      <c r="Y12" s="139"/>
+      <c r="Z12" s="139"/>
+      <c r="AA12" s="139"/>
+      <c r="AB12" s="139"/>
+      <c r="AC12" s="139"/>
+      <c r="AD12" s="139"/>
+      <c r="AE12" s="139"/>
+      <c r="AF12" s="139"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="140"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="35"/>
@@ -11309,348 +11282,347 @@
       <c r="AG16" s="86"/>
       <c r="AH16" s="86"/>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40"/>
       <c r="C17" s="36"/>
-      <c r="D17" s="237" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="239" t="s">
+      <c r="D17" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="240"/>
-      <c r="G17" s="241"/>
-      <c r="H17" s="245" t="s">
+      <c r="E17" s="259" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="260"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="263"/>
+      <c r="J17" s="264"/>
+      <c r="K17" s="265" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="246"/>
-      <c r="J17" s="246"/>
-      <c r="K17" s="246"/>
-      <c r="L17" s="246"/>
-      <c r="M17" s="246"/>
-      <c r="N17" s="246"/>
-      <c r="O17" s="246"/>
-      <c r="P17" s="246"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
-      <c r="S17" s="246"/>
-      <c r="T17" s="246"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="247"/>
-      <c r="W17" s="251" t="s">
-        <v>67</v>
-      </c>
-      <c r="X17" s="252"/>
-      <c r="Y17" s="252"/>
-      <c r="Z17" s="253"/>
-      <c r="AA17" s="217" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB17" s="217"/>
-      <c r="AC17" s="217"/>
-      <c r="AD17" s="217"/>
-      <c r="AE17" s="217"/>
-      <c r="AF17" s="217"/>
-      <c r="AG17" s="217"/>
-      <c r="AH17" s="217"/>
+      <c r="L17" s="266"/>
+      <c r="M17" s="266"/>
+      <c r="N17" s="266"/>
+      <c r="O17" s="266"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="266"/>
+      <c r="R17" s="266"/>
+      <c r="S17" s="266"/>
+      <c r="T17" s="266"/>
+      <c r="U17" s="266"/>
+      <c r="V17" s="266"/>
+      <c r="W17" s="266"/>
+      <c r="X17" s="266"/>
+      <c r="Y17" s="266"/>
+      <c r="Z17" s="266"/>
+      <c r="AA17" s="266"/>
+      <c r="AB17" s="266"/>
+      <c r="AC17" s="266"/>
+      <c r="AD17" s="266"/>
+      <c r="AE17" s="266"/>
+      <c r="AF17" s="266"/>
+      <c r="AG17" s="266"/>
+      <c r="AH17" s="267"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.15">
       <c r="B18" s="40"/>
       <c r="C18" s="36"/>
-      <c r="D18" s="238"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="243"/>
-      <c r="G18" s="244"/>
-      <c r="H18" s="248"/>
-      <c r="I18" s="249"/>
-      <c r="J18" s="249"/>
-      <c r="K18" s="249"/>
-      <c r="L18" s="249"/>
-      <c r="M18" s="249"/>
-      <c r="N18" s="249"/>
-      <c r="O18" s="249"/>
-      <c r="P18" s="249"/>
-      <c r="Q18" s="249"/>
-      <c r="R18" s="249"/>
-      <c r="S18" s="249"/>
-      <c r="T18" s="249"/>
-      <c r="U18" s="249"/>
-      <c r="V18" s="250"/>
-      <c r="W18" s="254"/>
-      <c r="X18" s="255"/>
-      <c r="Y18" s="255"/>
-      <c r="Z18" s="256"/>
-      <c r="AA18" s="217"/>
-      <c r="AB18" s="217"/>
-      <c r="AC18" s="217"/>
-      <c r="AD18" s="217"/>
-      <c r="AE18" s="217"/>
-      <c r="AF18" s="217"/>
-      <c r="AG18" s="217"/>
-      <c r="AH18" s="217"/>
+      <c r="D18" s="89">
+        <v>1</v>
+      </c>
+      <c r="E18" s="138"/>
+      <c r="F18" s="139"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="139"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="269"/>
+      <c r="M18" s="269"/>
+      <c r="N18" s="269"/>
+      <c r="O18" s="269"/>
+      <c r="P18" s="269"/>
+      <c r="Q18" s="269"/>
+      <c r="R18" s="269"/>
+      <c r="S18" s="269"/>
+      <c r="T18" s="269"/>
+      <c r="U18" s="269"/>
+      <c r="V18" s="269"/>
+      <c r="W18" s="269"/>
+      <c r="X18" s="269"/>
+      <c r="Y18" s="269"/>
+      <c r="Z18" s="269"/>
+      <c r="AA18" s="269"/>
+      <c r="AB18" s="269"/>
+      <c r="AC18" s="269"/>
+      <c r="AD18" s="269"/>
+      <c r="AE18" s="269"/>
+      <c r="AF18" s="269"/>
+      <c r="AG18" s="269"/>
+      <c r="AH18" s="270"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="40"/>
       <c r="C19" s="36"/>
       <c r="D19" s="89">
-        <v>1</v>
-      </c>
-      <c r="E19" s="137"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="137"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
-      <c r="N19" s="138"/>
-      <c r="O19" s="138"/>
-      <c r="P19" s="138"/>
-      <c r="Q19" s="138"/>
-      <c r="R19" s="138"/>
-      <c r="S19" s="138"/>
-      <c r="T19" s="138"/>
-      <c r="U19" s="138"/>
-      <c r="V19" s="139"/>
-      <c r="W19" s="230"/>
-      <c r="X19" s="231"/>
-      <c r="Y19" s="231"/>
-      <c r="Z19" s="232"/>
-      <c r="AA19" s="215"/>
-      <c r="AB19" s="215"/>
-      <c r="AC19" s="215"/>
-      <c r="AD19" s="215"/>
-      <c r="AE19" s="215"/>
-      <c r="AF19" s="215"/>
-      <c r="AG19" s="215"/>
-      <c r="AH19" s="215"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="139"/>
+      <c r="J19" s="140"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="269"/>
+      <c r="M19" s="269"/>
+      <c r="N19" s="269"/>
+      <c r="O19" s="269"/>
+      <c r="P19" s="269"/>
+      <c r="Q19" s="269"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="269"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
+      <c r="AE19" s="269"/>
+      <c r="AF19" s="269"/>
+      <c r="AG19" s="269"/>
+      <c r="AH19" s="270"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="40"/>
       <c r="C20" s="36"/>
       <c r="D20" s="89">
-        <v>2</v>
-      </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="137"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="138"/>
-      <c r="O20" s="138"/>
-      <c r="P20" s="138"/>
-      <c r="Q20" s="138"/>
-      <c r="R20" s="138"/>
-      <c r="S20" s="138"/>
-      <c r="T20" s="138"/>
-      <c r="U20" s="138"/>
-      <c r="V20" s="139"/>
-      <c r="W20" s="230"/>
-      <c r="X20" s="231"/>
-      <c r="Y20" s="231"/>
-      <c r="Z20" s="232"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="216"/>
+        <v>3</v>
+      </c>
+      <c r="E20" s="138"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="139"/>
+      <c r="J20" s="140"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="269"/>
+      <c r="M20" s="269"/>
+      <c r="N20" s="269"/>
+      <c r="O20" s="269"/>
+      <c r="P20" s="269"/>
+      <c r="Q20" s="269"/>
+      <c r="R20" s="269"/>
+      <c r="S20" s="269"/>
+      <c r="T20" s="269"/>
+      <c r="U20" s="269"/>
+      <c r="V20" s="269"/>
+      <c r="W20" s="269"/>
+      <c r="X20" s="269"/>
+      <c r="Y20" s="269"/>
+      <c r="Z20" s="269"/>
+      <c r="AA20" s="269"/>
+      <c r="AB20" s="269"/>
+      <c r="AC20" s="269"/>
+      <c r="AD20" s="269"/>
+      <c r="AE20" s="269"/>
+      <c r="AF20" s="269"/>
+      <c r="AG20" s="269"/>
+      <c r="AH20" s="270"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="37"/>
       <c r="C21" s="36"/>
       <c r="D21" s="89">
-        <v>3</v>
-      </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="137"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="138"/>
-      <c r="L21" s="138"/>
-      <c r="M21" s="138"/>
-      <c r="N21" s="138"/>
-      <c r="O21" s="138"/>
-      <c r="P21" s="138"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="138"/>
-      <c r="S21" s="138"/>
-      <c r="T21" s="138"/>
-      <c r="U21" s="138"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="230"/>
-      <c r="X21" s="231"/>
-      <c r="Y21" s="231"/>
-      <c r="Z21" s="232"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216"/>
-      <c r="AH21" s="216"/>
+        <v>4</v>
+      </c>
+      <c r="E21" s="138"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="139"/>
+      <c r="J21" s="140"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="269"/>
+      <c r="M21" s="269"/>
+      <c r="N21" s="269"/>
+      <c r="O21" s="269"/>
+      <c r="P21" s="269"/>
+      <c r="Q21" s="269"/>
+      <c r="R21" s="269"/>
+      <c r="S21" s="269"/>
+      <c r="T21" s="269"/>
+      <c r="U21" s="269"/>
+      <c r="V21" s="269"/>
+      <c r="W21" s="269"/>
+      <c r="X21" s="269"/>
+      <c r="Y21" s="269"/>
+      <c r="Z21" s="269"/>
+      <c r="AA21" s="269"/>
+      <c r="AB21" s="269"/>
+      <c r="AC21" s="269"/>
+      <c r="AD21" s="269"/>
+      <c r="AE21" s="269"/>
+      <c r="AF21" s="269"/>
+      <c r="AG21" s="269"/>
+      <c r="AH21" s="270"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
       <c r="C22" s="36"/>
       <c r="D22" s="89">
-        <v>4</v>
-      </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="138"/>
+        <v>5</v>
+      </c>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="139"/>
+      <c r="J22" s="139"/>
       <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="138"/>
-      <c r="N22" s="138"/>
-      <c r="O22" s="138"/>
-      <c r="P22" s="138"/>
-      <c r="Q22" s="138"/>
-      <c r="R22" s="138"/>
-      <c r="S22" s="138"/>
-      <c r="T22" s="138"/>
-      <c r="U22" s="138"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="139"/>
+      <c r="R22" s="139"/>
+      <c r="S22" s="139"/>
+      <c r="T22" s="139"/>
+      <c r="U22" s="139"/>
       <c r="V22" s="139"/>
-      <c r="W22" s="230"/>
-      <c r="X22" s="231"/>
-      <c r="Y22" s="231"/>
-      <c r="Z22" s="232"/>
-      <c r="AA22" s="215"/>
-      <c r="AB22" s="215"/>
-      <c r="AC22" s="215"/>
-      <c r="AD22" s="215"/>
-      <c r="AE22" s="215"/>
-      <c r="AF22" s="215"/>
-      <c r="AG22" s="215"/>
-      <c r="AH22" s="215"/>
+      <c r="W22" s="139"/>
+      <c r="X22" s="139"/>
+      <c r="Y22" s="139"/>
+      <c r="Z22" s="139"/>
+      <c r="AA22" s="139"/>
+      <c r="AB22" s="139"/>
+      <c r="AC22" s="139"/>
+      <c r="AD22" s="139"/>
+      <c r="AE22" s="139"/>
+      <c r="AF22" s="139"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="140"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C23" s="36"/>
       <c r="D23" s="89">
-        <v>5</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
-      <c r="J23" s="138"/>
+        <v>6</v>
+      </c>
+      <c r="E23" s="138"/>
+      <c r="F23" s="139"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="139"/>
+      <c r="J23" s="139"/>
       <c r="K23" s="138"/>
-      <c r="L23" s="138"/>
-      <c r="M23" s="138"/>
-      <c r="N23" s="138"/>
-      <c r="O23" s="138"/>
-      <c r="P23" s="138"/>
-      <c r="Q23" s="138"/>
-      <c r="R23" s="138"/>
-      <c r="S23" s="138"/>
-      <c r="T23" s="138"/>
-      <c r="U23" s="138"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="139"/>
+      <c r="R23" s="139"/>
+      <c r="S23" s="139"/>
+      <c r="T23" s="139"/>
+      <c r="U23" s="139"/>
       <c r="V23" s="139"/>
-      <c r="W23" s="230"/>
-      <c r="X23" s="231"/>
-      <c r="Y23" s="231"/>
-      <c r="Z23" s="232"/>
-      <c r="AA23" s="216"/>
-      <c r="AB23" s="216"/>
-      <c r="AC23" s="216"/>
-      <c r="AD23" s="216"/>
-      <c r="AE23" s="216"/>
-      <c r="AF23" s="216"/>
-      <c r="AG23" s="216"/>
-      <c r="AH23" s="216"/>
+      <c r="W23" s="139"/>
+      <c r="X23" s="139"/>
+      <c r="Y23" s="139"/>
+      <c r="Z23" s="139"/>
+      <c r="AA23" s="139"/>
+      <c r="AB23" s="139"/>
+      <c r="AC23" s="139"/>
+      <c r="AD23" s="139"/>
+      <c r="AE23" s="139"/>
+      <c r="AF23" s="139"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="140"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.15">
       <c r="C24" s="36"/>
-      <c r="D24" s="89">
-        <v>6</v>
-      </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="137"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="138"/>
-      <c r="L24" s="138"/>
-      <c r="M24" s="138"/>
-      <c r="N24" s="138"/>
-      <c r="O24" s="138"/>
-      <c r="P24" s="138"/>
-      <c r="Q24" s="138"/>
-      <c r="R24" s="138"/>
-      <c r="S24" s="138"/>
-      <c r="T24" s="138"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="230"/>
-      <c r="X24" s="231"/>
-      <c r="Y24" s="231"/>
-      <c r="Z24" s="232"/>
-      <c r="AA24" s="216"/>
-      <c r="AB24" s="216"/>
-      <c r="AC24" s="216"/>
-      <c r="AD24" s="216"/>
-      <c r="AE24" s="216"/>
-      <c r="AF24" s="216"/>
-      <c r="AG24" s="216"/>
-      <c r="AH24" s="216"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.15">
-      <c r="C25" s="36"/>
-      <c r="D25" s="119"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="121"/>
-      <c r="S25" s="121"/>
-      <c r="T25" s="121"/>
-      <c r="U25" s="121"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="121"/>
-      <c r="X25" s="121"/>
-      <c r="Y25" s="121"/>
-      <c r="Z25" s="122"/>
-      <c r="AA25" s="122"/>
-      <c r="AB25" s="122"/>
-      <c r="AC25" s="122"/>
-      <c r="AD25" s="123"/>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="123"/>
-      <c r="AG25" s="123"/>
-      <c r="AH25" s="123"/>
-    </row>
-    <row r="27" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="36" t="s">
+      <c r="D24" s="119"/>
+      <c r="E24" s="121"/>
+      <c r="F24" s="121"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
+      <c r="K24" s="121"/>
+      <c r="L24" s="121"/>
+      <c r="M24" s="121"/>
+      <c r="N24" s="121"/>
+      <c r="O24" s="121"/>
+      <c r="P24" s="121"/>
+      <c r="Q24" s="121"/>
+      <c r="R24" s="121"/>
+      <c r="S24" s="121"/>
+      <c r="T24" s="121"/>
+      <c r="U24" s="121"/>
+      <c r="V24" s="121"/>
+      <c r="W24" s="121"/>
+      <c r="X24" s="121"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="122"/>
+      <c r="AA24" s="122"/>
+      <c r="AB24" s="122"/>
+      <c r="AC24" s="122"/>
+      <c r="AD24" s="123"/>
+      <c r="AE24" s="123"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="123"/>
+      <c r="AH24" s="123"/>
+    </row>
+    <row r="26" spans="1:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
+      <c r="P26" s="86"/>
+      <c r="Q26" s="86"/>
+      <c r="R26" s="86"/>
+      <c r="S26" s="86"/>
+      <c r="T26" s="86"/>
+      <c r="U26" s="86"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+      <c r="Z26" s="86"/>
+      <c r="AA26" s="86"/>
+      <c r="AB26" s="86"/>
+      <c r="AC26" s="86"/>
+      <c r="AD26" s="86"/>
+      <c r="AE26" s="86"/>
+      <c r="AF26" s="86"/>
+      <c r="AG26" s="86"/>
+      <c r="AH26" s="86"/>
+    </row>
+    <row r="27" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="36"/>
+      <c r="D27" s="86" t="s">
+        <v>36</v>
+      </c>
       <c r="E27" s="86"/>
       <c r="F27" s="86"/>
       <c r="G27" s="86"/>
@@ -11658,7 +11630,7 @@
       <c r="I27" s="86"/>
       <c r="J27" s="86"/>
       <c r="K27" s="86"/>
-      <c r="L27" s="124"/>
+      <c r="L27" s="86"/>
       <c r="M27" s="86"/>
       <c r="N27" s="86"/>
       <c r="O27" s="86"/>
@@ -11684,9 +11656,7 @@
     </row>
     <row r="28" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="36"/>
-      <c r="D28" s="86" t="s">
-        <v>36</v>
-      </c>
+      <c r="D28" s="86"/>
       <c r="E28" s="86"/>
       <c r="F28" s="86"/>
       <c r="G28" s="86"/>
@@ -11720,43 +11690,43 @@
     </row>
     <row r="29" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C29" s="36"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="86"/>
-      <c r="L29" s="86"/>
-      <c r="M29" s="86"/>
-      <c r="N29" s="86"/>
-      <c r="O29" s="86"/>
-      <c r="P29" s="86"/>
-      <c r="Q29" s="86"/>
-      <c r="R29" s="86"/>
-      <c r="S29" s="86"/>
-      <c r="T29" s="86"/>
-      <c r="U29" s="86"/>
-      <c r="V29" s="86"/>
-      <c r="W29" s="86"/>
-      <c r="X29" s="86"/>
-      <c r="Y29" s="86"/>
-      <c r="Z29" s="86"/>
-      <c r="AA29" s="86"/>
-      <c r="AB29" s="86"/>
-      <c r="AC29" s="86"/>
-      <c r="AD29" s="86"/>
-      <c r="AE29" s="86"/>
+      <c r="E29" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="37"/>
+      <c r="T29" s="37"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="37"/>
+      <c r="X29" s="37"/>
+      <c r="Y29" s="37"/>
+      <c r="Z29" s="37"/>
+      <c r="AA29" s="37"/>
+      <c r="AB29" s="37"/>
+      <c r="AC29" s="37"/>
+      <c r="AD29" s="38"/>
+      <c r="AE29" s="38"/>
       <c r="AF29" s="86"/>
       <c r="AG29" s="86"/>
-      <c r="AH29" s="86"/>
+      <c r="AH29" s="38"/>
     </row>
     <row r="30" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="36"/>
-      <c r="E30" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
       <c r="H30" s="37"/>
@@ -11789,81 +11759,86 @@
     </row>
     <row r="31" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="37"/>
-      <c r="W31" s="37"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="37"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="37"/>
-      <c r="AB31" s="37"/>
-      <c r="AC31" s="37"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="86"/>
-      <c r="AG31" s="86"/>
-      <c r="AH31" s="38"/>
-    </row>
-    <row r="32" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="36"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="275" t="s">
+      <c r="D31" s="86"/>
+      <c r="E31" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="275"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="276"/>
-      <c r="I32" s="276"/>
-      <c r="J32" s="276"/>
-      <c r="K32" s="276"/>
-      <c r="L32" s="276"/>
-      <c r="M32" s="275" t="s">
+      <c r="F31" s="228"/>
+      <c r="G31" s="229"/>
+      <c r="H31" s="229"/>
+      <c r="I31" s="229"/>
+      <c r="J31" s="229"/>
+      <c r="K31" s="229"/>
+      <c r="L31" s="229"/>
+      <c r="M31" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="N32" s="275"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="219"/>
-      <c r="Q32" s="219"/>
-      <c r="R32" s="219"/>
-      <c r="S32" s="219"/>
-      <c r="T32" s="219"/>
-      <c r="U32" s="219"/>
-      <c r="V32" s="219"/>
-      <c r="W32" s="219"/>
-      <c r="X32" s="219"/>
-      <c r="Y32" s="219"/>
-      <c r="Z32" s="219"/>
-      <c r="AA32" s="219"/>
-      <c r="AB32" s="219"/>
-      <c r="AC32" s="219"/>
-      <c r="AD32" s="219"/>
-      <c r="AE32" s="219"/>
-      <c r="AF32" s="219"/>
-      <c r="AG32" s="219"/>
-      <c r="AH32" s="220"/>
-    </row>
-    <row r="33" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+      <c r="N31" s="228"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="244"/>
+      <c r="Q31" s="244"/>
+      <c r="R31" s="244"/>
+      <c r="S31" s="244"/>
+      <c r="T31" s="244"/>
+      <c r="U31" s="244"/>
+      <c r="V31" s="244"/>
+      <c r="W31" s="244"/>
+      <c r="X31" s="244"/>
+      <c r="Y31" s="244"/>
+      <c r="Z31" s="244"/>
+      <c r="AA31" s="244"/>
+      <c r="AB31" s="244"/>
+      <c r="AC31" s="244"/>
+      <c r="AD31" s="244"/>
+      <c r="AE31" s="244"/>
+      <c r="AF31" s="244"/>
+      <c r="AG31" s="244"/>
+      <c r="AH31" s="245"/>
+    </row>
+    <row r="32" spans="1:34" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
+      <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
+    </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="C35" s="78" t="s">
+        <v>33</v>
+      </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -11900,18 +11875,18 @@
     <row r="36" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
-      <c r="C36" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" s="18"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="78" t="s">
+        <v>43</v>
+      </c>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
       <c r="M36" s="18"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
@@ -11939,15 +11914,13 @@
     <row r="37" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78" t="s">
-        <v>43</v>
-      </c>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="41"/>
+      <c r="I37" s="18"/>
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
       <c r="L37" s="41"/>
@@ -12015,7 +11988,7 @@
     <row r="39" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="C39" s="41"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
@@ -12052,15 +12025,15 @@
     <row r="40" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A40" s="18"/>
       <c r="B40" s="18"/>
-      <c r="C40" s="41"/>
+      <c r="C40" s="93"/>
       <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="E40" s="78"/>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
       <c r="I40" s="18"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93"/>
       <c r="L40" s="41"/>
       <c r="M40" s="18"/>
       <c r="N40" s="18"/>
@@ -12091,7 +12064,7 @@
       <c r="B41" s="18"/>
       <c r="C41" s="93"/>
       <c r="D41" s="18"/>
-      <c r="E41" s="78"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
@@ -12126,15 +12099,15 @@
     <row r="42" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A42" s="18"/>
       <c r="B42" s="18"/>
-      <c r="C42" s="93"/>
+      <c r="C42" s="41"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
+      <c r="E42" s="78"/>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
       <c r="H42" s="18"/>
       <c r="I42" s="18"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93"/>
+      <c r="J42" s="94"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="41"/>
       <c r="M42" s="18"/>
       <c r="N42" s="18"/>
@@ -12163,7 +12136,7 @@
     <row r="43" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A43" s="18"/>
       <c r="B43" s="18"/>
-      <c r="C43" s="41"/>
+      <c r="C43" s="93"/>
       <c r="D43" s="18"/>
       <c r="E43" s="78"/>
       <c r="F43" s="18"/>
@@ -12200,16 +12173,16 @@
     <row r="44" spans="1:35" x14ac:dyDescent="0.15">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="93"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="18"/>
-      <c r="E44" s="78"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
       <c r="H44" s="18"/>
       <c r="I44" s="18"/>
-      <c r="J44" s="94"/>
-      <c r="K44" s="94"/>
-      <c r="L44" s="41"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
       <c r="M44" s="18"/>
       <c r="N44" s="18"/>
       <c r="O44" s="18"/>
@@ -12243,8 +12216,8 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
       <c r="M45" s="18"/>
@@ -12280,8 +12253,8 @@
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="18"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -13566,48 +13539,45 @@
       <c r="AH80" s="18"/>
       <c r="AI80" s="18"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
-      <c r="AG81" s="18"/>
-      <c r="AH81" s="18"/>
-      <c r="AI81" s="18"/>
-    </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C84" s="35" t="s">
+    <row r="83" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C83" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="D84" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+    </row>
+    <row r="84" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C84" s="35"/>
+      <c r="D84" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="E84" s="35"/>
       <c r="F84" s="35"/>
       <c r="G84" s="35"/>
@@ -13637,11 +13607,9 @@
       <c r="AE84" s="35"/>
       <c r="AF84" s="35"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="85" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C85" s="35"/>
-      <c r="D85" s="35" t="s">
-        <v>37</v>
-      </c>
+      <c r="D85" s="35"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
@@ -13671,43 +13639,43 @@
       <c r="AE85" s="35"/>
       <c r="AF85" s="35"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="86" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
+      <c r="E86" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="37"/>
+      <c r="K86" s="37"/>
+      <c r="L86" s="37"/>
+      <c r="M86" s="37"/>
+      <c r="N86" s="37"/>
+      <c r="O86" s="37"/>
+      <c r="P86" s="37"/>
+      <c r="Q86" s="37"/>
+      <c r="R86" s="37"/>
+      <c r="S86" s="37"/>
+      <c r="T86" s="37"/>
+      <c r="U86" s="37"/>
+      <c r="V86" s="37"/>
+      <c r="W86" s="37"/>
+      <c r="X86" s="37"/>
+      <c r="Y86" s="37"/>
+      <c r="Z86" s="37"/>
+      <c r="AA86" s="37"/>
+      <c r="AB86" s="37"/>
+      <c r="AC86" s="37"/>
+      <c r="AD86" s="38"/>
       <c r="AE86" s="35"/>
       <c r="AF86" s="35"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="87" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C87" s="35"/>
-      <c r="E87" s="37" t="s">
-        <v>69</v>
-      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
       <c r="H87" s="37"/>
@@ -13736,79 +13704,81 @@
       <c r="AE87" s="35"/>
       <c r="AF87" s="35"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="88" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C88" s="35"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="37"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="37"/>
-      <c r="Q88" s="37"/>
-      <c r="R88" s="37"/>
-      <c r="S88" s="37"/>
-      <c r="T88" s="37"/>
-      <c r="U88" s="37"/>
-      <c r="V88" s="37"/>
-      <c r="W88" s="37"/>
-      <c r="X88" s="37"/>
-      <c r="Y88" s="37"/>
-      <c r="Z88" s="37"/>
-      <c r="AA88" s="37"/>
-      <c r="AB88" s="37"/>
-      <c r="AC88" s="37"/>
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-    </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.15">
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="275" t="s">
+      <c r="D88" s="35"/>
+      <c r="E88" s="228" t="s">
         <v>28</v>
       </c>
-      <c r="F89" s="275"/>
-      <c r="G89" s="276"/>
-      <c r="H89" s="276"/>
-      <c r="I89" s="276"/>
-      <c r="J89" s="276"/>
-      <c r="K89" s="276"/>
-      <c r="L89" s="276"/>
-      <c r="M89" s="275" t="s">
+      <c r="F88" s="228"/>
+      <c r="G88" s="229"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="229"/>
+      <c r="J88" s="229"/>
+      <c r="K88" s="229"/>
+      <c r="L88" s="229"/>
+      <c r="M88" s="228" t="s">
         <v>29</v>
       </c>
-      <c r="N89" s="275"/>
-      <c r="O89" s="218"/>
-      <c r="P89" s="219"/>
-      <c r="Q89" s="219"/>
-      <c r="R89" s="219"/>
-      <c r="S89" s="219"/>
-      <c r="T89" s="219"/>
-      <c r="U89" s="219"/>
-      <c r="V89" s="219"/>
-      <c r="W89" s="219"/>
-      <c r="X89" s="219"/>
-      <c r="Y89" s="219"/>
-      <c r="Z89" s="219"/>
-      <c r="AA89" s="219"/>
-      <c r="AB89" s="219"/>
-      <c r="AC89" s="219"/>
-      <c r="AD89" s="219"/>
-      <c r="AE89" s="219"/>
-      <c r="AF89" s="219"/>
-      <c r="AG89" s="219"/>
-      <c r="AH89" s="220"/>
-    </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="N88" s="228"/>
+      <c r="O88" s="243"/>
+      <c r="P88" s="244"/>
+      <c r="Q88" s="244"/>
+      <c r="R88" s="244"/>
+      <c r="S88" s="244"/>
+      <c r="T88" s="244"/>
+      <c r="U88" s="244"/>
+      <c r="V88" s="244"/>
+      <c r="W88" s="244"/>
+      <c r="X88" s="244"/>
+      <c r="Y88" s="244"/>
+      <c r="Z88" s="244"/>
+      <c r="AA88" s="244"/>
+      <c r="AB88" s="244"/>
+      <c r="AC88" s="244"/>
+      <c r="AD88" s="244"/>
+      <c r="AE88" s="244"/>
+      <c r="AF88" s="244"/>
+      <c r="AG88" s="244"/>
+      <c r="AH88" s="245"/>
+    </row>
+    <row r="90" spans="3:34" x14ac:dyDescent="0.15">
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+    </row>
+    <row r="91" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
+      <c r="D91" s="35" t="s">
+        <v>38</v>
+      </c>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
@@ -13838,11 +13808,9 @@
       <c r="AE91" s="35"/>
       <c r="AF91" s="35"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="92" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C92" s="35"/>
-      <c r="D92" s="35" t="s">
-        <v>38</v>
-      </c>
+      <c r="D92" s="35"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
@@ -13872,332 +13840,319 @@
       <c r="AE92" s="35"/>
       <c r="AF92" s="35"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.15">
+    <row r="93" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C93" s="35"/>
       <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
-      <c r="I93" s="35"/>
-      <c r="J93" s="35"/>
-      <c r="K93" s="35"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="35"/>
-      <c r="N93" s="35"/>
-      <c r="O93" s="35"/>
-      <c r="P93" s="35"/>
-      <c r="Q93" s="35"/>
-      <c r="R93" s="35"/>
-      <c r="S93" s="35"/>
-      <c r="T93" s="35"/>
-      <c r="U93" s="35"/>
-      <c r="V93" s="35"/>
-      <c r="W93" s="35"/>
-      <c r="X93" s="35"/>
-      <c r="Y93" s="35"/>
-      <c r="Z93" s="35"/>
-      <c r="AA93" s="35"/>
-      <c r="AB93" s="35"/>
-      <c r="AC93" s="35"/>
-      <c r="AD93" s="35"/>
-      <c r="AE93" s="35"/>
-      <c r="AF93" s="35"/>
-    </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E93" s="246" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93" s="249" t="s">
+        <v>30</v>
+      </c>
+      <c r="G93" s="250"/>
+      <c r="H93" s="250"/>
+      <c r="I93" s="251"/>
+      <c r="J93" s="249" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" s="250"/>
+      <c r="L93" s="250"/>
+      <c r="M93" s="251"/>
+      <c r="N93" s="248" t="s">
+        <v>13</v>
+      </c>
+      <c r="O93" s="248"/>
+      <c r="P93" s="248"/>
+      <c r="Q93" s="248"/>
+      <c r="R93" s="248"/>
+      <c r="S93" s="248"/>
+      <c r="T93" s="248"/>
+      <c r="U93" s="248"/>
+      <c r="V93" s="248"/>
+      <c r="W93" s="249" t="s">
+        <v>40</v>
+      </c>
+      <c r="X93" s="250"/>
+      <c r="Y93" s="250"/>
+      <c r="Z93" s="250"/>
+      <c r="AA93" s="250"/>
+      <c r="AB93" s="250"/>
+      <c r="AC93" s="251"/>
+      <c r="AD93" s="249" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE93" s="250"/>
+      <c r="AF93" s="250"/>
+      <c r="AG93" s="250"/>
+      <c r="AH93" s="251"/>
+    </row>
+    <row r="94" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="277" t="s">
-        <v>39</v>
-      </c>
-      <c r="F94" s="221" t="s">
-        <v>30</v>
-      </c>
-      <c r="G94" s="222"/>
-      <c r="H94" s="222"/>
-      <c r="I94" s="223"/>
-      <c r="J94" s="221" t="s">
-        <v>15</v>
-      </c>
-      <c r="K94" s="222"/>
-      <c r="L94" s="222"/>
-      <c r="M94" s="223"/>
-      <c r="N94" s="235" t="s">
-        <v>13</v>
-      </c>
-      <c r="O94" s="235"/>
-      <c r="P94" s="235"/>
-      <c r="Q94" s="235"/>
-      <c r="R94" s="235"/>
-      <c r="S94" s="235"/>
-      <c r="T94" s="235"/>
-      <c r="U94" s="235"/>
-      <c r="V94" s="235"/>
-      <c r="W94" s="221" t="s">
-        <v>40</v>
-      </c>
-      <c r="X94" s="222"/>
-      <c r="Y94" s="222"/>
-      <c r="Z94" s="222"/>
-      <c r="AA94" s="222"/>
-      <c r="AB94" s="222"/>
-      <c r="AC94" s="223"/>
-      <c r="AD94" s="221" t="s">
-        <v>41</v>
-      </c>
-      <c r="AE94" s="222"/>
-      <c r="AF94" s="222"/>
-      <c r="AG94" s="222"/>
-      <c r="AH94" s="223"/>
-    </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="D94" s="37"/>
+      <c r="E94" s="247"/>
+      <c r="F94" s="252"/>
+      <c r="G94" s="253"/>
+      <c r="H94" s="253"/>
+      <c r="I94" s="254"/>
+      <c r="J94" s="252"/>
+      <c r="K94" s="253"/>
+      <c r="L94" s="253"/>
+      <c r="M94" s="254"/>
+      <c r="N94" s="248" t="s">
+        <v>0</v>
+      </c>
+      <c r="O94" s="248"/>
+      <c r="P94" s="248"/>
+      <c r="Q94" s="248"/>
+      <c r="R94" s="248"/>
+      <c r="S94" s="255" t="s">
+        <v>12</v>
+      </c>
+      <c r="T94" s="255"/>
+      <c r="U94" s="255"/>
+      <c r="V94" s="255"/>
+      <c r="W94" s="252"/>
+      <c r="X94" s="253"/>
+      <c r="Y94" s="253"/>
+      <c r="Z94" s="253"/>
+      <c r="AA94" s="253"/>
+      <c r="AB94" s="253"/>
+      <c r="AC94" s="254"/>
+      <c r="AD94" s="252"/>
+      <c r="AE94" s="253"/>
+      <c r="AF94" s="253"/>
+      <c r="AG94" s="253"/>
+      <c r="AH94" s="254"/>
+    </row>
+    <row r="95" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C95" s="35"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="278"/>
-      <c r="F95" s="224"/>
-      <c r="G95" s="225"/>
-      <c r="H95" s="225"/>
-      <c r="I95" s="226"/>
-      <c r="J95" s="224"/>
-      <c r="K95" s="225"/>
-      <c r="L95" s="225"/>
-      <c r="M95" s="226"/>
-      <c r="N95" s="235" t="s">
-        <v>0</v>
-      </c>
-      <c r="O95" s="235"/>
-      <c r="P95" s="235"/>
-      <c r="Q95" s="235"/>
-      <c r="R95" s="235"/>
-      <c r="S95" s="236" t="s">
-        <v>12</v>
-      </c>
-      <c r="T95" s="236"/>
-      <c r="U95" s="236"/>
-      <c r="V95" s="236"/>
-      <c r="W95" s="224"/>
-      <c r="X95" s="225"/>
-      <c r="Y95" s="225"/>
-      <c r="Z95" s="225"/>
-      <c r="AA95" s="225"/>
-      <c r="AB95" s="225"/>
-      <c r="AC95" s="226"/>
-      <c r="AD95" s="224"/>
-      <c r="AE95" s="225"/>
-      <c r="AF95" s="225"/>
-      <c r="AG95" s="225"/>
-      <c r="AH95" s="226"/>
-    </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.15">
+      <c r="E95" s="39">
+        <v>1</v>
+      </c>
+      <c r="F95" s="256"/>
+      <c r="G95" s="257"/>
+      <c r="H95" s="257"/>
+      <c r="I95" s="258"/>
+      <c r="J95" s="256"/>
+      <c r="K95" s="257"/>
+      <c r="L95" s="257"/>
+      <c r="M95" s="258"/>
+      <c r="N95" s="226"/>
+      <c r="O95" s="227"/>
+      <c r="P95" s="227"/>
+      <c r="Q95" s="227"/>
+      <c r="R95" s="227"/>
+      <c r="S95" s="222"/>
+      <c r="T95" s="222"/>
+      <c r="U95" s="222"/>
+      <c r="V95" s="222"/>
+      <c r="W95" s="223"/>
+      <c r="X95" s="224"/>
+      <c r="Y95" s="224"/>
+      <c r="Z95" s="224"/>
+      <c r="AA95" s="224"/>
+      <c r="AB95" s="224"/>
+      <c r="AC95" s="225"/>
+      <c r="AD95" s="223"/>
+      <c r="AE95" s="224"/>
+      <c r="AF95" s="224"/>
+      <c r="AG95" s="224"/>
+      <c r="AH95" s="225"/>
+    </row>
+    <row r="96" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C96" s="35"/>
       <c r="D96" s="37"/>
       <c r="E96" s="39">
-        <v>1</v>
-      </c>
-      <c r="F96" s="227"/>
-      <c r="G96" s="228"/>
-      <c r="H96" s="228"/>
-      <c r="I96" s="229"/>
-      <c r="J96" s="227"/>
-      <c r="K96" s="228"/>
-      <c r="L96" s="228"/>
-      <c r="M96" s="229"/>
-      <c r="N96" s="233"/>
-      <c r="O96" s="234"/>
-      <c r="P96" s="234"/>
-      <c r="Q96" s="234"/>
-      <c r="R96" s="234"/>
-      <c r="S96" s="216"/>
-      <c r="T96" s="216"/>
-      <c r="U96" s="216"/>
-      <c r="V96" s="216"/>
-      <c r="W96" s="230"/>
-      <c r="X96" s="231"/>
-      <c r="Y96" s="231"/>
-      <c r="Z96" s="231"/>
-      <c r="AA96" s="231"/>
-      <c r="AB96" s="231"/>
-      <c r="AC96" s="232"/>
-      <c r="AD96" s="230"/>
-      <c r="AE96" s="231"/>
-      <c r="AF96" s="231"/>
-      <c r="AG96" s="231"/>
-      <c r="AH96" s="232"/>
+        <v>2</v>
+      </c>
+      <c r="F96" s="256"/>
+      <c r="G96" s="257"/>
+      <c r="H96" s="257"/>
+      <c r="I96" s="258"/>
+      <c r="J96" s="256"/>
+      <c r="K96" s="257"/>
+      <c r="L96" s="257"/>
+      <c r="M96" s="258"/>
+      <c r="N96" s="226"/>
+      <c r="O96" s="227"/>
+      <c r="P96" s="227"/>
+      <c r="Q96" s="227"/>
+      <c r="R96" s="227"/>
+      <c r="S96" s="222"/>
+      <c r="T96" s="222"/>
+      <c r="U96" s="222"/>
+      <c r="V96" s="222"/>
+      <c r="W96" s="223"/>
+      <c r="X96" s="224"/>
+      <c r="Y96" s="224"/>
+      <c r="Z96" s="224"/>
+      <c r="AA96" s="224"/>
+      <c r="AB96" s="224"/>
+      <c r="AC96" s="225"/>
+      <c r="AD96" s="223"/>
+      <c r="AE96" s="224"/>
+      <c r="AF96" s="224"/>
+      <c r="AG96" s="224"/>
+      <c r="AH96" s="225"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="35"/>
       <c r="D97" s="37"/>
       <c r="E97" s="39">
-        <v>2</v>
-      </c>
-      <c r="F97" s="227"/>
-      <c r="G97" s="228"/>
-      <c r="H97" s="228"/>
-      <c r="I97" s="229"/>
-      <c r="J97" s="227"/>
-      <c r="K97" s="228"/>
-      <c r="L97" s="228"/>
-      <c r="M97" s="229"/>
-      <c r="N97" s="233"/>
-      <c r="O97" s="234"/>
-      <c r="P97" s="234"/>
-      <c r="Q97" s="234"/>
-      <c r="R97" s="234"/>
-      <c r="S97" s="216"/>
-      <c r="T97" s="216"/>
-      <c r="U97" s="216"/>
-      <c r="V97" s="216"/>
-      <c r="W97" s="230"/>
-      <c r="X97" s="231"/>
-      <c r="Y97" s="231"/>
-      <c r="Z97" s="231"/>
-      <c r="AA97" s="231"/>
-      <c r="AB97" s="231"/>
-      <c r="AC97" s="232"/>
-      <c r="AD97" s="230"/>
-      <c r="AE97" s="231"/>
-      <c r="AF97" s="231"/>
-      <c r="AG97" s="231"/>
-      <c r="AH97" s="232"/>
+        <v>3</v>
+      </c>
+      <c r="F97" s="256"/>
+      <c r="G97" s="257"/>
+      <c r="H97" s="257"/>
+      <c r="I97" s="258"/>
+      <c r="J97" s="256"/>
+      <c r="K97" s="257"/>
+      <c r="L97" s="257"/>
+      <c r="M97" s="258"/>
+      <c r="N97" s="226"/>
+      <c r="O97" s="227"/>
+      <c r="P97" s="227"/>
+      <c r="Q97" s="227"/>
+      <c r="R97" s="227"/>
+      <c r="S97" s="222"/>
+      <c r="T97" s="222"/>
+      <c r="U97" s="222"/>
+      <c r="V97" s="222"/>
+      <c r="W97" s="223"/>
+      <c r="X97" s="224"/>
+      <c r="Y97" s="224"/>
+      <c r="Z97" s="224"/>
+      <c r="AA97" s="224"/>
+      <c r="AB97" s="224"/>
+      <c r="AC97" s="225"/>
+      <c r="AD97" s="223"/>
+      <c r="AE97" s="224"/>
+      <c r="AF97" s="224"/>
+      <c r="AG97" s="224"/>
+      <c r="AH97" s="225"/>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="35"/>
       <c r="D98" s="37"/>
       <c r="E98" s="39">
-        <v>3</v>
-      </c>
-      <c r="F98" s="227"/>
-      <c r="G98" s="228"/>
-      <c r="H98" s="228"/>
-      <c r="I98" s="229"/>
-      <c r="J98" s="227"/>
-      <c r="K98" s="228"/>
-      <c r="L98" s="228"/>
-      <c r="M98" s="229"/>
-      <c r="N98" s="233"/>
-      <c r="O98" s="234"/>
-      <c r="P98" s="234"/>
-      <c r="Q98" s="234"/>
-      <c r="R98" s="234"/>
-      <c r="S98" s="216"/>
-      <c r="T98" s="216"/>
-      <c r="U98" s="216"/>
-      <c r="V98" s="216"/>
-      <c r="W98" s="230"/>
-      <c r="X98" s="231"/>
-      <c r="Y98" s="231"/>
-      <c r="Z98" s="231"/>
-      <c r="AA98" s="231"/>
-      <c r="AB98" s="231"/>
-      <c r="AC98" s="232"/>
-      <c r="AD98" s="230"/>
-      <c r="AE98" s="231"/>
-      <c r="AF98" s="231"/>
-      <c r="AG98" s="231"/>
-      <c r="AH98" s="232"/>
+        <v>4</v>
+      </c>
+      <c r="F98" s="256"/>
+      <c r="G98" s="257"/>
+      <c r="H98" s="257"/>
+      <c r="I98" s="258"/>
+      <c r="J98" s="256"/>
+      <c r="K98" s="257"/>
+      <c r="L98" s="257"/>
+      <c r="M98" s="258"/>
+      <c r="N98" s="226"/>
+      <c r="O98" s="227"/>
+      <c r="P98" s="227"/>
+      <c r="Q98" s="227"/>
+      <c r="R98" s="227"/>
+      <c r="S98" s="222"/>
+      <c r="T98" s="222"/>
+      <c r="U98" s="222"/>
+      <c r="V98" s="222"/>
+      <c r="W98" s="223"/>
+      <c r="X98" s="224"/>
+      <c r="Y98" s="224"/>
+      <c r="Z98" s="224"/>
+      <c r="AA98" s="224"/>
+      <c r="AB98" s="224"/>
+      <c r="AC98" s="225"/>
+      <c r="AD98" s="223"/>
+      <c r="AE98" s="224"/>
+      <c r="AF98" s="224"/>
+      <c r="AG98" s="224"/>
+      <c r="AH98" s="225"/>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="35"/>
       <c r="D99" s="37"/>
       <c r="E99" s="39">
-        <v>4</v>
-      </c>
-      <c r="F99" s="227"/>
-      <c r="G99" s="228"/>
-      <c r="H99" s="228"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="227"/>
-      <c r="K99" s="228"/>
-      <c r="L99" s="228"/>
-      <c r="M99" s="229"/>
-      <c r="N99" s="233"/>
-      <c r="O99" s="234"/>
-      <c r="P99" s="234"/>
-      <c r="Q99" s="234"/>
-      <c r="R99" s="234"/>
-      <c r="S99" s="216"/>
-      <c r="T99" s="216"/>
-      <c r="U99" s="216"/>
-      <c r="V99" s="216"/>
-      <c r="W99" s="230"/>
-      <c r="X99" s="231"/>
-      <c r="Y99" s="231"/>
-      <c r="Z99" s="231"/>
-      <c r="AA99" s="231"/>
-      <c r="AB99" s="231"/>
-      <c r="AC99" s="232"/>
-      <c r="AD99" s="230"/>
-      <c r="AE99" s="231"/>
-      <c r="AF99" s="231"/>
-      <c r="AG99" s="231"/>
-      <c r="AH99" s="232"/>
-    </row>
-    <row r="100" spans="3:34" x14ac:dyDescent="0.15">
-      <c r="C100" s="35"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="39">
         <v>5</v>
       </c>
-      <c r="F100" s="227"/>
-      <c r="G100" s="228"/>
-      <c r="H100" s="228"/>
-      <c r="I100" s="229"/>
-      <c r="J100" s="227"/>
-      <c r="K100" s="228"/>
-      <c r="L100" s="228"/>
-      <c r="M100" s="229"/>
-      <c r="N100" s="233"/>
-      <c r="O100" s="234"/>
-      <c r="P100" s="234"/>
-      <c r="Q100" s="234"/>
-      <c r="R100" s="234"/>
-      <c r="S100" s="216"/>
-      <c r="T100" s="216"/>
-      <c r="U100" s="216"/>
-      <c r="V100" s="216"/>
-      <c r="W100" s="230"/>
-      <c r="X100" s="231"/>
-      <c r="Y100" s="231"/>
-      <c r="Z100" s="231"/>
-      <c r="AA100" s="231"/>
-      <c r="AB100" s="231"/>
-      <c r="AC100" s="232"/>
-      <c r="AD100" s="230"/>
-      <c r="AE100" s="231"/>
-      <c r="AF100" s="231"/>
-      <c r="AG100" s="231"/>
-      <c r="AH100" s="232"/>
+      <c r="F99" s="256"/>
+      <c r="G99" s="257"/>
+      <c r="H99" s="257"/>
+      <c r="I99" s="258"/>
+      <c r="J99" s="256"/>
+      <c r="K99" s="257"/>
+      <c r="L99" s="257"/>
+      <c r="M99" s="258"/>
+      <c r="N99" s="226"/>
+      <c r="O99" s="227"/>
+      <c r="P99" s="227"/>
+      <c r="Q99" s="227"/>
+      <c r="R99" s="227"/>
+      <c r="S99" s="222"/>
+      <c r="T99" s="222"/>
+      <c r="U99" s="222"/>
+      <c r="V99" s="222"/>
+      <c r="W99" s="223"/>
+      <c r="X99" s="224"/>
+      <c r="Y99" s="224"/>
+      <c r="Z99" s="224"/>
+      <c r="AA99" s="224"/>
+      <c r="AB99" s="224"/>
+      <c r="AC99" s="225"/>
+      <c r="AD99" s="223"/>
+      <c r="AE99" s="224"/>
+      <c r="AF99" s="224"/>
+      <c r="AG99" s="224"/>
+      <c r="AH99" s="225"/>
     </row>
   </sheetData>
-  <mergeCells count="111">
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="S100:V100"/>
-    <mergeCell ref="W100:AC100"/>
-    <mergeCell ref="AD100:AH100"/>
+  <mergeCells count="103">
+    <mergeCell ref="J98:M98"/>
+    <mergeCell ref="J99:M99"/>
+    <mergeCell ref="O88:AH88"/>
+    <mergeCell ref="F93:I94"/>
+    <mergeCell ref="J93:M94"/>
+    <mergeCell ref="AD93:AH94"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:AH17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:AH18"/>
     <mergeCell ref="N99:R99"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="W99:AC99"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="G89:L89"/>
-    <mergeCell ref="M89:N89"/>
+    <mergeCell ref="O31:AH31"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="N93:V93"/>
+    <mergeCell ref="AD95:AH95"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="AD97:AH97"/>
     <mergeCell ref="N96:R96"/>
     <mergeCell ref="S96:V96"/>
     <mergeCell ref="W96:AC96"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="AD96:AH96"/>
+    <mergeCell ref="W93:AC94"/>
+    <mergeCell ref="N94:R94"/>
+    <mergeCell ref="S94:V94"/>
+    <mergeCell ref="F95:I95"/>
+    <mergeCell ref="F96:I96"/>
+    <mergeCell ref="F97:I97"/>
+    <mergeCell ref="F98:I98"/>
+    <mergeCell ref="F99:I99"/>
+    <mergeCell ref="J95:M95"/>
+    <mergeCell ref="J96:M96"/>
+    <mergeCell ref="J97:M97"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:J9"/>
     <mergeCell ref="K8:N9"/>
@@ -14211,76 +14166,49 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="N100:R100"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:V24"/>
-    <mergeCell ref="W24:Z24"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:G18"/>
-    <mergeCell ref="H17:V18"/>
-    <mergeCell ref="W17:Z18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:V19"/>
-    <mergeCell ref="W19:Z19"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H20:V20"/>
-    <mergeCell ref="W20:Z20"/>
-    <mergeCell ref="H21:V21"/>
-    <mergeCell ref="W21:Z21"/>
-    <mergeCell ref="H22:V22"/>
-    <mergeCell ref="W22:Z22"/>
-    <mergeCell ref="H23:V23"/>
-    <mergeCell ref="W23:Z23"/>
-    <mergeCell ref="O32:AH32"/>
-    <mergeCell ref="E94:E95"/>
-    <mergeCell ref="N94:V94"/>
-    <mergeCell ref="AD96:AH96"/>
-    <mergeCell ref="AD94:AH95"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="W99:AC99"/>
+    <mergeCell ref="AD99:AH99"/>
     <mergeCell ref="N98:R98"/>
     <mergeCell ref="S98:V98"/>
     <mergeCell ref="W98:AC98"/>
     <mergeCell ref="AD98:AH98"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="W94:AC95"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="G88:L88"/>
+    <mergeCell ref="M88:N88"/>
     <mergeCell ref="N95:R95"/>
     <mergeCell ref="S95:V95"/>
-    <mergeCell ref="F96:I96"/>
-    <mergeCell ref="F97:I97"/>
-    <mergeCell ref="F98:I98"/>
-    <mergeCell ref="F99:I99"/>
-    <mergeCell ref="F100:I100"/>
-    <mergeCell ref="J96:M96"/>
-    <mergeCell ref="J97:M97"/>
-    <mergeCell ref="J98:M98"/>
-    <mergeCell ref="J99:M99"/>
-    <mergeCell ref="J100:M100"/>
-    <mergeCell ref="AA19:AH19"/>
-    <mergeCell ref="AA20:AH20"/>
-    <mergeCell ref="AA21:AH21"/>
-    <mergeCell ref="AA22:AH22"/>
-    <mergeCell ref="AA23:AH23"/>
-    <mergeCell ref="AA24:AH24"/>
-    <mergeCell ref="AA17:AH18"/>
-    <mergeCell ref="O89:AH89"/>
-    <mergeCell ref="F94:I95"/>
-    <mergeCell ref="J94:M95"/>
+    <mergeCell ref="W95:AC95"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="K20:AH20"/>
+    <mergeCell ref="K21:AH21"/>
+    <mergeCell ref="K22:AH22"/>
+    <mergeCell ref="K23:AH23"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">
@@ -14301,8 +14229,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="34" max="34" man="1"/>
-    <brk id="82" max="34" man="1"/>
+    <brk id="33" max="34" man="1"/>
+    <brk id="81" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -14324,37 +14252,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="96" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="97" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="97" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="97" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="97" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
